--- a/pitchTracking/keyData.xlsx
+++ b/pitchTracking/keyData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaco\Desktop\smc8-pm-project\workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaco\Desktop\smc8-pm-project\pitchTracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE595DB2-A987-4B2A-A943-B800AFC69DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD607B9-B2EC-4993-ADB8-624BF9CC8A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keynotes" sheetId="1" r:id="rId1"/>
+    <sheet name="raw" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="116">
   <si>
     <t>note</t>
   </si>
@@ -129,6 +130,261 @@
   </si>
   <si>
     <t>midi number</t>
+  </si>
+  <si>
+    <t>{'i': 0, 'avg': 27.981144915878772, 'med': 30.155607223510742}</t>
+  </si>
+  <si>
+    <t>{'i': 1, 'avg': 33.40596106090148, 'med': 33.98252868652344}</t>
+  </si>
+  <si>
+    <t>{'i': 2, 'avg': 31.30551833365361, 'med': 30.003725051879883}</t>
+  </si>
+  <si>
+    <t>{'i': 3, 'avg': 32.58934638798237, 'med': 32.52063751220703}</t>
+  </si>
+  <si>
+    <t>{'i': 4, 'avg': 34.437788217822714, 'med': 32.72134590148926}</t>
+  </si>
+  <si>
+    <t>{'i': 5, 'avg': 38.07692410155138, 'med': 38.558156967163086}</t>
+  </si>
+  <si>
+    <t>{'i': 6, 'avg': 40.099845308462776, 'med': 40.519195556640625}</t>
+  </si>
+  <si>
+    <t>{'i': 7, 'avg': 42.63179800963402, 'med': 42.90085220336914}</t>
+  </si>
+  <si>
+    <t>{'i': 8, 'avg': 46.087994646867116, 'med': 46.027334213256836}</t>
+  </si>
+  <si>
+    <t>{'i': 9, 'avg': 46.47803195973238, 'med': 46.51675033569336}</t>
+  </si>
+  <si>
+    <t>{'i': 10, 'avg': 52.01550079329809, 'med': 51.64544486999512}</t>
+  </si>
+  <si>
+    <t>{'i': 11, 'avg': 55.245900499343875, 'med': 54.68399429321289}</t>
+  </si>
+  <si>
+    <t>{'i': 12, 'avg': 58.33656443289916, 'med': 56.64212989807129}</t>
+  </si>
+  <si>
+    <t>{'i': 13, 'avg': 62.4422426028649, 'med': 63.860185623168945}</t>
+  </si>
+  <si>
+    <t>{'i': 14, 'avg': 66.75883223847548, 'med': 67.66460800170898}</t>
+  </si>
+  <si>
+    <t>{'i': 15, 'avg': 71.17297422854105, 'med': 71.3293228149414}</t>
+  </si>
+  <si>
+    <t>{'i': 16, 'avg': 75.71890605250995, 'med': 75.59438705444336}</t>
+  </si>
+  <si>
+    <t>{'i': 17, 'avg': 80.48422333105405, 'med': 80.52239227294922}</t>
+  </si>
+  <si>
+    <t>{'i': 18, 'avg': 85.65842625331878, 'med': 84.82609558105469}</t>
+  </si>
+  <si>
+    <t>{'i': 19, 'avg': 91.91957414428393, 'med': 90.39427185058594}</t>
+  </si>
+  <si>
+    <t>{'i': 20, 'avg': 98.53099295274417, 'med': 96.33784484863281}</t>
+  </si>
+  <si>
+    <t>{'i': 21, 'avg': 105.28279017869632, 'med': 107.48590087890625}</t>
+  </si>
+  <si>
+    <t>{'i': 22, 'avg': 112.70146010740598, 'med': 113.87747955322266}</t>
+  </si>
+  <si>
+    <t>{'i': 23, 'avg': 120.62661853528023, 'med': 120.64917755126953}</t>
+  </si>
+  <si>
+    <t>{'i': 24, 'avg': 127.3168320833842, 'med': 127.1151123046875}</t>
+  </si>
+  <si>
+    <t>{'i': 25, 'avg': 135.98563493378958, 'med': 136.17723083496094}</t>
+  </si>
+  <si>
+    <t>{'i': 26, 'avg': 144.39497889677685, 'med': 143.49569702148438}</t>
+  </si>
+  <si>
+    <t>{'i': 27, 'avg': 152.1852233265241, 'med': 149.2952423095703}</t>
+  </si>
+  <si>
+    <t>{'i': 28, 'avg': 163.9626669880549, 'med': 160.17417907714844}</t>
+  </si>
+  <si>
+    <t>{'i': 29, 'avg': 174.9157793334325, 'med': 177.6292495727539}</t>
+  </si>
+  <si>
+    <t>{'i': 30, 'avg': 188.08975978708267, 'med': 190.40322875976562}</t>
+  </si>
+  <si>
+    <t>{'i': 31, 'avg': 200.26188737503688, 'med': 200.57839965820312}</t>
+  </si>
+  <si>
+    <t>{'i': 32, 'avg': 213.6241743941307, 'med': 213.73367309570312}</t>
+  </si>
+  <si>
+    <t>{'i': 33, 'avg': 226.53191313028336, 'med': 226.45346069335938}</t>
+  </si>
+  <si>
+    <t>{'i': 34, 'avg': 241.7331495687167, 'med': 240.29383850097656}</t>
+  </si>
+  <si>
+    <t>{'i': 35, 'avg': 257.92340325069426, 'med': 252.74951934814453}</t>
+  </si>
+  <si>
+    <t>{'i': 36, 'avg': 275.970416208903, 'med': 271.1196594238281}</t>
+  </si>
+  <si>
+    <t>{'i': 37, 'avg': 294.11734366607664, 'med': 300.34690856933594}</t>
+  </si>
+  <si>
+    <t>{'i': 38, 'avg': 309.81862927246095, 'med': 312.6297912597656}</t>
+  </si>
+  <si>
+    <t>{'i': 39, 'avg': 340.29036672306063, 'med': 341.18994140625}</t>
+  </si>
+  <si>
+    <t>{'i': 40, 'avg': 359.0847039496104, 'med': 359.4280700683594}</t>
+  </si>
+  <si>
+    <t>{'i': 41, 'avg': 381.7346109647751, 'med': 380.9569549560547}</t>
+  </si>
+  <si>
+    <t>{'i': 42, 'avg': 405.82432209714256, 'med': 402.00999450683594}</t>
+  </si>
+  <si>
+    <t>{'i': 43, 'avg': 430.6718992621104, 'med': 422.7430114746094}</t>
+  </si>
+  <si>
+    <t>{'i': 44, 'avg': 465.6692874968847, 'med': 455.8449401855469}</t>
+  </si>
+  <si>
+    <t>{'i': 45, 'avg': 496.5378523429235, 'med': 503.2793273925781}</t>
+  </si>
+  <si>
+    <t>{'i': 46, 'avg': 516.9112265666325, 'med': 517.5404968261719}</t>
+  </si>
+  <si>
+    <t>{'i': 47, 'avg': 548.3527148876191, 'med': 548.1595153808594}</t>
+  </si>
+  <si>
+    <t>{'i': 48, 'avg': 595.4260498606363, 'med': 594.2708740234375}</t>
+  </si>
+  <si>
+    <t>{'i': 49, 'avg': 632.7552216008504, 'med': 632.917724609375}</t>
+  </si>
+  <si>
+    <t>{'i': 50, 'avg': 678.4946563739777, 'med': 671.1213073730469}</t>
+  </si>
+  <si>
+    <t>{'i': 51, 'avg': 724.9953222516377, 'med': 714.0751037597656}</t>
+  </si>
+  <si>
+    <t>{'i': 52, 'avg': 779.6351231320699, 'med': 798.4992370605469}</t>
+  </si>
+  <si>
+    <t>{'i': 53, 'avg': 837.2840430660248, 'med': 845.3357543945312}</t>
+  </si>
+  <si>
+    <t>{'i': 54, 'avg': 899.612169403712, 'med': 904.6489868164062}</t>
+  </si>
+  <si>
+    <t>{'i': 55, 'avg': 943.1841245765686, 'med': 943.7438659667969}</t>
+  </si>
+  <si>
+    <t>{'i': 56, 'avg': 1026.2843931007385, 'med': 1021.9467163085938}</t>
+  </si>
+  <si>
+    <t>{'i': 57, 'avg': 1085.865880575816, 'med': 1072.10888671875}</t>
+  </si>
+  <si>
+    <t>{'i': 58, 'avg': 1171.1091374193827, 'med': 1170.4387817382812}</t>
+  </si>
+  <si>
+    <t>{'i': 59, 'avg': 1251.5298928540549, 'med': 1270.192626953125}</t>
+  </si>
+  <si>
+    <t>{'i': 60, 'avg': 1337.5441422004699, 'med': 1337.2550048828125}</t>
+  </si>
+  <si>
+    <t>{'i': 61, 'avg': 1424.7448966255188, 'med': 1438.2018432617188}</t>
+  </si>
+  <si>
+    <t>{'i': 62, 'avg': 1532.4127755584716, 'med': 1529.1965942382812}</t>
+  </si>
+  <si>
+    <t>{'i': 63, 'avg': 1470.1853233954112, 'med': 1605.8682250976562}</t>
+  </si>
+  <si>
+    <t>{'i': 64, 'avg': 811.8186433175405, 'med': 742.8290710449219}</t>
+  </si>
+  <si>
+    <t>{'i': 65, 'avg': 1882.9552197113037, 'med': 1882.941650390625}</t>
+  </si>
+  <si>
+    <t>{'i': 66, 'avg': 2005.745669321696, 'med': 2005.4010620117188}</t>
+  </si>
+  <si>
+    <t>{'i': 67, 'avg': 2135.187772549947, 'med': 2141.633056640625}</t>
+  </si>
+  <si>
+    <t>{'i': 68, 'avg': 2217.460550804138, 'med': 2217.46044921875}</t>
+  </si>
+  <si>
+    <t>{'i': 69, 'avg': 2217.4604528427126, 'med': 2217.46044921875}</t>
+  </si>
+  <si>
+    <t>{'i': 70, 'avg': 2217.460440460205, 'med': 2217.46044921875}</t>
+  </si>
+  <si>
+    <t>{'i': 71, 'avg': 2217.4604576263428, 'med': 2217.46044921875}</t>
+  </si>
+  <si>
+    <t>{'i': 72, 'avg': 2217.460403625488, 'med': 2217.46044921875}</t>
+  </si>
+  <si>
+    <t>{'i': 73, 'avg': 2217.460412765503, 'med': 2217.46044921875}</t>
+  </si>
+  <si>
+    <t>{'i': 74, 'avg': 2217.46030683136, 'med': 2217.460205078125}</t>
+  </si>
+  <si>
+    <t>{'i': 75, 'avg': 2217.46039776357, 'med': 2217.46044921875}</t>
+  </si>
+  <si>
+    <t>{'i': 76, 'avg': 2217.4604235967, 'med': 2217.46044921875}</t>
+  </si>
+  <si>
+    <t>{'i': 77, 'avg': 2203.2891360905687, 'med': 2217.4561767578125}</t>
+  </si>
+  <si>
+    <t>{'i': 78, 'avg': nan, 'med': nan}</t>
+  </si>
+  <si>
+    <t>{'i': 79, 'avg': nan, 'med': nan}</t>
+  </si>
+  <si>
+    <t>{'i': 80, 'avg': nan, 'med': nan}</t>
+  </si>
+  <si>
+    <t>{'i': 81, 'avg': nan, 'med': nan}</t>
+  </si>
+  <si>
+    <t>{'i': 82, 'avg': nan, 'med': nan}</t>
+  </si>
+  <si>
+    <t>{'i': 83, 'avg': nan, 'med': nan}</t>
+  </si>
+  <si>
+    <t>{'i': 84, 'avg': nan, 'med': nan}</t>
   </si>
 </sst>
 </file>
@@ -136,7 +392,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -221,9 +477,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -506,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:J1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,7 +874,7 @@
       </c>
       <c r="M2">
         <f ca="1">RAND()</f>
-        <v>0.21759427685774924</v>
+        <v>0.86313049722432511</v>
       </c>
       <c r="N2" s="7">
         <v>0.36363978468860625</v>
@@ -673,7 +929,7 @@
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M66" ca="1" si="5">RAND()</f>
-        <v>0.80070322324126808</v>
+        <v>0.78648795249160863</v>
       </c>
       <c r="N3" s="7">
         <v>0.15453078428827749</v>
@@ -728,7 +984,7 @@
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42610748662676401</v>
+        <v>3.8783009174806926E-2</v>
       </c>
       <c r="N4" s="7">
         <v>0.65252324908191239</v>
@@ -783,7 +1039,7 @@
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48301442012791218</v>
+        <v>0.98948916576245471</v>
       </c>
       <c r="N5" s="7">
         <v>0.82101361555669505</v>
@@ -838,7 +1094,7 @@
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27087291536011382</v>
+        <v>0.14663133061854361</v>
       </c>
       <c r="N6" s="7">
         <v>0.6576754830814584</v>
@@ -893,7 +1149,7 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21914999360922105</v>
+        <v>0.17245686923777293</v>
       </c>
       <c r="N7" s="7">
         <v>0.71568519429429844</v>
@@ -948,7 +1204,7 @@
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54705515645745284</v>
+        <v>0.75038879077857168</v>
       </c>
       <c r="N8" s="7">
         <v>5.2850028046014241E-2</v>
@@ -1003,7 +1259,7 @@
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1692000365542787E-2</v>
+        <v>0.81383527930006994</v>
       </c>
       <c r="N9" s="7">
         <v>0.21308809860812472</v>
@@ -1058,7 +1314,7 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="5"/>
-        <v>9.0231723437280253E-2</v>
+        <v>0.97217812615683163</v>
       </c>
       <c r="N10" s="7">
         <v>0.82709017219206349</v>
@@ -1112,7 +1368,7 @@
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2081526364796895E-2</v>
+        <v>4.9225743878126837E-2</v>
       </c>
       <c r="N11" s="7">
         <v>0.31858018787723441</v>
@@ -1166,7 +1422,7 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54477229114106385</v>
+        <v>0.70129233178533568</v>
       </c>
       <c r="N12" s="7">
         <v>4.9441714832939354E-2</v>
@@ -1220,7 +1476,7 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31408475820645909</v>
+        <v>0.89753572127169401</v>
       </c>
       <c r="N13" s="7">
         <v>9.0789275175559458E-2</v>
@@ -1274,7 +1530,7 @@
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65632550071681184</v>
+        <v>0.40669454850368369</v>
       </c>
       <c r="N14" s="7">
         <v>0.31354481400876677</v>
@@ -1329,7 +1585,7 @@
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64727981665544398</v>
+        <v>0.89702916034688307</v>
       </c>
       <c r="N15" s="7">
         <v>0.20618208392437076</v>
@@ -1387,7 +1643,7 @@
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="5"/>
-        <v>0.1797467761706929</v>
+        <v>0.6002511759655802</v>
       </c>
       <c r="N16" s="7">
         <v>0.39953080131459351</v>
@@ -1445,7 +1701,7 @@
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54217069127992767</v>
+        <v>0.14512659326415855</v>
       </c>
       <c r="N17" s="7">
         <v>0.40484968853932757</v>
@@ -1503,7 +1759,7 @@
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49709600223503925</v>
+        <v>0.34570983335000638</v>
       </c>
       <c r="N18" s="7">
         <v>0.33741213629515332</v>
@@ -1561,7 +1817,7 @@
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48321494814614085</v>
+        <v>0.80360607732830991</v>
       </c>
       <c r="N19" s="7">
         <v>0.27644326351109294</v>
@@ -1619,7 +1875,7 @@
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.8298033768729397</v>
+        <v>0.2064879223657714</v>
       </c>
       <c r="N20" s="7">
         <v>0.95355225691916257</v>
@@ -1677,7 +1933,7 @@
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66000007628568658</v>
+        <v>0.82406292762708189</v>
       </c>
       <c r="N21" s="7">
         <v>0.49780031450639206</v>
@@ -1735,7 +1991,7 @@
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48504906969220218</v>
+        <v>0.55110499302905258</v>
       </c>
       <c r="N22" s="7">
         <v>0.99777944707987265</v>
@@ -1793,7 +2049,7 @@
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58357644330838987</v>
+        <v>0.97655765652561699</v>
       </c>
       <c r="N23" s="7">
         <v>0.34133183575900727</v>
@@ -1851,7 +2107,7 @@
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21152602070343141</v>
+        <v>0.22834311117219641</v>
       </c>
       <c r="N24" s="7">
         <v>0.53002196191416406</v>
@@ -1909,7 +2165,7 @@
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25338054335047955</v>
+        <v>0.17269760611099905</v>
       </c>
       <c r="N25" s="7">
         <v>0.59781950223764457</v>
@@ -1967,7 +2223,7 @@
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64275185127246992</v>
+        <v>0.69314024348779768</v>
       </c>
       <c r="N26" s="7">
         <v>0.35425136900246146</v>
@@ -2025,7 +2281,7 @@
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.92615542486428348</v>
+        <v>0.31948754835505822</v>
       </c>
       <c r="N27" s="7">
         <v>0.87052133070268678</v>
@@ -2083,7 +2339,7 @@
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9911112259633628E-2</v>
+        <v>0.32328376965962291</v>
       </c>
       <c r="N28" s="7">
         <v>0.85666535883446049</v>
@@ -2141,7 +2397,7 @@
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34672000307251893</v>
+        <v>1.1843933669789863E-2</v>
       </c>
       <c r="N29" s="7">
         <v>0.40060425890931561</v>
@@ -2199,7 +2455,7 @@
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.28389266659700119</v>
+        <v>0.40905257753047208</v>
       </c>
       <c r="N30" s="7">
         <v>0.32058727942291576</v>
@@ -2257,7 +2513,7 @@
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.40215984172991903</v>
+        <v>0.66467891118123634</v>
       </c>
       <c r="N31" s="7">
         <v>0.13760252597132794</v>
@@ -2316,7 +2572,7 @@
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22902437988893631</v>
+        <v>0.21021956016959975</v>
       </c>
       <c r="N32" s="7">
         <v>0.11275382012540103</v>
@@ -2378,7 +2634,7 @@
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48274538088819974</v>
+        <v>0.93276688368763927</v>
       </c>
       <c r="N33" s="7">
         <v>0.70878438486920547</v>
@@ -2440,7 +2696,7 @@
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32200256986247522</v>
+        <v>0.69468192296036246</v>
       </c>
       <c r="N34" s="7">
         <v>0.61992022851264861</v>
@@ -2502,7 +2758,7 @@
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68283681423309806</v>
+        <v>0.65278344345818218</v>
       </c>
       <c r="N35" s="7">
         <v>0.30876621929633052</v>
@@ -2564,7 +2820,7 @@
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72686241666615603</v>
+        <v>0.5807448119811166</v>
       </c>
       <c r="N36" s="7">
         <v>0.63337685198477589</v>
@@ -2626,7 +2882,7 @@
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21676646312889114</v>
+        <v>0.81238242749041978</v>
       </c>
       <c r="N37" s="7">
         <v>0.58308396017811348</v>
@@ -2688,7 +2944,7 @@
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52527612647458322</v>
+        <v>0.41767122206475071</v>
       </c>
       <c r="N38" s="7">
         <v>0.45021574197405823</v>
@@ -2750,7 +3006,7 @@
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24302784521464615</v>
+        <v>0.47043817567812662</v>
       </c>
       <c r="N39" s="7">
         <v>0.2205184932163673</v>
@@ -2812,7 +3068,7 @@
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.1996177931355686</v>
+        <v>0.85006859736813523</v>
       </c>
       <c r="N40" s="7">
         <v>0.30204449462085692</v>
@@ -2874,7 +3130,7 @@
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73563297522819904</v>
+        <v>8.9696273729848897E-2</v>
       </c>
       <c r="N41" s="7">
         <v>0.96960269632308016</v>
@@ -2936,7 +3192,7 @@
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5889211263879971</v>
+        <v>0.88484789349025561</v>
       </c>
       <c r="N42" s="7">
         <v>0.64894817609047195</v>
@@ -2998,7 +3254,7 @@
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48080236561476353</v>
+        <v>0.2428576431436591</v>
       </c>
       <c r="N43" s="7">
         <v>0.9671384975591113</v>
@@ -3060,7 +3316,7 @@
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="5"/>
-        <v>8.7633790277564794E-2</v>
+        <v>0.27389857288086694</v>
       </c>
       <c r="N44" s="7">
         <v>0.16728056449427242</v>
@@ -3122,7 +3378,7 @@
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38953992059987053</v>
+        <v>0.83201927618557681</v>
       </c>
       <c r="N45" s="7">
         <v>0.97014034368482205</v>
@@ -3184,7 +3440,7 @@
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.87290853938821289</v>
+        <v>0.87645142457564595</v>
       </c>
       <c r="N46" s="7">
         <v>0.14184237276812373</v>
@@ -3246,7 +3502,7 @@
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86083838775486099</v>
+        <v>0.90854311938304544</v>
       </c>
       <c r="N47" s="7">
         <v>0.87369324209203869</v>
@@ -3308,7 +3564,7 @@
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61368150877478844</v>
+        <v>0.39640853400030152</v>
       </c>
       <c r="N48" s="7">
         <v>0.23215110927673421</v>
@@ -3370,7 +3626,7 @@
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54441713376573075</v>
+        <v>0.57156525170877459</v>
       </c>
       <c r="N49" s="7">
         <v>0.41140424416952115</v>
@@ -3431,7 +3687,7 @@
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56051961197523403</v>
+        <v>0.48766084307206592</v>
       </c>
       <c r="N50" s="7">
         <v>0.45922463930133517</v>
@@ -3493,7 +3749,7 @@
       </c>
       <c r="M51">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65148718221848223</v>
+        <v>0.99804456934474717</v>
       </c>
       <c r="N51" s="7">
         <v>0.27298193365189094</v>
@@ -3555,7 +3811,7 @@
       </c>
       <c r="M52">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32144022415323315</v>
+        <v>0.63570733506099186</v>
       </c>
       <c r="N52" s="7">
         <v>0.90367281274799927</v>
@@ -3617,7 +3873,7 @@
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48874634719856203</v>
+        <v>0.85527024528919049</v>
       </c>
       <c r="N53" s="7">
         <v>0.33401603606125274</v>
@@ -3681,7 +3937,7 @@
       </c>
       <c r="M54">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15415448002016974</v>
+        <v>0.10550790254266351</v>
       </c>
       <c r="N54" s="7">
         <v>0.78782993494586073</v>
@@ -3743,7 +3999,7 @@
       </c>
       <c r="M55">
         <f t="shared" ca="1" si="5"/>
-        <v>0.28764823460172417</v>
+        <v>0.4895368809113485</v>
       </c>
       <c r="N55" s="7">
         <v>0.32262435562402192</v>
@@ -3805,7 +4061,7 @@
       </c>
       <c r="M56">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66970221502585592</v>
+        <v>0.2433873111981758</v>
       </c>
       <c r="N56" s="7">
         <v>0.91897761332231853</v>
@@ -3867,7 +4123,7 @@
       </c>
       <c r="M57">
         <f t="shared" ca="1" si="5"/>
-        <v>0.78956044038328421</v>
+        <v>5.6128331407171994E-2</v>
       </c>
       <c r="N57" s="7">
         <v>0.29246561980543551</v>
@@ -3929,7 +4185,7 @@
       </c>
       <c r="M58">
         <f t="shared" ca="1" si="5"/>
-        <v>0.78363713904584875</v>
+        <v>0.43566184175013289</v>
       </c>
       <c r="N58" s="7">
         <v>0.74772967135635671</v>
@@ -3991,7 +4247,7 @@
       </c>
       <c r="M59">
         <f t="shared" ca="1" si="5"/>
-        <v>0.8569611962468684</v>
+        <v>0.83774986123159034</v>
       </c>
       <c r="N59" s="7">
         <v>0.69621562359731126</v>
@@ -4053,7 +4309,7 @@
       </c>
       <c r="M60">
         <f t="shared" ca="1" si="5"/>
-        <v>6.3564260943347106E-2</v>
+        <v>0.23625362423738716</v>
       </c>
       <c r="N60" s="7">
         <v>0.20909957463594775</v>
@@ -4115,7 +4371,7 @@
       </c>
       <c r="M61">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47283574867453626</v>
+        <v>0.59432015021307294</v>
       </c>
       <c r="N61" s="7">
         <v>0.79346297452888637</v>
@@ -4177,7 +4433,7 @@
       </c>
       <c r="M62">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15064503285698461</v>
+        <v>0.86171562639225241</v>
       </c>
       <c r="N62" s="7">
         <v>0.31149909990883551</v>
@@ -4239,7 +4495,7 @@
       </c>
       <c r="M63">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83118432774567241</v>
+        <v>0.32427284585438865</v>
       </c>
       <c r="N63" s="7">
         <v>0.48031537986172113</v>
@@ -4301,7 +4557,7 @@
       </c>
       <c r="M64">
         <f t="shared" ca="1" si="5"/>
-        <v>0.11157450195642737</v>
+        <v>0.68586710422953667</v>
       </c>
       <c r="N64" s="7">
         <v>0.80102559709529053</v>
@@ -4363,7 +4619,7 @@
       </c>
       <c r="M65">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57834646522794808</v>
+        <v>0.26474148815421039</v>
       </c>
       <c r="N65" s="7">
         <v>0.28828332955544012</v>
@@ -4425,7 +4681,7 @@
       </c>
       <c r="M66">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84508262240448895</v>
+        <v>0.83764455756455691</v>
       </c>
       <c r="N66" s="7">
         <v>0.48899291055505756</v>
@@ -4487,7 +4743,7 @@
       </c>
       <c r="M67">
         <f t="shared" ref="M67:M72" ca="1" si="15">RAND()</f>
-        <v>0.71393714410640696</v>
+        <v>0.13355044577160824</v>
       </c>
       <c r="N67" s="7">
         <v>0.80047770738788393</v>
@@ -4549,7 +4805,7 @@
       </c>
       <c r="M68">
         <f t="shared" ca="1" si="15"/>
-        <v>0.25805081030714794</v>
+        <v>7.5304253480975802E-2</v>
       </c>
       <c r="N68" s="7">
         <v>0.46632345703033884</v>
@@ -4611,7 +4867,7 @@
       </c>
       <c r="M69">
         <f t="shared" ca="1" si="15"/>
-        <v>0.84915831308132106</v>
+        <v>0.17999744541827212</v>
       </c>
       <c r="N69" s="7">
         <v>0.74207184365936485</v>
@@ -4673,7 +4929,7 @@
       </c>
       <c r="M70">
         <f t="shared" ca="1" si="15"/>
-        <v>4.553528136569851E-2</v>
+        <v>0.27298981319065307</v>
       </c>
       <c r="N70" s="7">
         <v>0.96530053340657029</v>
@@ -4735,7 +4991,7 @@
       </c>
       <c r="M71">
         <f t="shared" ca="1" si="15"/>
-        <v>0.93147627820709455</v>
+        <v>0.63911660520598434</v>
       </c>
       <c r="N71" s="7">
         <v>0.12934481239966189</v>
@@ -4797,7 +5053,7 @@
       </c>
       <c r="M72">
         <f t="shared" ca="1" si="15"/>
-        <v>0.27893429398140956</v>
+        <v>0.69912305740245761</v>
       </c>
       <c r="N72" s="7">
         <v>0.14921015862555653</v>
@@ -4860,7 +5116,7 @@
       </c>
       <c r="M73">
         <f t="shared" ref="M73:M86" ca="1" si="18">RAND()</f>
-        <v>0.87585954797346188</v>
+        <v>0.63410041249725368</v>
       </c>
       <c r="N73" s="7">
         <v>8.1118040046405104E-2</v>
@@ -4923,7 +5179,7 @@
       </c>
       <c r="M74">
         <f t="shared" ca="1" si="18"/>
-        <v>0.75808963133160756</v>
+        <v>0.22476161112553228</v>
       </c>
       <c r="N74" s="7">
         <v>0.17936155117592445</v>
@@ -4986,7 +5242,7 @@
       </c>
       <c r="M75">
         <f t="shared" ca="1" si="18"/>
-        <v>0.43471890677805147</v>
+        <v>5.6044546051217448E-2</v>
       </c>
       <c r="N75" s="7">
         <v>0.39247141670469787</v>
@@ -5049,7 +5305,7 @@
       </c>
       <c r="M76">
         <f t="shared" ca="1" si="18"/>
-        <v>0.69796014017768948</v>
+        <v>0.57200641089936521</v>
       </c>
       <c r="N76" s="7">
         <v>0.45266156241192723</v>
@@ -5112,7 +5368,7 @@
       </c>
       <c r="M77">
         <f t="shared" ca="1" si="18"/>
-        <v>0.2967084358170281</v>
+        <v>0.30754813071969633</v>
       </c>
       <c r="N77" s="7">
         <v>0.16334533433755671</v>
@@ -5175,7 +5431,7 @@
       </c>
       <c r="M78">
         <f t="shared" ca="1" si="18"/>
-        <v>0.86051208612595032</v>
+        <v>2.2300089389511668E-2</v>
       </c>
       <c r="N78" s="7">
         <v>0.52468795773904264</v>
@@ -5238,7 +5494,7 @@
       </c>
       <c r="M79">
         <f t="shared" ca="1" si="18"/>
-        <v>0.2790378929751639</v>
+        <v>0.8363705662005646</v>
       </c>
       <c r="N79" s="7">
         <v>0.63253074449134639</v>
@@ -5301,7 +5557,7 @@
       </c>
       <c r="M80">
         <f t="shared" ca="1" si="18"/>
-        <v>0.77003222666615934</v>
+        <v>0.56118901456828363</v>
       </c>
       <c r="N80" s="7">
         <v>0.69296323757560652</v>
@@ -5364,7 +5620,7 @@
       </c>
       <c r="M81">
         <f t="shared" ca="1" si="18"/>
-        <v>0.23307429674518765</v>
+        <v>0.75198027249384292</v>
       </c>
       <c r="N81" s="7">
         <v>0.29589698897676608</v>
@@ -5427,7 +5683,7 @@
       </c>
       <c r="M82">
         <f t="shared" ca="1" si="18"/>
-        <v>0.75014099611025808</v>
+        <v>0.89382043863083904</v>
       </c>
       <c r="N82" s="7">
         <v>0.77516020799779406</v>
@@ -5490,7 +5746,7 @@
       </c>
       <c r="M83">
         <f t="shared" ca="1" si="18"/>
-        <v>0.93675223011444908</v>
+        <v>0.49820276399712637</v>
       </c>
       <c r="N83" s="7">
         <v>0.4658991273440577</v>
@@ -5553,7 +5809,7 @@
       </c>
       <c r="M84">
         <f t="shared" ca="1" si="18"/>
-        <v>5.8306383940534889E-2</v>
+        <v>0.48941257595578203</v>
       </c>
       <c r="N84" s="7">
         <v>0.72317574723917522</v>
@@ -5616,7 +5872,7 @@
       </c>
       <c r="M85">
         <f t="shared" ca="1" si="18"/>
-        <v>0.75155605234550582</v>
+        <v>3.4414544392775692E-2</v>
       </c>
       <c r="N85" s="7">
         <v>0.87006243512491854</v>
@@ -5679,7 +5935,7 @@
       </c>
       <c r="M86">
         <f t="shared" ca="1" si="18"/>
-        <v>0.7095419407886232</v>
+        <v>0.40816162575553294</v>
       </c>
       <c r="N86" s="7">
         <v>0.87611417886010456</v>
@@ -5704,4 +5960,444 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD59DFE-7F75-4DF4-B32D-CE7E758F39E4}">
+  <dimension ref="A1:A85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pitchTracking/keyData.xlsx
+++ b/pitchTracking/keyData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaco\Desktop\smc8-pm-project\pitchTracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giacomo\Desktop\smc8-pm-project\pitchTracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD607B9-B2EC-4993-ADB8-624BF9CC8A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60460DCA-61E4-48CA-9C88-7E054D7C8D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keynotes" sheetId="1" r:id="rId1"/>
-    <sheet name="raw" sheetId="2" r:id="rId2"/>
+    <sheet name="pitch tracking results" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="132">
   <si>
     <t>note</t>
   </si>
@@ -132,259 +132,307 @@
     <t>midi number</t>
   </si>
   <si>
-    <t>{'i': 0, 'avg': 27.981144915878772, 'med': 30.155607223510742}</t>
-  </si>
-  <si>
-    <t>{'i': 1, 'avg': 33.40596106090148, 'med': 33.98252868652344}</t>
-  </si>
-  <si>
-    <t>{'i': 2, 'avg': 31.30551833365361, 'med': 30.003725051879883}</t>
-  </si>
-  <si>
-    <t>{'i': 3, 'avg': 32.58934638798237, 'med': 32.52063751220703}</t>
-  </si>
-  <si>
-    <t>{'i': 4, 'avg': 34.437788217822714, 'med': 32.72134590148926}</t>
-  </si>
-  <si>
-    <t>{'i': 5, 'avg': 38.07692410155138, 'med': 38.558156967163086}</t>
-  </si>
-  <si>
-    <t>{'i': 6, 'avg': 40.099845308462776, 'med': 40.519195556640625}</t>
-  </si>
-  <si>
-    <t>{'i': 7, 'avg': 42.63179800963402, 'med': 42.90085220336914}</t>
-  </si>
-  <si>
-    <t>{'i': 8, 'avg': 46.087994646867116, 'med': 46.027334213256836}</t>
-  </si>
-  <si>
-    <t>{'i': 9, 'avg': 46.47803195973238, 'med': 46.51675033569336}</t>
-  </si>
-  <si>
-    <t>{'i': 10, 'avg': 52.01550079329809, 'med': 51.64544486999512}</t>
-  </si>
-  <si>
-    <t>{'i': 11, 'avg': 55.245900499343875, 'med': 54.68399429321289}</t>
-  </si>
-  <si>
-    <t>{'i': 12, 'avg': 58.33656443289916, 'med': 56.64212989807129}</t>
-  </si>
-  <si>
-    <t>{'i': 13, 'avg': 62.4422426028649, 'med': 63.860185623168945}</t>
-  </si>
-  <si>
-    <t>{'i': 14, 'avg': 66.75883223847548, 'med': 67.66460800170898}</t>
-  </si>
-  <si>
-    <t>{'i': 15, 'avg': 71.17297422854105, 'med': 71.3293228149414}</t>
-  </si>
-  <si>
-    <t>{'i': 16, 'avg': 75.71890605250995, 'med': 75.59438705444336}</t>
-  </si>
-  <si>
-    <t>{'i': 17, 'avg': 80.48422333105405, 'med': 80.52239227294922}</t>
-  </si>
-  <si>
-    <t>{'i': 18, 'avg': 85.65842625331878, 'med': 84.82609558105469}</t>
-  </si>
-  <si>
-    <t>{'i': 19, 'avg': 91.91957414428393, 'med': 90.39427185058594}</t>
-  </si>
-  <si>
-    <t>{'i': 20, 'avg': 98.53099295274417, 'med': 96.33784484863281}</t>
-  </si>
-  <si>
-    <t>{'i': 21, 'avg': 105.28279017869632, 'med': 107.48590087890625}</t>
-  </si>
-  <si>
-    <t>{'i': 22, 'avg': 112.70146010740598, 'med': 113.87747955322266}</t>
-  </si>
-  <si>
-    <t>{'i': 23, 'avg': 120.62661853528023, 'med': 120.64917755126953}</t>
-  </si>
-  <si>
-    <t>{'i': 24, 'avg': 127.3168320833842, 'med': 127.1151123046875}</t>
-  </si>
-  <si>
-    <t>{'i': 25, 'avg': 135.98563493378958, 'med': 136.17723083496094}</t>
-  </si>
-  <si>
-    <t>{'i': 26, 'avg': 144.39497889677685, 'med': 143.49569702148438}</t>
-  </si>
-  <si>
-    <t>{'i': 27, 'avg': 152.1852233265241, 'med': 149.2952423095703}</t>
-  </si>
-  <si>
-    <t>{'i': 28, 'avg': 163.9626669880549, 'med': 160.17417907714844}</t>
-  </si>
-  <si>
-    <t>{'i': 29, 'avg': 174.9157793334325, 'med': 177.6292495727539}</t>
-  </si>
-  <si>
-    <t>{'i': 30, 'avg': 188.08975978708267, 'med': 190.40322875976562}</t>
-  </si>
-  <si>
-    <t>{'i': 31, 'avg': 200.26188737503688, 'med': 200.57839965820312}</t>
-  </si>
-  <si>
-    <t>{'i': 32, 'avg': 213.6241743941307, 'med': 213.73367309570312}</t>
-  </si>
-  <si>
-    <t>{'i': 33, 'avg': 226.53191313028336, 'med': 226.45346069335938}</t>
-  </si>
-  <si>
-    <t>{'i': 34, 'avg': 241.7331495687167, 'med': 240.29383850097656}</t>
-  </si>
-  <si>
-    <t>{'i': 35, 'avg': 257.92340325069426, 'med': 252.74951934814453}</t>
-  </si>
-  <si>
-    <t>{'i': 36, 'avg': 275.970416208903, 'med': 271.1196594238281}</t>
-  </si>
-  <si>
-    <t>{'i': 37, 'avg': 294.11734366607664, 'med': 300.34690856933594}</t>
-  </si>
-  <si>
-    <t>{'i': 38, 'avg': 309.81862927246095, 'med': 312.6297912597656}</t>
-  </si>
-  <si>
-    <t>{'i': 39, 'avg': 340.29036672306063, 'med': 341.18994140625}</t>
-  </si>
-  <si>
-    <t>{'i': 40, 'avg': 359.0847039496104, 'med': 359.4280700683594}</t>
-  </si>
-  <si>
-    <t>{'i': 41, 'avg': 381.7346109647751, 'med': 380.9569549560547}</t>
-  </si>
-  <si>
-    <t>{'i': 42, 'avg': 405.82432209714256, 'med': 402.00999450683594}</t>
-  </si>
-  <si>
-    <t>{'i': 43, 'avg': 430.6718992621104, 'med': 422.7430114746094}</t>
-  </si>
-  <si>
-    <t>{'i': 44, 'avg': 465.6692874968847, 'med': 455.8449401855469}</t>
-  </si>
-  <si>
-    <t>{'i': 45, 'avg': 496.5378523429235, 'med': 503.2793273925781}</t>
-  </si>
-  <si>
-    <t>{'i': 46, 'avg': 516.9112265666325, 'med': 517.5404968261719}</t>
-  </si>
-  <si>
-    <t>{'i': 47, 'avg': 548.3527148876191, 'med': 548.1595153808594}</t>
-  </si>
-  <si>
-    <t>{'i': 48, 'avg': 595.4260498606363, 'med': 594.2708740234375}</t>
-  </si>
-  <si>
-    <t>{'i': 49, 'avg': 632.7552216008504, 'med': 632.917724609375}</t>
-  </si>
-  <si>
-    <t>{'i': 50, 'avg': 678.4946563739777, 'med': 671.1213073730469}</t>
-  </si>
-  <si>
-    <t>{'i': 51, 'avg': 724.9953222516377, 'med': 714.0751037597656}</t>
-  </si>
-  <si>
-    <t>{'i': 52, 'avg': 779.6351231320699, 'med': 798.4992370605469}</t>
-  </si>
-  <si>
-    <t>{'i': 53, 'avg': 837.2840430660248, 'med': 845.3357543945312}</t>
-  </si>
-  <si>
-    <t>{'i': 54, 'avg': 899.612169403712, 'med': 904.6489868164062}</t>
-  </si>
-  <si>
-    <t>{'i': 55, 'avg': 943.1841245765686, 'med': 943.7438659667969}</t>
-  </si>
-  <si>
-    <t>{'i': 56, 'avg': 1026.2843931007385, 'med': 1021.9467163085938}</t>
-  </si>
-  <si>
-    <t>{'i': 57, 'avg': 1085.865880575816, 'med': 1072.10888671875}</t>
-  </si>
-  <si>
-    <t>{'i': 58, 'avg': 1171.1091374193827, 'med': 1170.4387817382812}</t>
-  </si>
-  <si>
-    <t>{'i': 59, 'avg': 1251.5298928540549, 'med': 1270.192626953125}</t>
-  </si>
-  <si>
-    <t>{'i': 60, 'avg': 1337.5441422004699, 'med': 1337.2550048828125}</t>
-  </si>
-  <si>
-    <t>{'i': 61, 'avg': 1424.7448966255188, 'med': 1438.2018432617188}</t>
-  </si>
-  <si>
-    <t>{'i': 62, 'avg': 1532.4127755584716, 'med': 1529.1965942382812}</t>
-  </si>
-  <si>
-    <t>{'i': 63, 'avg': 1470.1853233954112, 'med': 1605.8682250976562}</t>
-  </si>
-  <si>
-    <t>{'i': 64, 'avg': 811.8186433175405, 'med': 742.8290710449219}</t>
-  </si>
-  <si>
-    <t>{'i': 65, 'avg': 1882.9552197113037, 'med': 1882.941650390625}</t>
-  </si>
-  <si>
-    <t>{'i': 66, 'avg': 2005.745669321696, 'med': 2005.4010620117188}</t>
-  </si>
-  <si>
-    <t>{'i': 67, 'avg': 2135.187772549947, 'med': 2141.633056640625}</t>
-  </si>
-  <si>
-    <t>{'i': 68, 'avg': 2217.460550804138, 'med': 2217.46044921875}</t>
-  </si>
-  <si>
-    <t>{'i': 69, 'avg': 2217.4604528427126, 'med': 2217.46044921875}</t>
-  </si>
-  <si>
-    <t>{'i': 70, 'avg': 2217.460440460205, 'med': 2217.46044921875}</t>
-  </si>
-  <si>
-    <t>{'i': 71, 'avg': 2217.4604576263428, 'med': 2217.46044921875}</t>
-  </si>
-  <si>
-    <t>{'i': 72, 'avg': 2217.460403625488, 'med': 2217.46044921875}</t>
-  </si>
-  <si>
-    <t>{'i': 73, 'avg': 2217.460412765503, 'med': 2217.46044921875}</t>
-  </si>
-  <si>
-    <t>{'i': 74, 'avg': 2217.46030683136, 'med': 2217.460205078125}</t>
-  </si>
-  <si>
-    <t>{'i': 75, 'avg': 2217.46039776357, 'med': 2217.46044921875}</t>
-  </si>
-  <si>
-    <t>{'i': 76, 'avg': 2217.4604235967, 'med': 2217.46044921875}</t>
-  </si>
-  <si>
-    <t>{'i': 77, 'avg': 2203.2891360905687, 'med': 2217.4561767578125}</t>
-  </si>
-  <si>
-    <t>{'i': 78, 'avg': nan, 'med': nan}</t>
-  </si>
-  <si>
-    <t>{'i': 79, 'avg': nan, 'med': nan}</t>
-  </si>
-  <si>
-    <t>{'i': 80, 'avg': nan, 'med': nan}</t>
-  </si>
-  <si>
-    <t>{'i': 81, 'avg': nan, 'med': nan}</t>
-  </si>
-  <si>
-    <t>{'i': 82, 'avg': nan, 'med': nan}</t>
-  </si>
-  <si>
-    <t>{'i': 83, 'avg': nan, 'med': nan}</t>
-  </si>
-  <si>
-    <t>{'i': 84, 'avg': nan, 'med': nan}</t>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A#0</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C#1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D#1</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F#1</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G#1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A#1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C#2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D#2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F#2</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G#2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A#2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C#3</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D#3</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F#3</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G#3</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A#3</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C#4</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D#4</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F#4</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G#4</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A#4</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C#5</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D#5</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F#5</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G#5</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A#5</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C#6</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D#6</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F#6</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G#6</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A#6</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C#7</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D#7</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F#7</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G#7</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>MIDI note</t>
+  </si>
+  <si>
+    <t>Note index</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Nominal</t>
+  </si>
+  <si>
+    <t>By ear</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Static r. 1</t>
+  </si>
+  <si>
+    <t>Static r. 2</t>
+  </si>
+  <si>
+    <t>Static r. 3</t>
+  </si>
+  <si>
+    <t>Used 1</t>
+  </si>
+  <si>
+    <t>Used 2</t>
+  </si>
+  <si>
+    <t>Used 3</t>
   </si>
 </sst>
 </file>
@@ -425,7 +473,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +498,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -463,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -480,6 +534,26 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -762,22 +836,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80:H86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="13" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="7" customWidth="1"/>
-    <col min="17" max="18" width="10.21875" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="7" customWidth="1"/>
+    <col min="17" max="18" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -833,7 +907,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -874,7 +948,7 @@
       </c>
       <c r="M2">
         <f ca="1">RAND()</f>
-        <v>0.86313049722432511</v>
+        <v>6.3495322598994042E-2</v>
       </c>
       <c r="N2" s="7">
         <v>0.36363978468860625</v>
@@ -888,7 +962,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -929,7 +1003,7 @@
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M66" ca="1" si="5">RAND()</f>
-        <v>0.78648795249160863</v>
+        <v>0.36806865211453632</v>
       </c>
       <c r="N3" s="7">
         <v>0.15453078428827749</v>
@@ -943,7 +1017,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -984,7 +1058,7 @@
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="5"/>
-        <v>3.8783009174806926E-2</v>
+        <v>0.50695566084844157</v>
       </c>
       <c r="N4" s="7">
         <v>0.65252324908191239</v>
@@ -998,7 +1072,7 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1039,7 +1113,7 @@
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.98948916576245471</v>
+        <v>0.22384420528082438</v>
       </c>
       <c r="N5" s="7">
         <v>0.82101361555669505</v>
@@ -1053,7 +1127,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1094,7 +1168,7 @@
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14663133061854361</v>
+        <v>0.33868625099926819</v>
       </c>
       <c r="N6" s="7">
         <v>0.6576754830814584</v>
@@ -1108,7 +1182,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1149,7 +1223,7 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17245686923777293</v>
+        <v>0.8087492565160801</v>
       </c>
       <c r="N7" s="7">
         <v>0.71568519429429844</v>
@@ -1163,7 +1237,7 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1204,7 +1278,7 @@
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75038879077857168</v>
+        <v>0.94713254060355101</v>
       </c>
       <c r="N8" s="7">
         <v>5.2850028046014241E-2</v>
@@ -1218,7 +1292,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1259,7 +1333,7 @@
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81383527930006994</v>
+        <v>0.32177422966561187</v>
       </c>
       <c r="N9" s="7">
         <v>0.21308809860812472</v>
@@ -1273,7 +1347,7 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1314,7 +1388,7 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97217812615683163</v>
+        <v>0.41952924871938269</v>
       </c>
       <c r="N10" s="7">
         <v>0.82709017219206349</v>
@@ -1328,7 +1402,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1368,7 +1442,7 @@
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9225743878126837E-2</v>
+        <v>0.8790126895992989</v>
       </c>
       <c r="N11" s="7">
         <v>0.31858018787723441</v>
@@ -1382,7 +1456,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1422,7 +1496,7 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="5"/>
-        <v>0.70129233178533568</v>
+        <v>0.29736485615156871</v>
       </c>
       <c r="N12" s="7">
         <v>4.9441714832939354E-2</v>
@@ -1436,7 +1510,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1476,7 +1550,7 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89753572127169401</v>
+        <v>0.48852808710563644</v>
       </c>
       <c r="N13" s="7">
         <v>9.0789275175559458E-2</v>
@@ -1490,7 +1564,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1530,7 +1604,7 @@
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="5"/>
-        <v>0.40669454850368369</v>
+        <v>0.44042152832859616</v>
       </c>
       <c r="N14" s="7">
         <v>0.31354481400876677</v>
@@ -1544,7 +1618,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +1659,7 @@
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89702916034688307</v>
+        <v>0.96649083516467138</v>
       </c>
       <c r="N15" s="7">
         <v>0.20618208392437076</v>
@@ -1602,7 +1676,7 @@
       </c>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1643,7 +1717,7 @@
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6002511759655802</v>
+        <v>0.59095242173821294</v>
       </c>
       <c r="N16" s="7">
         <v>0.39953080131459351</v>
@@ -1660,7 +1734,7 @@
       </c>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1701,7 +1775,7 @@
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14512659326415855</v>
+        <v>0.16275000276618146</v>
       </c>
       <c r="N17" s="7">
         <v>0.40484968853932757</v>
@@ -1718,7 +1792,7 @@
       </c>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1759,7 +1833,7 @@
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34570983335000638</v>
+        <v>0.1268570228564504</v>
       </c>
       <c r="N18" s="7">
         <v>0.33741213629515332</v>
@@ -1776,7 +1850,7 @@
       </c>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1817,7 +1891,7 @@
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80360607732830991</v>
+        <v>0.87995216917951069</v>
       </c>
       <c r="N19" s="7">
         <v>0.27644326351109294</v>
@@ -1834,7 +1908,7 @@
       </c>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1875,7 +1949,7 @@
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2064879223657714</v>
+        <v>0.32182223918687691</v>
       </c>
       <c r="N20" s="7">
         <v>0.95355225691916257</v>
@@ -1892,7 +1966,7 @@
       </c>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1933,7 +2007,7 @@
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82406292762708189</v>
+        <v>0.33519616445282274</v>
       </c>
       <c r="N21" s="7">
         <v>0.49780031450639206</v>
@@ -1950,7 +2024,7 @@
       </c>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1991,7 +2065,7 @@
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55110499302905258</v>
+        <v>0.95699203657013898</v>
       </c>
       <c r="N22" s="7">
         <v>0.99777944707987265</v>
@@ -2008,7 +2082,7 @@
       </c>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2049,7 +2123,7 @@
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97655765652561699</v>
+        <v>0.52473858961751418</v>
       </c>
       <c r="N23" s="7">
         <v>0.34133183575900727</v>
@@ -2066,7 +2140,7 @@
       </c>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -2107,7 +2181,7 @@
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22834311117219641</v>
+        <v>0.13146113931336734</v>
       </c>
       <c r="N24" s="7">
         <v>0.53002196191416406</v>
@@ -2124,7 +2198,7 @@
       </c>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2165,7 +2239,7 @@
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17269760611099905</v>
+        <v>0.63928888734447342</v>
       </c>
       <c r="N25" s="7">
         <v>0.59781950223764457</v>
@@ -2182,7 +2256,7 @@
       </c>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2223,7 +2297,7 @@
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69314024348779768</v>
+        <v>3.8215658616427173E-2</v>
       </c>
       <c r="N26" s="7">
         <v>0.35425136900246146</v>
@@ -2240,7 +2314,7 @@
       </c>
       <c r="R26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2281,7 +2355,7 @@
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31948754835505822</v>
+        <v>0.46253444683720601</v>
       </c>
       <c r="N27" s="7">
         <v>0.87052133070268678</v>
@@ -2298,7 +2372,7 @@
       </c>
       <c r="R27" s="5"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2339,7 +2413,7 @@
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32328376965962291</v>
+        <v>0.76134691660075948</v>
       </c>
       <c r="N28" s="7">
         <v>0.85666535883446049</v>
@@ -2356,7 +2430,7 @@
       </c>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2397,7 +2471,7 @@
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1843933669789863E-2</v>
+        <v>0.45157168615742438</v>
       </c>
       <c r="N29" s="7">
         <v>0.40060425890931561</v>
@@ -2414,7 +2488,7 @@
       </c>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2455,7 +2529,7 @@
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.40905257753047208</v>
+        <v>0.497674913784102</v>
       </c>
       <c r="N30" s="7">
         <v>0.32058727942291576</v>
@@ -2472,7 +2546,7 @@
       </c>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2513,7 +2587,7 @@
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66467891118123634</v>
+        <v>0.89453303824402386</v>
       </c>
       <c r="N31" s="7">
         <v>0.13760252597132794</v>
@@ -2530,7 +2604,7 @@
       </c>
       <c r="R31" s="5"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2572,7 +2646,7 @@
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21021956016959975</v>
+        <v>0.53667852427214013</v>
       </c>
       <c r="N32" s="7">
         <v>0.11275382012540103</v>
@@ -2592,7 +2666,7 @@
         <v>19.000791990172736</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -2634,7 +2708,7 @@
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.93276688368763927</v>
+        <v>0.7547039589274499</v>
       </c>
       <c r="N33" s="7">
         <v>0.70878438486920547</v>
@@ -2654,7 +2728,7 @@
         <v>-23.20143380233943</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -2696,7 +2770,7 @@
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69468192296036246</v>
+        <v>0.41537352902111191</v>
       </c>
       <c r="N34" s="7">
         <v>0.61992022851264861</v>
@@ -2716,7 +2790,7 @@
         <v>-22.686330563444084</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -2758,7 +2832,7 @@
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65278344345818218</v>
+        <v>0.22369051332007739</v>
       </c>
       <c r="N35" s="7">
         <v>0.30876621929633052</v>
@@ -2778,7 +2852,7 @@
         <v>19.809427244433905</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -2820,7 +2894,7 @@
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5807448119811166</v>
+        <v>0.20074760918942303</v>
       </c>
       <c r="N36" s="7">
         <v>0.63337685198477589</v>
@@ -2840,7 +2914,7 @@
         <v>-23.206392636476302</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2882,7 +2956,7 @@
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81238242749041978</v>
+        <v>0.87226217760597113</v>
       </c>
       <c r="N37" s="7">
         <v>0.58308396017811348</v>
@@ -2902,7 +2976,7 @@
         <v>19.702538301510533</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -2944,7 +3018,7 @@
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41767122206475071</v>
+        <v>0.18035499457278603</v>
       </c>
       <c r="N38" s="7">
         <v>0.45021574197405823</v>
@@ -2964,7 +3038,7 @@
         <v>15.190955958716536</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -3006,7 +3080,7 @@
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47043817567812662</v>
+        <v>0.71607171542455916</v>
       </c>
       <c r="N39" s="7">
         <v>0.2205184932163673</v>
@@ -3026,7 +3100,7 @@
         <v>15.470927000363744</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -3068,7 +3142,7 @@
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85006859736813523</v>
+        <v>0.13718237946661427</v>
       </c>
       <c r="N40" s="7">
         <v>0.30204449462085692</v>
@@ -3088,7 +3162,7 @@
         <v>16.039366712003844</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -3130,7 +3204,7 @@
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="5"/>
-        <v>8.9696273729848897E-2</v>
+        <v>0.95118402913873812</v>
       </c>
       <c r="N41" s="7">
         <v>0.96960269632308016</v>
@@ -3150,7 +3224,7 @@
         <v>-21.148705066683753</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -3192,7 +3266,7 @@
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88484789349025561</v>
+        <v>0.19908484002412929</v>
       </c>
       <c r="N42" s="7">
         <v>0.64894817609047195</v>
@@ -3212,7 +3286,7 @@
         <v>-21.904615346863963</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -3254,7 +3328,7 @@
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2428576431436591</v>
+        <v>0.49431262295884759</v>
       </c>
       <c r="N43" s="7">
         <v>0.9671384975591113</v>
@@ -3274,7 +3348,7 @@
         <v>-24.289514193051559</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -3316,7 +3390,7 @@
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27389857288086694</v>
+        <v>0.18683192694229511</v>
       </c>
       <c r="N44" s="7">
         <v>0.16728056449427242</v>
@@ -3336,7 +3410,7 @@
         <v>17.798638862946298</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -3378,7 +3452,7 @@
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83201927618557681</v>
+        <v>0.4010191154455548</v>
       </c>
       <c r="N45" s="7">
         <v>0.97014034368482205</v>
@@ -3398,7 +3472,7 @@
         <v>19.035441006955725</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -3440,7 +3514,7 @@
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.87645142457564595</v>
+        <v>0.72885458013277982</v>
       </c>
       <c r="N46" s="7">
         <v>0.14184237276812373</v>
@@ -3460,7 +3534,7 @@
         <v>15.483065206801989</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -3502,7 +3576,7 @@
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90854311938304544</v>
+        <v>0.2116815405527559</v>
       </c>
       <c r="N47" s="7">
         <v>0.87369324209203869</v>
@@ -3522,7 +3596,7 @@
         <v>-21.354748344626351</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -3564,7 +3638,7 @@
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39640853400030152</v>
+        <v>0.24541994139471723</v>
       </c>
       <c r="N48" s="7">
         <v>0.23215110927673421</v>
@@ -3584,7 +3658,7 @@
         <v>19.632476224484549</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3626,7 +3700,7 @@
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57156525170877459</v>
+        <v>0.31581336002925342</v>
       </c>
       <c r="N49" s="7">
         <v>0.41140424416952115</v>
@@ -3646,7 +3720,7 @@
         <v>-24.739101260204862</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -3687,7 +3761,7 @@
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48766084307206592</v>
+        <v>0.96710079638310542</v>
       </c>
       <c r="N50" s="7">
         <v>0.45922463930133517</v>
@@ -3707,7 +3781,7 @@
         <v>-21.047877684432081</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -3749,7 +3823,7 @@
       </c>
       <c r="M51">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99804456934474717</v>
+        <v>0.15560476769823495</v>
       </c>
       <c r="N51" s="7">
         <v>0.27298193365189094</v>
@@ -3769,7 +3843,7 @@
         <v>15.109457636400306</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3811,7 +3885,7 @@
       </c>
       <c r="M52">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63570733506099186</v>
+        <v>0.21344679991525861</v>
       </c>
       <c r="N52" s="7">
         <v>0.90367281274799927</v>
@@ -3831,7 +3905,7 @@
         <v>18.384480331190549</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -3873,7 +3947,7 @@
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85527024528919049</v>
+        <v>0.39900349819040559</v>
       </c>
       <c r="N53" s="7">
         <v>0.33401603606125274</v>
@@ -3893,7 +3967,7 @@
         <v>16.35135534831219</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -3937,7 +4011,7 @@
       </c>
       <c r="M54">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10550790254266351</v>
+        <v>0.40677672982417223</v>
       </c>
       <c r="N54" s="7">
         <v>0.78782993494586073</v>
@@ -3957,7 +4031,7 @@
         <v>-23.486205381060902</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -3999,7 +4073,7 @@
       </c>
       <c r="M55">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4895368809113485</v>
+        <v>0.69459525377615605</v>
       </c>
       <c r="N55" s="7">
         <v>0.32262435562402192</v>
@@ -4019,7 +4093,7 @@
         <v>-21.895943299170032</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -4061,7 +4135,7 @@
       </c>
       <c r="M56">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2433873111981758</v>
+        <v>5.209326154631988E-3</v>
       </c>
       <c r="N56" s="7">
         <v>0.91897761332231853</v>
@@ -4081,7 +4155,7 @@
         <v>17.230114081152323</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -4123,7 +4197,7 @@
       </c>
       <c r="M57">
         <f t="shared" ca="1" si="5"/>
-        <v>5.6128331407171994E-2</v>
+        <v>0.11939960982070597</v>
       </c>
       <c r="N57" s="7">
         <v>0.29246561980543551</v>
@@ -4143,7 +4217,7 @@
         <v>16.174680557994332</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -4185,7 +4259,7 @@
       </c>
       <c r="M58">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43566184175013289</v>
+        <v>0.45522608071743442</v>
       </c>
       <c r="N58" s="7">
         <v>0.74772967135635671</v>
@@ -4205,7 +4279,7 @@
         <v>17.264618250940131</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -4247,7 +4321,7 @@
       </c>
       <c r="M59">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83774986123159034</v>
+        <v>0.1502760600482671</v>
       </c>
       <c r="N59" s="7">
         <v>0.69621562359731126</v>
@@ -4267,7 +4341,7 @@
         <v>-22.87241147251018</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -4309,7 +4383,7 @@
       </c>
       <c r="M60">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23625362423738716</v>
+        <v>0.63498722708845923</v>
       </c>
       <c r="N60" s="7">
         <v>0.20909957463594775</v>
@@ -4329,7 +4403,7 @@
         <v>-20.607274614616852</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -4371,7 +4445,7 @@
       </c>
       <c r="M61">
         <f t="shared" ca="1" si="5"/>
-        <v>0.59432015021307294</v>
+        <v>0.91830655835575836</v>
       </c>
       <c r="N61" s="7">
         <v>0.79346297452888637</v>
@@ -4391,7 +4465,7 @@
         <v>-21.225060213401058</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -4433,7 +4507,7 @@
       </c>
       <c r="M62">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86171562639225241</v>
+        <v>7.5048184711583588E-3</v>
       </c>
       <c r="N62" s="7">
         <v>0.31149909990883551</v>
@@ -4453,7 +4527,7 @@
         <v>19.104026757106556</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -4495,7 +4569,7 @@
       </c>
       <c r="M63">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32427284585438865</v>
+        <v>0.57063408220132705</v>
       </c>
       <c r="N63" s="7">
         <v>0.48031537986172113</v>
@@ -4515,7 +4589,7 @@
         <v>16.694735945733452</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -4557,7 +4631,7 @@
       </c>
       <c r="M64">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68586710422953667</v>
+        <v>0.89794623606610069</v>
       </c>
       <c r="N64" s="7">
         <v>0.80102559709529053</v>
@@ -4577,7 +4651,7 @@
         <v>-23.853436370545804</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -4619,7 +4693,7 @@
       </c>
       <c r="M65">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26474148815421039</v>
+        <v>0.7457025957026403</v>
       </c>
       <c r="N65" s="7">
         <v>0.28828332955544012</v>
@@ -4639,7 +4713,7 @@
         <v>15.489667757919886</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -4681,7 +4755,7 @@
       </c>
       <c r="M66">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83764455756455691</v>
+        <v>0.16276803684925045</v>
       </c>
       <c r="N66" s="7">
         <v>0.48899291055505756</v>
@@ -4701,7 +4775,7 @@
         <v>17.840335309199009</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -4743,7 +4817,7 @@
       </c>
       <c r="M67">
         <f t="shared" ref="M67:M72" ca="1" si="15">RAND()</f>
-        <v>0.13355044577160824</v>
+        <v>0.88105287781611641</v>
       </c>
       <c r="N67" s="7">
         <v>0.80047770738788393</v>
@@ -4763,7 +4837,7 @@
         <v>15.07461542189748</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -4805,7 +4879,7 @@
       </c>
       <c r="M68">
         <f t="shared" ca="1" si="15"/>
-        <v>7.5304253480975802E-2</v>
+        <v>0.82558260573919029</v>
       </c>
       <c r="N68" s="7">
         <v>0.46632345703033884</v>
@@ -4825,7 +4899,7 @@
         <v>-20.019970184402801</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -4867,7 +4941,7 @@
       </c>
       <c r="M69">
         <f t="shared" ca="1" si="15"/>
-        <v>0.17999744541827212</v>
+        <v>0.30738217732016015</v>
       </c>
       <c r="N69" s="7">
         <v>0.74207184365936485</v>
@@ -4887,7 +4961,7 @@
         <v>-21.130983766892708</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -4929,7 +5003,7 @@
       </c>
       <c r="M70">
         <f t="shared" ca="1" si="15"/>
-        <v>0.27298981319065307</v>
+        <v>0.98869700930295978</v>
       </c>
       <c r="N70" s="7">
         <v>0.96530053340657029</v>
@@ -4949,7 +5023,7 @@
         <v>-23.271137586411225</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -4991,7 +5065,7 @@
       </c>
       <c r="M71">
         <f t="shared" ca="1" si="15"/>
-        <v>0.63911660520598434</v>
+        <v>9.1569526995600836E-2</v>
       </c>
       <c r="N71" s="7">
         <v>0.12934481239966189</v>
@@ -5011,7 +5085,7 @@
         <v>-20.453013860878407</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -5053,7 +5127,7 @@
       </c>
       <c r="M72">
         <f t="shared" ca="1" si="15"/>
-        <v>0.69912305740245761</v>
+        <v>0.37935441282706683</v>
       </c>
       <c r="N72" s="7">
         <v>0.14921015862555653</v>
@@ -5073,7 +5147,7 @@
         <v>-22.358474643326421</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -5116,7 +5190,7 @@
       </c>
       <c r="M73">
         <f t="shared" ref="M73:M86" ca="1" si="18">RAND()</f>
-        <v>0.63410041249725368</v>
+        <v>0.82022163916570745</v>
       </c>
       <c r="N73" s="7">
         <v>8.1118040046405104E-2</v>
@@ -5136,7 +5210,7 @@
         <v>16.71905717798025</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -5179,7 +5253,7 @@
       </c>
       <c r="M74">
         <f t="shared" ca="1" si="18"/>
-        <v>0.22476161112553228</v>
+        <v>0.16872987593609423</v>
       </c>
       <c r="N74" s="7">
         <v>0.17936155117592445</v>
@@ -5199,7 +5273,7 @@
         <v>-23.222652017163949</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -5242,7 +5316,7 @@
       </c>
       <c r="M75">
         <f t="shared" ca="1" si="18"/>
-        <v>5.6044546051217448E-2</v>
+        <v>0.21085288454321527</v>
       </c>
       <c r="N75" s="7">
         <v>0.39247141670469787</v>
@@ -5262,7 +5336,7 @@
         <v>16.526342051436764</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -5305,7 +5379,7 @@
       </c>
       <c r="M76">
         <f t="shared" ca="1" si="18"/>
-        <v>0.57200641089936521</v>
+        <v>0.19716497408632339</v>
       </c>
       <c r="N76" s="7">
         <v>0.45266156241192723</v>
@@ -5325,7 +5399,7 @@
         <v>-24.424694502792491</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -5368,7 +5442,7 @@
       </c>
       <c r="M77">
         <f t="shared" ca="1" si="18"/>
-        <v>0.30754813071969633</v>
+        <v>0.53708044276889899</v>
       </c>
       <c r="N77" s="7">
         <v>0.16334533433755671</v>
@@ -5388,7 +5462,7 @@
         <v>-22.090141823350425</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -5431,7 +5505,7 @@
       </c>
       <c r="M78">
         <f t="shared" ca="1" si="18"/>
-        <v>2.2300089389511668E-2</v>
+        <v>0.10014034120826365</v>
       </c>
       <c r="N78" s="7">
         <v>0.52468795773904264</v>
@@ -5451,7 +5525,7 @@
         <v>-24.74461529004374</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -5494,7 +5568,7 @@
       </c>
       <c r="M79">
         <f t="shared" ca="1" si="18"/>
-        <v>0.8363705662005646</v>
+        <v>0.55335822107332033</v>
       </c>
       <c r="N79" s="7">
         <v>0.63253074449134639</v>
@@ -5514,7 +5588,7 @@
         <v>-22.325517949177005</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -5557,7 +5631,7 @@
       </c>
       <c r="M80">
         <f t="shared" ca="1" si="18"/>
-        <v>0.56118901456828363</v>
+        <v>0.65774594378402862</v>
       </c>
       <c r="N80" s="7">
         <v>0.69296323757560652</v>
@@ -5577,7 +5651,7 @@
         <v>-24.400981573347948</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -5620,7 +5694,7 @@
       </c>
       <c r="M81">
         <f t="shared" ca="1" si="18"/>
-        <v>0.75198027249384292</v>
+        <v>4.9707861569917355E-2</v>
       </c>
       <c r="N81" s="7">
         <v>0.29589698897676608</v>
@@ -5640,7 +5714,7 @@
         <v>19.946202459054469</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -5683,7 +5757,7 @@
       </c>
       <c r="M82">
         <f t="shared" ca="1" si="18"/>
-        <v>0.89382043863083904</v>
+        <v>0.73696363935647391</v>
       </c>
       <c r="N82" s="7">
         <v>0.77516020799779406</v>
@@ -5703,7 +5777,7 @@
         <v>-23.164896283249412</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -5746,7 +5820,7 @@
       </c>
       <c r="M83">
         <f t="shared" ca="1" si="18"/>
-        <v>0.49820276399712637</v>
+        <v>0.7754515018607826</v>
       </c>
       <c r="N83" s="7">
         <v>0.4658991273440577</v>
@@ -5766,7 +5840,7 @@
         <v>-23.810282954307574</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -5809,7 +5883,7 @@
       </c>
       <c r="M84">
         <f t="shared" ca="1" si="18"/>
-        <v>0.48941257595578203</v>
+        <v>0.83551245727740198</v>
       </c>
       <c r="N84" s="7">
         <v>0.72317574723917522</v>
@@ -5829,7 +5903,7 @@
         <v>-23.258046709938547</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -5872,7 +5946,7 @@
       </c>
       <c r="M85">
         <f t="shared" ca="1" si="18"/>
-        <v>3.4414544392775692E-2</v>
+        <v>0.98938751214729814</v>
       </c>
       <c r="N85" s="7">
         <v>0.87006243512491854</v>
@@ -5892,7 +5966,7 @@
         <v>-22.905656479453192</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -5935,7 +6009,7 @@
       </c>
       <c r="M86">
         <f t="shared" ca="1" si="18"/>
-        <v>0.40816162575553294</v>
+        <v>0.67611273856607801</v>
       </c>
       <c r="N86" s="7">
         <v>0.87611417886010456</v>
@@ -5964,440 +6038,3907 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD59DFE-7F75-4DF4-B32D-CE7E758F39E4}">
-  <dimension ref="A1:A85"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="14"/>
+    <col min="9" max="9" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="14"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="14">
+        <f>C2+33</f>
+        <v>33</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="18">
+        <v>27.981144915878701</v>
+      </c>
+      <c r="E2" s="24">
+        <v>30.1556072235107</v>
+      </c>
+      <c r="F2" s="21">
+        <v>27.5</v>
+      </c>
+      <c r="H2" s="14">
+        <v>1</v>
+      </c>
+      <c r="I2" s="16">
+        <f ca="1">RAND()</f>
+        <v>0.38839237370633684</v>
+      </c>
+      <c r="J2" s="16">
+        <v>0.84478255039968908</v>
+      </c>
+      <c r="K2" s="16">
+        <v>0.75527393303156953</v>
+      </c>
+      <c r="L2" s="16">
+        <v>8.8203583278534947E-2</v>
+      </c>
+      <c r="M2" s="16">
+        <f>AVERAGE(D2:E2)</f>
+        <v>29.0683760696947</v>
+      </c>
+      <c r="N2" s="16">
+        <v>0</v>
+      </c>
+      <c r="O2" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="14">
+        <f t="shared" ref="B3:B66" si="0">C3+33</f>
+        <v>34</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18">
+        <v>33.405961060901397</v>
+      </c>
+      <c r="E3" s="24">
+        <v>33.982528686523402</v>
+      </c>
+      <c r="F3" s="21">
+        <f>F2*POWER(2,1/12)</f>
+        <v>29.13523509488062</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3" s="16">
+        <f t="shared" ref="I3:J66" ca="1" si="1">RAND()</f>
+        <v>0.39713176392574512</v>
+      </c>
+      <c r="J3" s="16">
+        <v>9.5376401867727334E-2</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0.69182351711943824</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0.76345173474239558</v>
+      </c>
+      <c r="M3" s="16">
+        <f t="shared" ref="M3:M66" si="2">AVERAGE(D3:E3)</f>
+        <v>33.6942448737124</v>
+      </c>
+      <c r="N3" s="16">
+        <v>0</v>
+      </c>
+      <c r="O3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="14">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18">
+        <v>31.305518333653598</v>
+      </c>
+      <c r="E4" s="24">
+        <v>30.003725051879801</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" ref="F4:F67" si="3">F3*POWER(2,1/12)</f>
+        <v>30.867706328507758</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1</v>
+      </c>
+      <c r="I4" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2945014619892392E-2</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0.92406946114126354</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0.68428257520222102</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0.37134707100122288</v>
+      </c>
+      <c r="M4" s="16">
+        <f t="shared" si="2"/>
+        <v>30.6546216927667</v>
+      </c>
+      <c r="N4" s="16">
+        <v>0</v>
+      </c>
+      <c r="O4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="14">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C5" s="14">
+        <v>3</v>
+      </c>
+      <c r="D5" s="18">
+        <v>32.589346387982303</v>
+      </c>
+      <c r="E5" s="24">
+        <v>32.520637512207003</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="3"/>
+        <v>32.703195662574835</v>
+      </c>
+      <c r="H5" s="14">
+        <v>1</v>
+      </c>
+      <c r="I5" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.24722599150206226</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.29549419708826907</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0.61491827448545555</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0.63342963440591915</v>
+      </c>
+      <c r="M5" s="16">
+        <f t="shared" si="2"/>
+        <v>32.554991950094653</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="14">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C6" s="14">
+        <v>4</v>
+      </c>
+      <c r="D6" s="18">
+        <v>34.4377882178227</v>
+      </c>
+      <c r="E6" s="24">
+        <v>32.721345901489201</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="3"/>
+        <v>34.647828872109017</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.34903464154564345</v>
+      </c>
+      <c r="J6" s="16">
+        <v>2.0883994672800776E-2</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0.38166269194612523</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0.4040673205092048</v>
+      </c>
+      <c r="M6" s="16">
+        <f t="shared" si="2"/>
+        <v>33.57956705965595</v>
+      </c>
+      <c r="N6" s="16">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="14">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C7" s="14">
+        <v>5</v>
+      </c>
+      <c r="D7" s="18">
+        <v>38.076924101551299</v>
+      </c>
+      <c r="E7" s="24">
+        <v>38.558156967163001</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="3"/>
+        <v>36.708095989675954</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50627159482830264</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.67383747473272981</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0.45328756787955593</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0.10733242596151249</v>
+      </c>
+      <c r="M7" s="16">
+        <f t="shared" si="2"/>
+        <v>38.31754053435715</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="14">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C8" s="14">
+        <v>6</v>
+      </c>
+      <c r="D8" s="18">
+        <v>40.099845308462697</v>
+      </c>
+      <c r="E8" s="24">
+        <v>40.519195556640597</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="3"/>
+        <v>38.890872965260122</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+      <c r="I8" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.63766782708313274</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0.57851152116751636</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0.78661787548324891</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0.58968430079112044</v>
+      </c>
+      <c r="M8" s="16">
+        <f t="shared" si="2"/>
+        <v>40.309520432551651</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C9" s="14">
+        <v>7</v>
+      </c>
+      <c r="D9" s="18">
+        <v>42.631798009633997</v>
+      </c>
+      <c r="E9" s="24">
+        <v>42.900852203369098</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="3"/>
+        <v>41.203444614108754</v>
+      </c>
+      <c r="H9" s="14">
+        <v>1</v>
+      </c>
+      <c r="I9" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.46236023250197977</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0.185115682007294</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0.55845804418748379</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0.95752014607918212</v>
+      </c>
+      <c r="M9" s="16">
+        <f t="shared" si="2"/>
+        <v>42.766325106501547</v>
+      </c>
+      <c r="N9" s="16">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="14">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C10" s="14">
+        <v>8</v>
+      </c>
+      <c r="D10" s="18">
+        <v>46.087994646867102</v>
+      </c>
+      <c r="E10" s="24">
+        <v>46.0273342132568</v>
+      </c>
+      <c r="F10" s="21">
+        <f t="shared" si="3"/>
+        <v>43.6535289291255</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+      <c r="I10" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1061680301743545</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0.34226794633547597</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0.94948885057316612</v>
+      </c>
+      <c r="L10" s="16">
+        <v>0.38778591719194333</v>
+      </c>
+      <c r="M10" s="16">
+        <f t="shared" si="2"/>
+        <v>46.057664430061948</v>
+      </c>
+      <c r="N10" s="16">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="14">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C11" s="14">
+        <v>9</v>
+      </c>
+      <c r="D11" s="18">
+        <v>46.478031959732299</v>
+      </c>
+      <c r="E11" s="24">
+        <v>46.516750335693303</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" si="3"/>
+        <v>46.249302838954314</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1</v>
+      </c>
+      <c r="I11" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.644927528698493E-3</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0.38759838177620687</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0.49328684516645971</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0.18171434178226098</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" si="2"/>
+        <v>46.497391147712804</v>
+      </c>
+      <c r="N11" s="16">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="14">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C12" s="14">
+        <v>10</v>
+      </c>
+      <c r="D12" s="18">
+        <v>52.015500793298003</v>
+      </c>
+      <c r="E12" s="24">
+        <v>51.645444869995103</v>
+      </c>
+      <c r="F12" s="21">
+        <f t="shared" si="3"/>
+        <v>48.99942949771868</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.83918957366815894</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0.66316156876309551</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0.30985379615154351</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0.27797869363388927</v>
+      </c>
+      <c r="M12" s="16">
+        <f t="shared" si="2"/>
+        <v>51.830472831646553</v>
+      </c>
+      <c r="N12" s="16">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="14">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C13" s="14">
+        <v>11</v>
+      </c>
+      <c r="D13" s="18">
+        <v>55.245900499343797</v>
+      </c>
+      <c r="E13" s="24">
+        <v>54.683994293212798</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" si="3"/>
+        <v>51.913087197493162</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84580148188167192</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0.45822169274200597</v>
+      </c>
+      <c r="K13" s="16">
+        <v>4.0934639698014252E-2</v>
+      </c>
+      <c r="L13" s="16">
+        <v>0.84426398789431145</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" si="2"/>
+        <v>54.964947396278298</v>
+      </c>
+      <c r="N13" s="16">
+        <v>0</v>
+      </c>
+      <c r="O13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="14">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C14" s="14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="18">
+        <v>58.336564432899102</v>
+      </c>
+      <c r="E14" s="24">
+        <v>56.642129898071197</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" si="3"/>
+        <v>55.000000000000021</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.1266664295315927E-2</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0.74645793978350128</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0.61505523732587353</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0.74308561908697668</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="2"/>
+        <v>57.48934716548515</v>
+      </c>
+      <c r="N14" s="16">
+        <v>0</v>
+      </c>
+      <c r="O14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="14">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C15" s="14">
+        <v>13</v>
+      </c>
+      <c r="D15" s="18">
+        <v>62.442242602864901</v>
+      </c>
+      <c r="E15" s="24">
+        <v>63.860185623168903</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="3"/>
+        <v>58.270470189761262</v>
+      </c>
+      <c r="H15" s="14">
+        <v>2</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.61556349006501654</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0.84827896041315631</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0.65319096929423315</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0.92030125887305625</v>
+      </c>
+      <c r="M15" s="16">
+        <f t="shared" si="2"/>
+        <v>63.151214113016906</v>
+      </c>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="14">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C16" s="14">
+        <v>14</v>
+      </c>
+      <c r="D16" s="18">
+        <v>66.758832238475406</v>
+      </c>
+      <c r="E16" s="24">
+        <v>67.664608001708899</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" si="3"/>
+        <v>61.735412657015537</v>
+      </c>
+      <c r="H16" s="14">
+        <v>2</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.87393224105030143</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0.55153199336734848</v>
+      </c>
+      <c r="K16" s="16">
+        <v>0.18054622797229725</v>
+      </c>
+      <c r="L16" s="16">
+        <v>0.98483524560105251</v>
+      </c>
+      <c r="M16" s="16">
+        <f t="shared" si="2"/>
+        <v>67.211720120092153</v>
+      </c>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="14">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C17" s="14">
+        <v>15</v>
+      </c>
+      <c r="D17" s="18">
+        <v>71.172974228540994</v>
+      </c>
+      <c r="E17" s="24">
+        <v>71.329322814941406</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="3"/>
+        <v>65.406391325149684</v>
+      </c>
+      <c r="H17" s="14">
+        <v>2</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8344025135475317</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0.63483187984307188</v>
+      </c>
+      <c r="K17" s="16">
+        <v>0.40907012822346134</v>
+      </c>
+      <c r="L17" s="16">
+        <v>0.96398805136580723</v>
+      </c>
+      <c r="M17" s="16">
+        <f t="shared" si="2"/>
+        <v>71.2511485217412</v>
+      </c>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="14">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C18" s="14">
+        <v>16</v>
+      </c>
+      <c r="D18" s="18">
+        <v>75.718906052509894</v>
+      </c>
+      <c r="E18" s="24">
+        <v>75.594387054443303</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="3"/>
+        <v>69.295657744218047</v>
+      </c>
+      <c r="H18" s="14">
+        <v>2</v>
+      </c>
+      <c r="I18" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.15457647128479468</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0.14490236805953904</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0.78171284347943815</v>
+      </c>
+      <c r="L18" s="16">
+        <v>0.52617751940293145</v>
+      </c>
+      <c r="M18" s="16">
+        <f t="shared" si="2"/>
+        <v>75.656646553476605</v>
+      </c>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="14">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C19" s="14">
+        <v>17</v>
+      </c>
+      <c r="D19" s="18">
+        <v>80.484223331053997</v>
+      </c>
+      <c r="E19" s="24">
+        <v>80.522392272949205</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" si="3"/>
+        <v>73.416191979351922</v>
+      </c>
+      <c r="H19" s="14">
+        <v>2</v>
+      </c>
+      <c r="I19" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.32904619909152488</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0.356972934768229</v>
+      </c>
+      <c r="K19" s="16">
+        <v>0.71989352940748175</v>
+      </c>
+      <c r="L19" s="16">
+        <v>0.67699057029620791</v>
+      </c>
+      <c r="M19" s="16">
+        <f t="shared" si="2"/>
+        <v>80.503307802001601</v>
+      </c>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="14">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C20" s="14">
+        <v>18</v>
+      </c>
+      <c r="D20" s="18">
+        <v>85.658426253318694</v>
+      </c>
+      <c r="E20" s="24">
+        <v>84.826095581054602</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="3"/>
+        <v>77.781745930520259</v>
+      </c>
+      <c r="H20" s="14">
+        <v>2</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.66536825717774917</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0.78478193902239712</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0.71722964512848408</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0.39521071305427224</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" si="2"/>
+        <v>85.242260917186655</v>
+      </c>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="14">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C21" s="14">
+        <v>19</v>
+      </c>
+      <c r="D21" s="18">
+        <v>91.919574144283899</v>
+      </c>
+      <c r="E21" s="24">
+        <v>90.394271850585895</v>
+      </c>
+      <c r="F21" s="21">
+        <f t="shared" si="3"/>
+        <v>82.406889228217523</v>
+      </c>
+      <c r="H21" s="14">
+        <v>2</v>
+      </c>
+      <c r="I21" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35027500118313037</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0.11332271031710606</v>
+      </c>
+      <c r="K21" s="16">
+        <v>0.19612889882211459</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0.96714802485671714</v>
+      </c>
+      <c r="M21" s="16">
+        <f t="shared" si="2"/>
+        <v>91.15692299743489</v>
+      </c>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="14">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C22" s="14">
+        <v>20</v>
+      </c>
+      <c r="D22" s="18">
+        <v>98.5309929527441</v>
+      </c>
+      <c r="E22" s="24">
+        <v>96.337844848632798</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" si="3"/>
+        <v>87.307057858251014</v>
+      </c>
+      <c r="H22" s="14">
+        <v>2</v>
+      </c>
+      <c r="I22" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.58745627010554813</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0.31221491944713942</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0.27449369339633367</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0.93699941883948012</v>
+      </c>
+      <c r="M22" s="16">
+        <f t="shared" si="2"/>
+        <v>97.434418900688456</v>
+      </c>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="14">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C23" s="14">
+        <v>21</v>
+      </c>
+      <c r="D23" s="18">
+        <v>105.282790178696</v>
+      </c>
+      <c r="E23" s="24">
+        <v>107.48590087890599</v>
+      </c>
+      <c r="F23" s="21">
+        <f t="shared" si="3"/>
+        <v>92.498605677908643</v>
+      </c>
+      <c r="H23" s="14">
+        <v>2</v>
+      </c>
+      <c r="I23" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.86464155926013575</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0.42294804619024018</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0.98300718840165668</v>
+      </c>
+      <c r="L23" s="16">
+        <v>0.1196353416552296</v>
+      </c>
+      <c r="M23" s="16">
+        <f t="shared" si="2"/>
+        <v>106.38434552880099</v>
+      </c>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="14">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C24" s="14">
+        <v>22</v>
+      </c>
+      <c r="D24" s="18">
+        <v>112.701460107405</v>
+      </c>
+      <c r="E24" s="24">
+        <v>113.877479553222</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="3"/>
+        <v>97.998858995437374</v>
+      </c>
+      <c r="H24" s="14">
+        <v>2</v>
+      </c>
+      <c r="I24" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.17827364412387636</v>
+      </c>
+      <c r="J24" s="16">
+        <v>0.22032984385181897</v>
+      </c>
+      <c r="K24" s="16">
+        <v>0.38004584152372811</v>
+      </c>
+      <c r="L24" s="16">
+        <v>0.5974949006931769</v>
+      </c>
+      <c r="M24" s="16">
+        <f t="shared" si="2"/>
+        <v>113.28946983031349</v>
+      </c>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="14">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C25" s="14">
+        <v>23</v>
+      </c>
+      <c r="D25" s="18">
+        <v>120.62661853528</v>
+      </c>
+      <c r="E25" s="24">
+        <v>120.64917755126901</v>
+      </c>
+      <c r="F25" s="21">
+        <f t="shared" si="3"/>
+        <v>103.82617439498634</v>
+      </c>
+      <c r="H25" s="14">
+        <v>2</v>
+      </c>
+      <c r="I25" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.54410403106069671</v>
+      </c>
+      <c r="J25" s="16">
+        <v>0.55298365228987389</v>
+      </c>
+      <c r="K25" s="16">
+        <v>0.9389436280988408</v>
+      </c>
+      <c r="L25" s="16">
+        <v>0.21752296874472021</v>
+      </c>
+      <c r="M25" s="16">
+        <f t="shared" si="2"/>
+        <v>120.6378980432745</v>
+      </c>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="14">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C26" s="14">
+        <v>24</v>
+      </c>
+      <c r="D26" s="18">
+        <v>127.316832083384</v>
+      </c>
+      <c r="E26" s="24">
+        <v>127.115112304687</v>
+      </c>
+      <c r="F26" s="21">
+        <f t="shared" si="3"/>
+        <v>110.00000000000006</v>
+      </c>
+      <c r="H26" s="14">
+        <v>2</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65646037742341568</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0.57209760993574277</v>
+      </c>
+      <c r="K26" s="16">
+        <v>0.62174546536348818</v>
+      </c>
+      <c r="L26" s="16">
+        <v>7.7675255775897067E-2</v>
+      </c>
+      <c r="M26" s="16">
+        <f t="shared" si="2"/>
+        <v>127.2159721940355</v>
+      </c>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="14">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C27" s="14">
+        <v>25</v>
+      </c>
+      <c r="D27" s="18">
+        <v>135.98563493378899</v>
+      </c>
+      <c r="E27" s="24">
+        <v>136.17723083496</v>
+      </c>
+      <c r="F27" s="21">
+        <f t="shared" si="3"/>
+        <v>116.54094037952254</v>
+      </c>
+      <c r="H27" s="14">
+        <v>2</v>
+      </c>
+      <c r="I27" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.87651964201893384</v>
+      </c>
+      <c r="J27" s="16">
+        <v>9.380053797811061E-2</v>
+      </c>
+      <c r="K27" s="16">
+        <v>0.87071326348339484</v>
+      </c>
+      <c r="L27" s="16">
+        <v>0.30329332743682336</v>
+      </c>
+      <c r="M27" s="16">
+        <f t="shared" si="2"/>
+        <v>136.08143288437449</v>
+      </c>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="14">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C28" s="14">
+        <v>26</v>
+      </c>
+      <c r="D28" s="18">
+        <v>144.394978896776</v>
+      </c>
+      <c r="E28" s="24">
+        <v>143.49569702148401</v>
+      </c>
+      <c r="F28" s="21">
+        <f t="shared" si="3"/>
+        <v>123.4708253140311</v>
+      </c>
+      <c r="H28" s="14">
+        <v>2</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.51458533014830576</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0.48397609718548762</v>
+      </c>
+      <c r="K28" s="16">
+        <v>0.4614708727395116</v>
+      </c>
+      <c r="L28" s="16">
+        <v>0.26657276614776404</v>
+      </c>
+      <c r="M28" s="16">
+        <f t="shared" si="2"/>
+        <v>143.94533795913</v>
+      </c>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C29" s="14">
+        <v>27</v>
+      </c>
+      <c r="D29" s="18">
+        <v>152.18522332652401</v>
+      </c>
+      <c r="E29" s="24">
+        <v>149.29524230957</v>
+      </c>
+      <c r="F29" s="21">
+        <f t="shared" si="3"/>
+        <v>130.8127826502994</v>
+      </c>
+      <c r="H29" s="14">
+        <v>2</v>
+      </c>
+      <c r="I29" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.24437045900062648</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0.45660717271868545</v>
+      </c>
+      <c r="K29" s="16">
+        <v>0.78276332961838468</v>
+      </c>
+      <c r="L29" s="16">
+        <v>0.14701113579377401</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" si="2"/>
+        <v>150.74023281804699</v>
+      </c>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="14">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C30" s="14">
+        <v>28</v>
+      </c>
+      <c r="D30" s="18">
+        <v>163.962666988054</v>
+      </c>
+      <c r="E30" s="24">
+        <v>160.17417907714801</v>
+      </c>
+      <c r="F30" s="21">
+        <f t="shared" si="3"/>
+        <v>138.59131548843615</v>
+      </c>
+      <c r="H30" s="14">
+        <v>2</v>
+      </c>
+      <c r="I30" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.87686317308003481</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0.15079539744814707</v>
+      </c>
+      <c r="K30" s="16">
+        <v>0.74415196980821985</v>
+      </c>
+      <c r="L30" s="16">
+        <v>0.56832127965096613</v>
+      </c>
+      <c r="M30" s="16">
+        <f t="shared" si="2"/>
+        <v>162.068423032601</v>
+      </c>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="14">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C31" s="14">
+        <v>29</v>
+      </c>
+      <c r="D31" s="18">
+        <v>174.915779333432</v>
+      </c>
+      <c r="E31" s="24">
+        <v>177.629249572753</v>
+      </c>
+      <c r="F31" s="21">
+        <f t="shared" si="3"/>
+        <v>146.8323839587039</v>
+      </c>
+      <c r="H31" s="14">
+        <v>2</v>
+      </c>
+      <c r="I31" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.85124680726660518</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0.79822134755866092</v>
+      </c>
+      <c r="K31" s="16">
+        <v>0.14893139235208086</v>
+      </c>
+      <c r="L31" s="16">
+        <v>0.66949852784264774</v>
+      </c>
+      <c r="M31" s="16">
+        <f t="shared" si="2"/>
+        <v>176.2725144530925</v>
+      </c>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="14">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C32" s="14">
+        <v>30</v>
+      </c>
+      <c r="D32" s="18">
+        <v>188.08975978708199</v>
+      </c>
+      <c r="E32" s="24">
+        <v>190.403228759765</v>
+      </c>
+      <c r="F32" s="21">
+        <f t="shared" si="3"/>
+        <v>155.5634918610406</v>
+      </c>
+      <c r="H32" s="14">
+        <v>3</v>
+      </c>
+      <c r="I32" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.93073411419142549</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0.27855230801069675</v>
+      </c>
+      <c r="K32" s="16">
+        <v>4.2255751506824479E-3</v>
+      </c>
+      <c r="L32" s="16">
+        <v>0.39349713166630329</v>
+      </c>
+      <c r="M32" s="16">
+        <f t="shared" si="2"/>
+        <v>189.24649427342348</v>
+      </c>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="14">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C33" s="14">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D33" s="18">
+        <v>200.261887375036</v>
+      </c>
+      <c r="E33" s="24">
+        <v>200.57839965820301</v>
+      </c>
+      <c r="F33" s="21">
+        <f t="shared" si="3"/>
+        <v>164.81377845643513</v>
+      </c>
+      <c r="H33" s="14">
+        <v>3</v>
+      </c>
+      <c r="I33" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56813042958422444</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0.57856616352363965</v>
+      </c>
+      <c r="K33" s="16">
+        <v>0.94386652803331372</v>
+      </c>
+      <c r="L33" s="16">
+        <v>0.52792885315524818</v>
+      </c>
+      <c r="M33" s="16">
+        <f t="shared" si="2"/>
+        <v>200.4201435166195</v>
+      </c>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="14">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C34" s="14">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D34" s="18">
+        <v>213.62417439412999</v>
+      </c>
+      <c r="E34" s="24">
+        <v>213.73367309570301</v>
+      </c>
+      <c r="F34" s="21">
+        <f t="shared" si="3"/>
+        <v>174.61411571650211</v>
+      </c>
+      <c r="H34" s="14">
+        <v>3</v>
+      </c>
+      <c r="I34" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.61293984734302687</v>
+      </c>
+      <c r="J34" s="16">
+        <v>0.18885380642756577</v>
+      </c>
+      <c r="K34" s="16">
+        <v>0.79178687595923181</v>
+      </c>
+      <c r="L34" s="16">
+        <v>0.63095303254389223</v>
+      </c>
+      <c r="M34" s="16">
+        <f t="shared" si="2"/>
+        <v>213.67892374491652</v>
+      </c>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="14">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C35" s="14">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D35" s="18">
+        <v>226.53191313028299</v>
+      </c>
+      <c r="E35" s="24">
+        <v>226.45346069335901</v>
+      </c>
+      <c r="F35" s="21">
+        <f t="shared" si="3"/>
+        <v>184.9972113558174</v>
+      </c>
+      <c r="H35" s="14">
+        <v>3</v>
+      </c>
+      <c r="I35" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50820907182768904</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0.72172968661672821</v>
+      </c>
+      <c r="K35" s="16">
+        <v>8.8864605883917092E-2</v>
+      </c>
+      <c r="L35" s="16">
+        <v>0.84603784843514052</v>
+      </c>
+      <c r="M35" s="16">
+        <f t="shared" si="2"/>
+        <v>226.49268691182101</v>
+      </c>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="14">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C36" s="14">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D36" s="18">
+        <v>241.73314956871599</v>
+      </c>
+      <c r="E36" s="24">
+        <v>240.29383850097599</v>
+      </c>
+      <c r="F36" s="21">
+        <f t="shared" si="3"/>
+        <v>195.99771799087486</v>
+      </c>
+      <c r="H36" s="14">
+        <v>3</v>
+      </c>
+      <c r="I36" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56688205314970752</v>
+      </c>
+      <c r="J36" s="16">
+        <v>0.11434494047821941</v>
+      </c>
+      <c r="K36" s="16">
+        <v>0.42242237765327562</v>
+      </c>
+      <c r="L36" s="16">
+        <v>0.57310162781097884</v>
+      </c>
+      <c r="M36" s="16">
+        <f t="shared" si="2"/>
+        <v>241.01349403484599</v>
+      </c>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="14">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C37" s="14">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D37" s="18">
+        <v>257.92340325069398</v>
+      </c>
+      <c r="E37" s="24">
+        <v>252.74951934814399</v>
+      </c>
+      <c r="F37" s="21">
+        <f t="shared" si="3"/>
+        <v>207.65234878997279</v>
+      </c>
+      <c r="H37" s="14">
+        <v>3</v>
+      </c>
+      <c r="I37" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8291152763214481</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0.41117990887062206</v>
+      </c>
+      <c r="K37" s="16">
+        <v>0.87119355519959329</v>
+      </c>
+      <c r="L37" s="16">
+        <v>0.9232487624660114</v>
+      </c>
+      <c r="M37" s="16">
+        <f t="shared" si="2"/>
+        <v>255.336461299419</v>
+      </c>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="14">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="C38" s="14">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D38" s="18">
+        <v>275.97041620890298</v>
+      </c>
+      <c r="E38" s="24">
+        <v>271.11965942382801</v>
+      </c>
+      <c r="F38" s="21">
+        <f t="shared" si="3"/>
+        <v>220.00000000000026</v>
+      </c>
+      <c r="H38" s="14">
+        <v>3</v>
+      </c>
+      <c r="I38" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.21272010023376364</v>
+      </c>
+      <c r="J38" s="16">
+        <v>0.11554223892688753</v>
+      </c>
+      <c r="K38" s="16">
+        <v>0.16933568304002777</v>
+      </c>
+      <c r="L38" s="16">
+        <v>0.47645312642165361</v>
+      </c>
+      <c r="M38" s="16">
+        <f t="shared" si="2"/>
+        <v>273.54503781636549</v>
+      </c>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="14">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C39" s="14">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D39" s="18">
+        <v>294.11734366607601</v>
+      </c>
+      <c r="E39" s="24">
+        <v>300.34690856933503</v>
+      </c>
+      <c r="F39" s="21">
+        <f t="shared" si="3"/>
+        <v>233.08188075904525</v>
+      </c>
+      <c r="H39" s="14">
+        <v>3</v>
+      </c>
+      <c r="I39" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.46698750181524462</v>
+      </c>
+      <c r="J39" s="16">
+        <v>0.31841188548655486</v>
+      </c>
+      <c r="K39" s="16">
+        <v>0.68908204580204879</v>
+      </c>
+      <c r="L39" s="16">
+        <v>0.1848571615332617</v>
+      </c>
+      <c r="M39" s="16">
+        <f t="shared" si="2"/>
+        <v>297.23212611770555</v>
+      </c>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="14">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="C40" s="14">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D40" s="18">
+        <v>309.81862927245999</v>
+      </c>
+      <c r="E40" s="24">
+        <v>312.629791259765</v>
+      </c>
+      <c r="F40" s="21">
+        <f t="shared" si="3"/>
+        <v>246.94165062806238</v>
+      </c>
+      <c r="H40" s="14">
+        <v>3</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.12792898362224803</v>
+      </c>
+      <c r="J40" s="16">
+        <v>0.95481168333473865</v>
+      </c>
+      <c r="K40" s="16">
+        <v>0.234332051689771</v>
+      </c>
+      <c r="L40" s="16">
+        <v>0.17625060674408999</v>
+      </c>
+      <c r="M40" s="16">
+        <f t="shared" si="2"/>
+        <v>311.22421026611249</v>
+      </c>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="14">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="C41" s="14">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D41" s="18">
+        <v>340.29036672306</v>
+      </c>
+      <c r="E41" s="24">
+        <v>341.18994140625</v>
+      </c>
+      <c r="F41" s="21">
+        <f t="shared" si="3"/>
+        <v>261.62556530059896</v>
+      </c>
+      <c r="H41" s="14">
+        <v>3</v>
+      </c>
+      <c r="I41" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.17419408362096112</v>
+      </c>
+      <c r="J41" s="16">
+        <v>8.031856679977567E-2</v>
+      </c>
+      <c r="K41" s="16">
+        <v>0.49531664204983517</v>
+      </c>
+      <c r="L41" s="16">
+        <v>0.10614219082381715</v>
+      </c>
+      <c r="M41" s="16">
+        <f t="shared" si="2"/>
+        <v>340.74015406465503</v>
+      </c>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="14">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="C42" s="14">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="D42" s="18">
+        <v>359.08470394961</v>
+      </c>
+      <c r="E42" s="24">
+        <v>359.42807006835898</v>
+      </c>
+      <c r="F42" s="21">
+        <f t="shared" si="3"/>
+        <v>277.18263097687247</v>
+      </c>
+      <c r="H42" s="14">
+        <v>3</v>
+      </c>
+      <c r="I42" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.11072922736550295</v>
+      </c>
+      <c r="J42" s="16">
+        <v>0.28789730192789598</v>
+      </c>
+      <c r="K42" s="16">
+        <v>0.79586964770589519</v>
+      </c>
+      <c r="L42" s="16">
+        <v>0.68057565437178869</v>
+      </c>
+      <c r="M42" s="16">
+        <f t="shared" si="2"/>
+        <v>359.25638700898446</v>
+      </c>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="14">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="C43" s="14">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D43" s="18">
+        <v>381.73461096477502</v>
+      </c>
+      <c r="E43" s="24">
+        <v>380.95695495605401</v>
+      </c>
+      <c r="F43" s="21">
+        <f t="shared" si="3"/>
+        <v>293.66476791740797</v>
+      </c>
+      <c r="H43" s="14">
+        <v>3</v>
+      </c>
+      <c r="I43" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88576922358656984</v>
+      </c>
+      <c r="J43" s="16">
+        <v>3.4202223337405857E-2</v>
+      </c>
+      <c r="K43" s="16">
+        <v>0.19024571959383341</v>
+      </c>
+      <c r="L43" s="16">
+        <v>0.8455713416359858</v>
+      </c>
+      <c r="M43" s="16">
+        <f t="shared" si="2"/>
+        <v>381.34578296041451</v>
+      </c>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="14">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C44" s="14">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="D44" s="18">
+        <v>405.82432209714199</v>
+      </c>
+      <c r="E44" s="24">
+        <v>402.00999450683503</v>
+      </c>
+      <c r="F44" s="21">
+        <f t="shared" si="3"/>
+        <v>311.12698372208138</v>
+      </c>
+      <c r="H44" s="14">
+        <v>3</v>
+      </c>
+      <c r="I44" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.94233806526802677</v>
+      </c>
+      <c r="J44" s="16">
+        <v>0.75137997257622746</v>
+      </c>
+      <c r="K44" s="16">
+        <v>0.91387400268434571</v>
+      </c>
+      <c r="L44" s="16">
+        <v>7.6285677247242889E-2</v>
+      </c>
+      <c r="M44" s="16">
+        <f t="shared" si="2"/>
+        <v>403.91715830198848</v>
+      </c>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="14">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C45" s="14">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="D45" s="18">
+        <v>430.67189926211</v>
+      </c>
+      <c r="E45" s="24">
+        <v>422.74301147460898</v>
+      </c>
+      <c r="F45" s="21">
+        <f t="shared" si="3"/>
+        <v>329.62755691287043</v>
+      </c>
+      <c r="H45" s="14">
+        <v>3</v>
+      </c>
+      <c r="I45" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.46757076958601973</v>
+      </c>
+      <c r="J45" s="16">
+        <v>0.24929124293029947</v>
+      </c>
+      <c r="K45" s="16">
+        <v>0.60036169830312436</v>
+      </c>
+      <c r="L45" s="16">
+        <v>4.3867188586101391E-2</v>
+      </c>
+      <c r="M45" s="16">
+        <f t="shared" si="2"/>
+        <v>426.70745536835949</v>
+      </c>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="14">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="C46" s="14">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="D46" s="18">
+        <v>465.66928749688401</v>
+      </c>
+      <c r="E46" s="24">
+        <v>455.84494018554602</v>
+      </c>
+      <c r="F46" s="21">
+        <f t="shared" si="3"/>
+        <v>349.22823143300445</v>
+      </c>
+      <c r="H46" s="14">
+        <v>3</v>
+      </c>
+      <c r="I46" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.5989729470082055E-2</v>
+      </c>
+      <c r="J46" s="16">
+        <v>0.29804160612107455</v>
+      </c>
+      <c r="K46" s="16">
+        <v>0.48352900570667423</v>
+      </c>
+      <c r="L46" s="16">
+        <v>0.76125632793777509</v>
+      </c>
+      <c r="M46" s="16">
+        <f t="shared" si="2"/>
+        <v>460.75711384121502</v>
+      </c>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="14">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="C47" s="14">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="D47" s="18">
+        <v>496.53785234292297</v>
+      </c>
+      <c r="E47" s="24">
+        <v>503.27932739257801</v>
+      </c>
+      <c r="F47" s="21">
+        <f t="shared" si="3"/>
+        <v>369.99442271163502</v>
+      </c>
+      <c r="H47" s="14">
+        <v>3</v>
+      </c>
+      <c r="I47" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.77475542484974502</v>
+      </c>
+      <c r="J47" s="16">
+        <v>0.20769494057005744</v>
+      </c>
+      <c r="K47" s="16">
+        <v>0.80892999065925664</v>
+      </c>
+      <c r="L47" s="16">
+        <v>3.7670712395264982E-2</v>
+      </c>
+      <c r="M47" s="16">
+        <f t="shared" si="2"/>
+        <v>499.90858986775049</v>
+      </c>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="14">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="C48" s="14">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="D48" s="18">
+        <v>516.91122656663197</v>
+      </c>
+      <c r="E48" s="24">
+        <v>517.54049682617097</v>
+      </c>
+      <c r="F48" s="21">
+        <f t="shared" si="3"/>
+        <v>391.99543598174995</v>
+      </c>
+      <c r="H48" s="14">
+        <v>3</v>
+      </c>
+      <c r="I48" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50907877143639235</v>
+      </c>
+      <c r="J48" s="16">
+        <v>0.54190990267350281</v>
+      </c>
+      <c r="K48" s="16">
+        <v>0.81384886051174887</v>
+      </c>
+      <c r="L48" s="16">
+        <v>0.63522657994024678</v>
+      </c>
+      <c r="M48" s="16">
+        <f t="shared" si="2"/>
+        <v>517.22586169640147</v>
+      </c>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="14">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C49" s="14">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="D49" s="18">
+        <v>548.35271488761896</v>
+      </c>
+      <c r="E49" s="24">
+        <v>548.15951538085903</v>
+      </c>
+      <c r="F49" s="21">
+        <f t="shared" si="3"/>
+        <v>415.30469757994587</v>
+      </c>
+      <c r="H49" s="14">
+        <v>3</v>
+      </c>
+      <c r="I49" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.31916755098156613</v>
+      </c>
+      <c r="J49" s="16">
+        <v>0.87041312176130292</v>
+      </c>
+      <c r="K49" s="16">
+        <v>5.8991949985899406E-2</v>
+      </c>
+      <c r="L49" s="16">
+        <v>0.35037973793511346</v>
+      </c>
+      <c r="M49" s="16">
+        <f t="shared" si="2"/>
+        <v>548.25611513423905</v>
+      </c>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="14">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="C50" s="14">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="D50" s="18">
+        <v>595.426049860636</v>
+      </c>
+      <c r="E50" s="24">
+        <v>594.27087402343705</v>
+      </c>
+      <c r="F50" s="21">
+        <f>F49*POWER(2,1/12)</f>
+        <v>440.0000000000008</v>
+      </c>
+      <c r="H50" s="14">
+        <v>3</v>
+      </c>
+      <c r="I50" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72589254898247413</v>
+      </c>
+      <c r="J50" s="16">
+        <v>0.44462156059686397</v>
+      </c>
+      <c r="K50" s="16">
+        <v>0.35258070799866403</v>
+      </c>
+      <c r="L50" s="16">
+        <v>0.78408469457294572</v>
+      </c>
+      <c r="M50" s="16">
+        <f t="shared" si="2"/>
+        <v>594.84846194203647</v>
+      </c>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="14">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="C51" s="14">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="D51" s="18">
+        <v>632.75522160084995</v>
+      </c>
+      <c r="E51" s="24">
+        <v>632.917724609375</v>
+      </c>
+      <c r="F51" s="21">
+        <f t="shared" si="3"/>
+        <v>466.16376151809078</v>
+      </c>
+      <c r="H51" s="14">
+        <v>3</v>
+      </c>
+      <c r="I51" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37966031353401131</v>
+      </c>
+      <c r="J51" s="16">
+        <v>0.30973338762642155</v>
+      </c>
+      <c r="K51" s="16">
+        <v>0.73917578002689599</v>
+      </c>
+      <c r="L51" s="16">
+        <v>0.43345090154623611</v>
+      </c>
+      <c r="M51" s="16">
+        <f t="shared" si="2"/>
+        <v>632.83647310511242</v>
+      </c>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="14">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="14">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="D52" s="18">
+        <v>678.49465637397702</v>
+      </c>
+      <c r="E52" s="24">
+        <v>671.12130737304597</v>
+      </c>
+      <c r="F52" s="21">
+        <f>F51*POWER(2,1/12)</f>
+        <v>493.88330125612504</v>
+      </c>
+      <c r="H52" s="14">
+        <v>3</v>
+      </c>
+      <c r="I52" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.79040224015871563</v>
+      </c>
+      <c r="J52" s="16">
+        <v>0.33572986621031309</v>
+      </c>
+      <c r="K52" s="16">
+        <v>0.61752225878501299</v>
+      </c>
+      <c r="L52" s="16">
+        <v>0.41583584392780015</v>
+      </c>
+      <c r="M52" s="16">
+        <f t="shared" si="2"/>
+        <v>674.80798187351149</v>
+      </c>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="14">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="C53" s="14">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="D53" s="18">
+        <v>724.99532225163705</v>
+      </c>
+      <c r="E53" s="24">
+        <v>714.07510375976506</v>
+      </c>
+      <c r="F53" s="21">
+        <f t="shared" si="3"/>
+        <v>523.25113060119827</v>
+      </c>
+      <c r="H53" s="14">
+        <v>3</v>
+      </c>
+      <c r="I53" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.62787648553748432</v>
+      </c>
+      <c r="J53" s="16">
+        <v>0.47666603290839527</v>
+      </c>
+      <c r="K53" s="16">
+        <v>0.3660913829397362</v>
+      </c>
+      <c r="L53" s="16">
+        <v>0.20193204755624883</v>
+      </c>
+      <c r="M53" s="16">
+        <f t="shared" si="2"/>
+        <v>719.53521300570105</v>
+      </c>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="14">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="C54" s="14">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="D54" s="18">
+        <v>779.635123132069</v>
+      </c>
+      <c r="E54" s="24">
+        <v>798.49923706054597</v>
+      </c>
+      <c r="F54" s="21">
+        <f t="shared" si="3"/>
+        <v>554.36526195374529</v>
+      </c>
+      <c r="H54" s="14">
+        <v>3</v>
+      </c>
+      <c r="I54" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.60120234811074613</v>
+      </c>
+      <c r="J54" s="16">
+        <v>0.48145241570552633</v>
+      </c>
+      <c r="K54" s="16">
+        <v>0.99553310746775481</v>
+      </c>
+      <c r="L54" s="16">
+        <v>0.95345588316502283</v>
+      </c>
+      <c r="M54" s="16">
+        <f t="shared" si="2"/>
+        <v>789.06718009630754</v>
+      </c>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="14">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="C55" s="14">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="D55" s="18">
+        <v>837.28404306602397</v>
+      </c>
+      <c r="E55" s="24">
+        <v>845.33575439453102</v>
+      </c>
+      <c r="F55" s="21">
+        <f t="shared" si="3"/>
+        <v>587.32953583481628</v>
+      </c>
+      <c r="H55" s="14">
+        <v>3</v>
+      </c>
+      <c r="I55" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28139606638678949</v>
+      </c>
+      <c r="J55" s="16">
+        <v>2.1936151067853737E-2</v>
+      </c>
+      <c r="K55" s="16">
+        <v>0.73823120246506813</v>
+      </c>
+      <c r="L55" s="16">
+        <v>0.19985120376841981</v>
+      </c>
+      <c r="M55" s="16">
+        <f t="shared" si="2"/>
+        <v>841.3098987302775</v>
+      </c>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="14">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="C56" s="14">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="D56" s="18">
+        <v>899.61216940371196</v>
+      </c>
+      <c r="E56" s="24">
+        <v>904.64898681640602</v>
+      </c>
+      <c r="F56" s="21">
+        <f t="shared" si="3"/>
+        <v>622.2539674441631</v>
+      </c>
+      <c r="H56" s="14">
+        <v>3</v>
+      </c>
+      <c r="I56" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.68583682367362642</v>
+      </c>
+      <c r="J56" s="16">
+        <v>0.96738747112235823</v>
+      </c>
+      <c r="K56" s="16">
+        <v>0.88826786003068536</v>
+      </c>
+      <c r="L56" s="16">
+        <v>0.8377689175667653</v>
+      </c>
+      <c r="M56" s="16">
+        <f t="shared" si="2"/>
+        <v>902.13057811005899</v>
+      </c>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="14">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="C57" s="14">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="D57" s="18">
+        <v>943.18412457656802</v>
+      </c>
+      <c r="E57" s="24">
+        <v>943.74386596679597</v>
+      </c>
+      <c r="F57" s="21">
+        <f t="shared" si="3"/>
+        <v>659.2551138257412</v>
+      </c>
+      <c r="H57" s="14">
+        <v>3</v>
+      </c>
+      <c r="I57" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.51276200636094094</v>
+      </c>
+      <c r="J57" s="16">
+        <v>0.14523634205494529</v>
+      </c>
+      <c r="K57" s="16">
+        <v>0.1721967144883878</v>
+      </c>
+      <c r="L57" s="16">
+        <v>0.48695450870607049</v>
+      </c>
+      <c r="M57" s="16">
+        <f t="shared" si="2"/>
+        <v>943.46399527168205</v>
+      </c>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="14">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="C58" s="14">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="D58" s="18">
+        <v>1026.2843931007301</v>
+      </c>
+      <c r="E58" s="24">
+        <v>1021.94671630859</v>
+      </c>
+      <c r="F58" s="21">
+        <f t="shared" si="3"/>
+        <v>698.45646286600925</v>
+      </c>
+      <c r="H58" s="14">
+        <v>3</v>
+      </c>
+      <c r="I58" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.19823432381939177</v>
+      </c>
+      <c r="J58" s="16">
+        <v>0.49371279074193153</v>
+      </c>
+      <c r="K58" s="16">
+        <v>0.4252190405247176</v>
+      </c>
+      <c r="L58" s="16">
+        <v>0.39756108894473707</v>
+      </c>
+      <c r="M58" s="16">
+        <f t="shared" si="2"/>
+        <v>1024.1155547046601</v>
+      </c>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="14">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C59" s="14">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="D59" s="18">
+        <v>1085.86588057581</v>
+      </c>
+      <c r="E59" s="24">
+        <v>1072.10888671875</v>
+      </c>
+      <c r="F59" s="21">
+        <f t="shared" si="3"/>
+        <v>739.98884542327039</v>
+      </c>
+      <c r="H59" s="14">
+        <v>3</v>
+      </c>
+      <c r="I59" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.8942250182752769E-2</v>
+      </c>
+      <c r="J59" s="16">
+        <v>6.0955510652993095E-2</v>
+      </c>
+      <c r="K59" s="16">
+        <v>0.44069686416327858</v>
+      </c>
+      <c r="L59" s="16">
+        <v>0.64052630807057698</v>
+      </c>
+      <c r="M59" s="16">
+        <f t="shared" si="2"/>
+        <v>1078.98738364728</v>
+      </c>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="14">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="C60" s="14">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="D60" s="18">
+        <v>1171.10913741938</v>
+      </c>
+      <c r="E60" s="24">
+        <v>1170.4387817382801</v>
+      </c>
+      <c r="F60" s="21">
+        <f t="shared" si="3"/>
+        <v>783.99087196350035</v>
+      </c>
+      <c r="H60" s="14">
+        <v>3</v>
+      </c>
+      <c r="I60" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56266824572883145</v>
+      </c>
+      <c r="J60" s="16">
+        <v>0.84017437083578261</v>
+      </c>
+      <c r="K60" s="16">
+        <v>0.62805893899792598</v>
+      </c>
+      <c r="L60" s="16">
+        <v>0.11508193479496243</v>
+      </c>
+      <c r="M60" s="16">
+        <f t="shared" si="2"/>
+        <v>1170.77395957883</v>
+      </c>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="14">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="C61" s="14">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="D61" s="18">
+        <v>1251.5298928540501</v>
+      </c>
+      <c r="E61" s="24">
+        <v>1270.19262695312</v>
+      </c>
+      <c r="F61" s="21">
+        <f t="shared" si="3"/>
+        <v>830.60939515989219</v>
+      </c>
+      <c r="H61" s="14">
+        <v>3</v>
+      </c>
+      <c r="I61" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.66531301983028213</v>
+      </c>
+      <c r="J61" s="16">
+        <v>0.44700201828882691</v>
+      </c>
+      <c r="K61" s="16">
+        <v>0.92370139032589582</v>
+      </c>
+      <c r="L61" s="16">
+        <v>0.71711195165064001</v>
+      </c>
+      <c r="M61" s="16">
+        <f t="shared" si="2"/>
+        <v>1260.8612599035851</v>
+      </c>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="14">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="C62" s="14">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="D62" s="18">
+        <v>1337.5441422004601</v>
+      </c>
+      <c r="E62" s="24">
+        <v>1337.25500488281</v>
+      </c>
+      <c r="F62" s="21">
+        <f t="shared" si="3"/>
+        <v>880.00000000000205</v>
+      </c>
+      <c r="H62" s="14">
+        <v>3</v>
+      </c>
+      <c r="I62" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.51697554353034647</v>
+      </c>
+      <c r="J62" s="16">
+        <v>0.31652505396822705</v>
+      </c>
+      <c r="K62" s="16">
+        <v>0.53612967434850756</v>
+      </c>
+      <c r="L62" s="16">
+        <v>0.43729524521024443</v>
+      </c>
+      <c r="M62" s="16">
+        <f t="shared" si="2"/>
+        <v>1337.3995735416352</v>
+      </c>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="14">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="C63" s="14">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="D63" s="18">
+        <v>1424.7448966255099</v>
+      </c>
+      <c r="E63" s="24">
+        <v>1438.2018432617101</v>
+      </c>
+      <c r="F63" s="21">
+        <f t="shared" si="3"/>
+        <v>932.32752303618201</v>
+      </c>
+      <c r="H63" s="14">
+        <v>3</v>
+      </c>
+      <c r="I63" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.8143951858443095E-2</v>
+      </c>
+      <c r="J63" s="16">
+        <v>0.53012209637953223</v>
+      </c>
+      <c r="K63" s="16">
+        <v>0.28478531384688677</v>
+      </c>
+      <c r="L63" s="16">
+        <v>0.50268423347609958</v>
+      </c>
+      <c r="M63" s="16">
+        <f t="shared" si="2"/>
+        <v>1431.4733699436101</v>
+      </c>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="14">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="C64" s="14">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="D64" s="18">
+        <v>1532.41277555847</v>
+      </c>
+      <c r="E64" s="24">
+        <v>1529.1965942382801</v>
+      </c>
+      <c r="F64" s="21">
+        <f t="shared" si="3"/>
+        <v>987.76660251225053</v>
+      </c>
+      <c r="H64" s="14">
+        <v>3</v>
+      </c>
+      <c r="I64" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2557807939558987</v>
+      </c>
+      <c r="J64" s="16">
+        <v>0.53385962079543314</v>
+      </c>
+      <c r="K64" s="16">
+        <v>0.75234602906444237</v>
+      </c>
+      <c r="L64" s="16">
+        <v>0.20254856495622919</v>
+      </c>
+      <c r="M64" s="16">
+        <f t="shared" si="2"/>
+        <v>1530.8046848983749</v>
+      </c>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="14">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="C65" s="14">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="D65" s="18">
+        <v>1470.18532339541</v>
+      </c>
+      <c r="E65" s="24">
+        <v>1605.8682250976501</v>
+      </c>
+      <c r="F65" s="21">
+        <f t="shared" si="3"/>
+        <v>1046.502261202397</v>
+      </c>
+      <c r="H65" s="14">
+        <v>3</v>
+      </c>
+      <c r="I65" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.89119720169512695</v>
+      </c>
+      <c r="J65" s="16">
+        <v>0.34141394558349558</v>
+      </c>
+      <c r="K65" s="16">
+        <v>2.662679901777909E-2</v>
+      </c>
+      <c r="L65" s="16">
+        <v>0.79531951000327972</v>
+      </c>
+      <c r="M65" s="16">
+        <f t="shared" si="2"/>
+        <v>1538.0267742465301</v>
+      </c>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="14">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="C66" s="14">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="D66" s="18">
+        <v>811.81864331754002</v>
+      </c>
+      <c r="E66" s="24">
+        <v>742.82907104492097</v>
+      </c>
+      <c r="F66" s="21">
+        <f t="shared" si="3"/>
+        <v>1108.730523907491</v>
+      </c>
+      <c r="H66" s="14">
+        <v>3</v>
+      </c>
+      <c r="I66" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50229206211010291</v>
+      </c>
+      <c r="J66" s="16">
+        <v>0.40078027153445561</v>
+      </c>
+      <c r="K66" s="16">
+        <v>0.72447397308415906</v>
+      </c>
+      <c r="L66" s="16">
+        <v>0.61139765198955154</v>
+      </c>
+      <c r="M66" s="16">
+        <f t="shared" si="2"/>
+        <v>777.32385718123055</v>
+      </c>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="14">
+        <f t="shared" ref="B67:B86" si="4">C67+33</f>
+        <v>98</v>
+      </c>
+      <c r="C67" s="14">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="D67" s="18">
+        <v>1882.9552197113001</v>
+      </c>
+      <c r="E67" s="24">
+        <v>1882.94165039062</v>
+      </c>
+      <c r="F67" s="21">
+        <f t="shared" si="3"/>
+        <v>1174.659071669633</v>
+      </c>
+      <c r="H67" s="14">
+        <v>3</v>
+      </c>
+      <c r="I67" s="16">
+        <f t="shared" ref="I67:J86" ca="1" si="5">RAND()</f>
+        <v>0.27425176257223183</v>
+      </c>
+      <c r="J67" s="16">
+        <v>0.53035394079898279</v>
+      </c>
+      <c r="K67" s="16">
+        <v>0.35117151458018248</v>
+      </c>
+      <c r="L67" s="16">
+        <v>0.83058345688459012</v>
+      </c>
+      <c r="M67" s="16">
+        <f t="shared" ref="M67:M86" si="6">AVERAGE(D67:E67)</f>
+        <v>1882.9484350509601</v>
+      </c>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="14">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="C68" s="14">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="D68" s="18">
+        <v>2005.74566932169</v>
+      </c>
+      <c r="E68" s="24">
+        <v>2005.4010620117101</v>
+      </c>
+      <c r="F68" s="21">
+        <f t="shared" ref="F68:F86" si="7">F67*POWER(2,1/12)</f>
+        <v>1244.5079348883266</v>
+      </c>
+      <c r="H68" s="14">
+        <v>3</v>
+      </c>
+      <c r="I68" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.87266514685712404</v>
+      </c>
+      <c r="J68" s="16">
+        <v>0.85066202920853051</v>
+      </c>
+      <c r="K68" s="16">
+        <v>0.33226705916502342</v>
+      </c>
+      <c r="L68" s="16">
+        <v>0.21079165540672007</v>
+      </c>
+      <c r="M68" s="16">
+        <f t="shared" si="6"/>
+        <v>2005.5733656667001</v>
+      </c>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="14">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="C69" s="14">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="D69" s="18">
+        <v>2135.1877725499398</v>
+      </c>
+      <c r="E69" s="24">
+        <v>2141.63305664062</v>
+      </c>
+      <c r="F69" s="21">
+        <f t="shared" si="7"/>
+        <v>1318.5102276514829</v>
+      </c>
+      <c r="H69" s="14">
+        <v>3</v>
+      </c>
+      <c r="I69" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.25433985754266897</v>
+      </c>
+      <c r="J69" s="16">
+        <v>0.79564237282474648</v>
+      </c>
+      <c r="K69" s="16">
+        <v>0.34780831106863841</v>
+      </c>
+      <c r="L69" s="16">
+        <v>0.82768486148133014</v>
+      </c>
+      <c r="M69" s="16">
+        <f t="shared" si="6"/>
+        <v>2138.4104145952797</v>
+      </c>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="14">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="C70" s="14">
         <v>68</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="D70" s="18">
+        <v>2217.46055080413</v>
+      </c>
+      <c r="E70" s="24">
+        <v>2217.46044921875</v>
+      </c>
+      <c r="F70" s="21">
+        <f t="shared" si="7"/>
+        <v>1396.9129257320189</v>
+      </c>
+      <c r="H70" s="14">
+        <v>3</v>
+      </c>
+      <c r="I70" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.25527038119768042</v>
+      </c>
+      <c r="J70" s="16">
+        <v>0.52318313122964144</v>
+      </c>
+      <c r="K70" s="16">
+        <v>6.6005904292473216E-2</v>
+      </c>
+      <c r="L70" s="16">
+        <v>0.53567411681663346</v>
+      </c>
+      <c r="M70" s="16">
+        <f t="shared" si="6"/>
+        <v>2217.4605000114398</v>
+      </c>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="14">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="C71" s="14">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="D71" s="18">
+        <v>2217.4604528427099</v>
+      </c>
+      <c r="E71" s="24">
+        <v>2217.46044921875</v>
+      </c>
+      <c r="F71" s="21">
+        <f t="shared" si="7"/>
+        <v>1479.9776908465412</v>
+      </c>
+      <c r="H71" s="14">
+        <v>3</v>
+      </c>
+      <c r="I71" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.30905651848393734</v>
+      </c>
+      <c r="J71" s="16">
+        <v>0.6522303144676761</v>
+      </c>
+      <c r="K71" s="16">
+        <v>0.72969113406390407</v>
+      </c>
+      <c r="L71" s="16">
+        <v>0.15108683324153849</v>
+      </c>
+      <c r="M71" s="16">
+        <f t="shared" si="6"/>
+        <v>2217.4604510307299</v>
+      </c>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="14">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="C72" s="14">
         <v>70</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="D72" s="18">
+        <v>2217.4604404602001</v>
+      </c>
+      <c r="E72" s="24">
+        <v>2217.46044921875</v>
+      </c>
+      <c r="F72" s="21">
+        <f t="shared" si="7"/>
+        <v>1567.9817439270012</v>
+      </c>
+      <c r="H72" s="14">
+        <v>3</v>
+      </c>
+      <c r="I72" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.71340070251664378</v>
+      </c>
+      <c r="J72" s="16">
+        <v>0.1769121737174616</v>
+      </c>
+      <c r="K72" s="16">
+        <v>0.90403514997337375</v>
+      </c>
+      <c r="L72" s="16">
+        <v>0.73539560038427354</v>
+      </c>
+      <c r="M72" s="16">
+        <f t="shared" si="6"/>
+        <v>2217.4604448394748</v>
+      </c>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="14">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="C73" s="14">
         <v>71</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="D73" s="18">
+        <v>2217.46045762634</v>
+      </c>
+      <c r="E73" s="24">
+        <v>2217.46044921875</v>
+      </c>
+      <c r="F73" s="21">
+        <f t="shared" si="7"/>
+        <v>1661.2187903197848</v>
+      </c>
+      <c r="H73" s="14">
+        <v>3</v>
+      </c>
+      <c r="I73" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.93507832708177319</v>
+      </c>
+      <c r="J73" s="16">
+        <v>0.30880539019051378</v>
+      </c>
+      <c r="K73" s="16">
+        <v>0.32304626886746146</v>
+      </c>
+      <c r="L73" s="16">
+        <v>0.98246586445317508</v>
+      </c>
+      <c r="M73" s="16">
+        <f t="shared" si="6"/>
+        <v>2217.460453422545</v>
+      </c>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="14">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="C74" s="14">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="D74" s="18">
+        <v>2217.46040362548</v>
+      </c>
+      <c r="E74" s="24">
+        <v>2217.46044921875</v>
+      </c>
+      <c r="F74" s="21">
+        <f t="shared" si="7"/>
+        <v>1760.0000000000045</v>
+      </c>
+      <c r="H74" s="14">
+        <v>3</v>
+      </c>
+      <c r="I74" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.63337944272142188</v>
+      </c>
+      <c r="J74" s="16">
+        <v>7.0262423465566881E-3</v>
+      </c>
+      <c r="K74" s="16">
+        <v>0.80825759071388992</v>
+      </c>
+      <c r="L74" s="16">
+        <v>0.69277155182306638</v>
+      </c>
+      <c r="M74" s="16">
+        <f t="shared" si="6"/>
+        <v>2217.4604264221152</v>
+      </c>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" s="14">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="C75" s="14">
         <v>73</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="D75" s="18">
+        <v>2217.4604127655002</v>
+      </c>
+      <c r="E75" s="24">
+        <v>2217.46044921875</v>
+      </c>
+      <c r="F75" s="21">
+        <f t="shared" si="7"/>
+        <v>1864.6550460723645</v>
+      </c>
+      <c r="H75" s="14">
+        <v>3</v>
+      </c>
+      <c r="I75" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.13603044373151385</v>
+      </c>
+      <c r="J75" s="16">
+        <v>0.88853308433958678</v>
+      </c>
+      <c r="K75" s="16">
+        <v>0.97817788873359868</v>
+      </c>
+      <c r="L75" s="16">
+        <v>0.33869377237107878</v>
+      </c>
+      <c r="M75" s="16">
+        <f t="shared" si="6"/>
+        <v>2217.4604309921251</v>
+      </c>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="14">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="C76" s="14">
         <v>74</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="D76" s="18">
+        <v>2217.46030683136</v>
+      </c>
+      <c r="E76" s="24">
+        <v>2217.46020507812</v>
+      </c>
+      <c r="F76" s="21">
+        <f t="shared" si="7"/>
+        <v>1975.5332050245017</v>
+      </c>
+      <c r="H76" s="14">
+        <v>3</v>
+      </c>
+      <c r="I76" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.80686304202906323</v>
+      </c>
+      <c r="J76" s="16">
+        <v>5.3317692872198341E-2</v>
+      </c>
+      <c r="K76" s="16">
+        <v>2.2595845353655997E-2</v>
+      </c>
+      <c r="L76" s="16">
+        <v>0.10148495437132865</v>
+      </c>
+      <c r="M76" s="16">
+        <f t="shared" si="6"/>
+        <v>2217.4602559547402</v>
+      </c>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="14">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="C77" s="14">
         <v>75</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="D77" s="18">
+        <v>2217.4603977635702</v>
+      </c>
+      <c r="E77" s="24">
+        <v>2217.46044921875</v>
+      </c>
+      <c r="F77" s="21">
+        <f t="shared" si="7"/>
+        <v>2093.0045224047949</v>
+      </c>
+      <c r="H77" s="14">
+        <v>3</v>
+      </c>
+      <c r="I77" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.86921540766282457</v>
+      </c>
+      <c r="J77" s="16">
+        <v>0.97119500744358966</v>
+      </c>
+      <c r="K77" s="16">
+        <v>0.71522842488098948</v>
+      </c>
+      <c r="L77" s="16">
+        <v>0.48321978653063347</v>
+      </c>
+      <c r="M77" s="16">
+        <f t="shared" si="6"/>
+        <v>2217.4604234911603</v>
+      </c>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="14">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="C78" s="14">
         <v>76</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="D78" s="18">
+        <v>2217.4604235966999</v>
+      </c>
+      <c r="E78" s="24">
+        <v>2217.46044921875</v>
+      </c>
+      <c r="F78" s="21">
+        <f t="shared" si="7"/>
+        <v>2217.461047814983</v>
+      </c>
+      <c r="H78" s="14">
+        <v>3</v>
+      </c>
+      <c r="I78" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.50753715739791261</v>
+      </c>
+      <c r="J78" s="16">
+        <v>0.52211652903954087</v>
+      </c>
+      <c r="K78" s="16">
+        <v>0.66645910670098163</v>
+      </c>
+      <c r="L78" s="16">
+        <v>0.70543357506788551</v>
+      </c>
+      <c r="M78" s="16">
+        <f t="shared" si="6"/>
+        <v>2217.460436407725</v>
+      </c>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" s="14">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="C79" s="14">
         <v>77</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="D79" s="18">
+        <v>2203.2891360905601</v>
+      </c>
+      <c r="E79" s="24">
+        <v>2217.4561767578102</v>
+      </c>
+      <c r="F79" s="21">
+        <f t="shared" si="7"/>
+        <v>2349.318143339267</v>
+      </c>
+      <c r="H79" s="14">
+        <v>3</v>
+      </c>
+      <c r="I79" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.6338727316076791</v>
+      </c>
+      <c r="J79" s="16">
+        <v>0.95623160343086033</v>
+      </c>
+      <c r="K79" s="16">
+        <v>0.40105748538528363</v>
+      </c>
+      <c r="L79" s="16">
+        <v>0.19704191396058779</v>
+      </c>
+      <c r="M79" s="16">
+        <f t="shared" si="6"/>
+        <v>2210.3726564241852</v>
+      </c>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="14">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="C80" s="14">
         <v>78</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="D80" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" s="21">
+        <f t="shared" si="7"/>
+        <v>2489.0158697766542</v>
+      </c>
+      <c r="H80" s="14">
+        <v>3</v>
+      </c>
+      <c r="I80" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.18710086010851346</v>
+      </c>
+      <c r="J80" s="16">
+        <v>0.45354809280436537</v>
+      </c>
+      <c r="K80" s="16">
+        <v>0.83723158142108645</v>
+      </c>
+      <c r="L80" s="16">
+        <v>0.78865301281529998</v>
+      </c>
+      <c r="M80" s="4">
+        <v>2428.754050501625</v>
+      </c>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="14">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="C81" s="14">
         <v>79</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="D81" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" s="21">
+        <f t="shared" si="7"/>
+        <v>2637.0204553029671</v>
+      </c>
+      <c r="H81" s="14">
+        <v>3</v>
+      </c>
+      <c r="I81" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.67221738735864967</v>
+      </c>
+      <c r="J81" s="16">
+        <v>0.75719309588544415</v>
+      </c>
+      <c r="K81" s="16">
+        <v>6.0663882198474739E-2</v>
+      </c>
+      <c r="L81" s="16">
+        <v>0.54203132431343615</v>
+      </c>
+      <c r="M81" s="4">
+        <v>2541.7631271921573</v>
+      </c>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="14">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="C82" s="14">
         <v>80</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="D82" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" s="21">
+        <f t="shared" si="7"/>
+        <v>2793.8258514640393</v>
+      </c>
+      <c r="H82" s="14">
+        <v>3</v>
+      </c>
+      <c r="I82" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.20067323795842773</v>
+      </c>
+      <c r="J82" s="16">
+        <v>0.84627429963901324</v>
+      </c>
+      <c r="K82" s="16">
+        <v>0.87050559748462075</v>
+      </c>
+      <c r="L82" s="16">
+        <v>0.38138846210217769</v>
+      </c>
+      <c r="M82" s="4">
+        <v>2733.0735669920664</v>
+      </c>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" s="14">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="C83" s="14">
         <v>81</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="D83" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F83" s="21">
+        <f t="shared" si="7"/>
+        <v>2959.9553816930838</v>
+      </c>
+      <c r="H83" s="14">
+        <v>3</v>
+      </c>
+      <c r="I83" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.24822680686807064</v>
+      </c>
+      <c r="J83" s="16">
+        <v>0.50928280494223221</v>
+      </c>
+      <c r="K83" s="16">
+        <v>0.79948145667057235</v>
+      </c>
+      <c r="L83" s="16">
+        <v>0.32567084905121479</v>
+      </c>
+      <c r="M83" s="4">
+        <v>2868.128608396134</v>
+      </c>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="14">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="C84" s="14">
         <v>82</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="D84" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84" s="21">
+        <f t="shared" si="7"/>
+        <v>3135.9634878540037</v>
+      </c>
+      <c r="H84" s="14">
+        <v>3</v>
+      </c>
+      <c r="I84" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.90642962929601945</v>
+      </c>
+      <c r="J84" s="16">
+        <v>0.85529069266003699</v>
+      </c>
+      <c r="K84" s="16">
+        <v>0.81499550217740224</v>
+      </c>
+      <c r="L84" s="16">
+        <v>0.51288849882731657</v>
+      </c>
+      <c r="M84" s="4">
+        <v>3062.8807130598752</v>
+      </c>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="14">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="C85" s="14">
         <v>83</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="D85" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F85" s="21">
+        <f t="shared" si="7"/>
+        <v>3322.437580639571</v>
+      </c>
+      <c r="H85" s="14">
+        <v>3</v>
+      </c>
+      <c r="I85" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.32487709349268423</v>
+      </c>
+      <c r="J85" s="16">
+        <v>0.84761148551526466</v>
+      </c>
+      <c r="K85" s="16">
+        <v>0.19754803058005188</v>
+      </c>
+      <c r="L85" s="16">
+        <v>3.8087411755016731E-2</v>
+      </c>
+      <c r="M85" s="4">
+        <v>3259.6497334696382</v>
+      </c>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" s="14">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="C86" s="14">
         <v>84</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>115</v>
-      </c>
+      <c r="D86" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F86" s="21">
+        <f t="shared" si="7"/>
+        <v>3520.0000000000105</v>
+      </c>
+      <c r="H86" s="14">
+        <v>3</v>
+      </c>
+      <c r="I86" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.90373512468431971</v>
+      </c>
+      <c r="J86" s="16">
+        <v>7.1234154753825774E-2</v>
+      </c>
+      <c r="K86" s="16">
+        <v>0.82233242992308864</v>
+      </c>
+      <c r="L86" s="16">
+        <v>0.86050295239688057</v>
+      </c>
+      <c r="M86" s="4">
+        <v>3454.1176572876311</v>
+      </c>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="M2 M3:M46 M47:M71" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/pitchTracking/keyData.xlsx
+++ b/pitchTracking/keyData.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaco\Desktop\smc8-pm-project\pitchTracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ECFF3F-8CDE-45B6-AE38-0755EB230655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0A905D-45AC-4DCC-8AC8-27920C7BF958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keynotes" sheetId="1" r:id="rId1"/>
     <sheet name="pitch tracking results" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -394,9 +393,6 @@
     <t>MIDI note</t>
   </si>
   <si>
-    <t>Note index</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
@@ -433,10 +429,13 @@
     <t>Theoretical [Hz]</t>
   </si>
   <si>
-    <t>Finals</t>
-  </si>
-  <si>
-    <t>1755 (la#)</t>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Manual</t>
   </si>
 </sst>
 </file>
@@ -446,7 +445,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,8 +481,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,14 +530,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -523,11 +539,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -544,32 +588,30 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -585,1402 +627,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'pitch tracking results'!$C$2:$C$86</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'pitch tracking results'!$H$2:$H$86</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="85"/>
-                <c:pt idx="0">
-                  <c:v>30.293706893920898</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33.989334106445298</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.780091285705499</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32.534324645996001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.704025268554602</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36.507204055786097</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>38.646694183349602</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40.72261428833</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42.902133941650298</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>46.025157928466797</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46.516143798828097</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>51.6283149719238</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>54.683086395263601</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>56.612411499023402</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60.653106689453097</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>63.9025268554687</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>67.691818237304602</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>71.329765319824205</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>75.606437683105398</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>80.525413513183594</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>84.822731018066406</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>90.379859924316406</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>95.760177612304602</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>101.463134765625</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>107.48963928222599</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>113.87899017333901</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>120.647888183593</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>127.106117248535</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>136.19244384765599</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>143.49411773681601</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>149.35060119628901</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>159.629768371582</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>169.64434814453099</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>177.67329406738199</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>190.40190124511699</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>200.577224731445</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>213.73532104492099</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>226.46087646484301</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>239.99073028564399</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>251.44344329833899</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>270.76040649414</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>282.017822265625</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>300.59477233886702</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>312.96795654296801</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>341.12612915039</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>359.42364501953102</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>380.88848876953102</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>401.34313964843699</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>422.569091796875</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>450.22381591796801</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>478.39596557617102</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>505.330474853515</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>517.26461791992097</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>548.1640625</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>594.32931518554597</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>632.85357666015602</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>667.36047363281205</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>706.65289306640602</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>748.64080810546795</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>802.35629272460903</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>849.85186767578102</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>905.08139038085903</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>942.76617431640602</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1016.8302307128901</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1064.78637695312</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1128.6564331054601</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1200.7982788085901</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1283.1427612304601</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1341.02954101562</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1442.1290893554601</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1532.4273071289001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1609.13317871093</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1828.5154418945301</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1987.3062133789001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2019.15991210937</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2194.4295654296802</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2305</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2485</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2615</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2752</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2925</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3075</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3285</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3455</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C953-4E39-A39A-5641833201C8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="82784991"/>
-        <c:axId val="82785951"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="82784991"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="82785951"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="82785951"/>
-        <c:scaling>
-          <c:logBase val="2"/>
-          <c:orientation val="minMax"/>
-          <c:min val="20"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="82784991"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1295D5-F8B1-C147-325C-F2965B20EDF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2248,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80:H86"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2360,7 +1006,7 @@
       </c>
       <c r="M2">
         <f ca="1">RAND()</f>
-        <v>0.28916608097129526</v>
+        <v>0.46277500680221795</v>
       </c>
       <c r="N2" s="7">
         <v>0.36363978468860625</v>
@@ -2415,7 +1061,7 @@
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M66" ca="1" si="5">RAND()</f>
-        <v>0.28820329998251526</v>
+        <v>0.92431804747435786</v>
       </c>
       <c r="N3" s="7">
         <v>0.15453078428827749</v>
@@ -2470,7 +1116,7 @@
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62749919491438055</v>
+        <v>0.32697983277875386</v>
       </c>
       <c r="N4" s="7">
         <v>0.65252324908191239</v>
@@ -2525,7 +1171,7 @@
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10779821547241697</v>
+        <v>0.43864780061982211</v>
       </c>
       <c r="N5" s="7">
         <v>0.82101361555669505</v>
@@ -2580,7 +1226,7 @@
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86072165450337634</v>
+        <v>5.7566709666761029E-2</v>
       </c>
       <c r="N6" s="7">
         <v>0.6576754830814584</v>
@@ -2635,7 +1281,7 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8444491835084573E-2</v>
+        <v>0.28792178244591571</v>
       </c>
       <c r="N7" s="7">
         <v>0.71568519429429844</v>
@@ -2690,7 +1336,7 @@
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="5"/>
-        <v>7.0820130081148958E-2</v>
+        <v>0.88228484317224709</v>
       </c>
       <c r="N8" s="7">
         <v>5.2850028046014241E-2</v>
@@ -2745,7 +1391,7 @@
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26790690268450779</v>
+        <v>0.17509415777025827</v>
       </c>
       <c r="N9" s="7">
         <v>0.21308809860812472</v>
@@ -2800,7 +1446,7 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48398592786973926</v>
+        <v>0.55680726327551866</v>
       </c>
       <c r="N10" s="7">
         <v>0.82709017219206349</v>
@@ -2854,7 +1500,7 @@
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67263524976077549</v>
+        <v>0.53984890583980438</v>
       </c>
       <c r="N11" s="7">
         <v>0.31858018787723441</v>
@@ -2908,7 +1554,7 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42000180508780438</v>
+        <v>0.56351116408382063</v>
       </c>
       <c r="N12" s="7">
         <v>4.9441714832939354E-2</v>
@@ -2962,7 +1608,7 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65412379804803256</v>
+        <v>0.27756489539880169</v>
       </c>
       <c r="N13" s="7">
         <v>9.0789275175559458E-2</v>
@@ -3016,7 +1662,7 @@
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10414888545823497</v>
+        <v>0.49232810965764784</v>
       </c>
       <c r="N14" s="7">
         <v>0.31354481400876677</v>
@@ -3071,7 +1717,7 @@
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43791500364836</v>
+        <v>0.6351096530733622</v>
       </c>
       <c r="N15" s="7">
         <v>0.20618208392437076</v>
@@ -3129,7 +1775,7 @@
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="5"/>
-        <v>0.96274259783826099</v>
+        <v>4.2076998728795889E-2</v>
       </c>
       <c r="N16" s="7">
         <v>0.39953080131459351</v>
@@ -3187,7 +1833,7 @@
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14298812162817898</v>
+        <v>0.19098954717355165</v>
       </c>
       <c r="N17" s="7">
         <v>0.40484968853932757</v>
@@ -3245,7 +1891,7 @@
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90868259954260011</v>
+        <v>0.9288859352708968</v>
       </c>
       <c r="N18" s="7">
         <v>0.33741213629515332</v>
@@ -3303,7 +1949,7 @@
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.92691957184296581</v>
+        <v>0.85197763099716151</v>
       </c>
       <c r="N19" s="7">
         <v>0.27644326351109294</v>
@@ -3361,7 +2007,7 @@
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1153740301500745E-2</v>
+        <v>0.15982107057080774</v>
       </c>
       <c r="N20" s="7">
         <v>0.95355225691916257</v>
@@ -3419,7 +2065,7 @@
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34681579348522917</v>
+        <v>0.29873389823458174</v>
       </c>
       <c r="N21" s="7">
         <v>0.49780031450639206</v>
@@ -3477,7 +2123,7 @@
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77863437929019264</v>
+        <v>0.38759034524084479</v>
       </c>
       <c r="N22" s="7">
         <v>0.99777944707987265</v>
@@ -3535,7 +2181,7 @@
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17068751234555779</v>
+        <v>0.89788178764427573</v>
       </c>
       <c r="N23" s="7">
         <v>0.34133183575900727</v>
@@ -3593,7 +2239,7 @@
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.50260867833358025</v>
+        <v>0.66104965338132582</v>
       </c>
       <c r="N24" s="7">
         <v>0.53002196191416406</v>
@@ -3651,7 +2297,7 @@
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81743864700929969</v>
+        <v>0.16096023412017813</v>
       </c>
       <c r="N25" s="7">
         <v>0.59781950223764457</v>
@@ -3709,7 +2355,7 @@
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31750722106795592</v>
+        <v>2.6349630256596979E-2</v>
       </c>
       <c r="N26" s="7">
         <v>0.35425136900246146</v>
@@ -3767,7 +2413,7 @@
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4001827434371118</v>
+        <v>0.30487206520148813</v>
       </c>
       <c r="N27" s="7">
         <v>0.87052133070268678</v>
@@ -3825,7 +2471,7 @@
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.95215793851297614</v>
+        <v>0.56880391159794963</v>
       </c>
       <c r="N28" s="7">
         <v>0.85666535883446049</v>
@@ -3883,7 +2529,7 @@
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90289006163283692</v>
+        <v>0.743661275317548</v>
       </c>
       <c r="N29" s="7">
         <v>0.40060425890931561</v>
@@ -3941,7 +2587,7 @@
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49101010371384934</v>
+        <v>0.78763468391987701</v>
       </c>
       <c r="N30" s="7">
         <v>0.32058727942291576</v>
@@ -3999,7 +2645,7 @@
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99350653020782598</v>
+        <v>0.53880133217567494</v>
       </c>
       <c r="N31" s="7">
         <v>0.13760252597132794</v>
@@ -4058,7 +2704,7 @@
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23680911271294336</v>
+        <v>0.29727657819190778</v>
       </c>
       <c r="N32" s="7">
         <v>0.11275382012540103</v>
@@ -4120,7 +2766,7 @@
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86126411269579928</v>
+        <v>0.25060273146690959</v>
       </c>
       <c r="N33" s="7">
         <v>0.70878438486920547</v>
@@ -4182,7 +2828,7 @@
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57610579244610083</v>
+        <v>0.86721505799162635</v>
       </c>
       <c r="N34" s="7">
         <v>0.61992022851264861</v>
@@ -4244,7 +2890,7 @@
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10673623388099807</v>
+        <v>0.47612184069037644</v>
       </c>
       <c r="N35" s="7">
         <v>0.30876621929633052</v>
@@ -4306,7 +2952,7 @@
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83776144289856314</v>
+        <v>0.88539621800811208</v>
       </c>
       <c r="N36" s="7">
         <v>0.63337685198477589</v>
@@ -4368,7 +3014,7 @@
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51687605218193688</v>
+        <v>0.98887764462836036</v>
       </c>
       <c r="N37" s="7">
         <v>0.58308396017811348</v>
@@ -4430,7 +3076,7 @@
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77530450564392572</v>
+        <v>0.70500360144720564</v>
       </c>
       <c r="N38" s="7">
         <v>0.45021574197405823</v>
@@ -4492,7 +3138,7 @@
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61659368232859857</v>
+        <v>0.88102006719317083</v>
       </c>
       <c r="N39" s="7">
         <v>0.2205184932163673</v>
@@ -4554,7 +3200,7 @@
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86857154127394376</v>
+        <v>1.6853738028367315E-2</v>
       </c>
       <c r="N40" s="7">
         <v>0.30204449462085692</v>
@@ -4616,7 +3262,7 @@
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58617737730472208</v>
+        <v>0.87276635977369843</v>
       </c>
       <c r="N41" s="7">
         <v>0.96960269632308016</v>
@@ -4678,7 +3324,7 @@
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54260297655072987</v>
+        <v>0.75394951572554803</v>
       </c>
       <c r="N42" s="7">
         <v>0.64894817609047195</v>
@@ -4740,7 +3386,7 @@
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48914903848187863</v>
+        <v>0.42525611619219128</v>
       </c>
       <c r="N43" s="7">
         <v>0.9671384975591113</v>
@@ -4802,7 +3448,7 @@
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74323535591811341</v>
+        <v>0.91671861849338088</v>
       </c>
       <c r="N44" s="7">
         <v>0.16728056449427242</v>
@@ -4864,7 +3510,7 @@
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43927374355832771</v>
+        <v>3.7609574203229412E-2</v>
       </c>
       <c r="N45" s="7">
         <v>0.97014034368482205</v>
@@ -4926,7 +3572,7 @@
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.203734261350482</v>
+        <v>0.21631753712688939</v>
       </c>
       <c r="N46" s="7">
         <v>0.14184237276812373</v>
@@ -4988,7 +3634,7 @@
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99288603551745358</v>
+        <v>0.45885688491107801</v>
       </c>
       <c r="N47" s="7">
         <v>0.87369324209203869</v>
@@ -5050,7 +3696,7 @@
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10383067113623867</v>
+        <v>0.13461334625592702</v>
       </c>
       <c r="N48" s="7">
         <v>0.23215110927673421</v>
@@ -5112,7 +3758,7 @@
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39938732569812518</v>
+        <v>0.24943907202374105</v>
       </c>
       <c r="N49" s="7">
         <v>0.41140424416952115</v>
@@ -5173,7 +3819,7 @@
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58893242557119085</v>
+        <v>5.7427970969002873E-3</v>
       </c>
       <c r="N50" s="7">
         <v>0.45922463930133517</v>
@@ -5235,7 +3881,7 @@
       </c>
       <c r="M51">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55693081435855485</v>
+        <v>0.96306409581812713</v>
       </c>
       <c r="N51" s="7">
         <v>0.27298193365189094</v>
@@ -5297,7 +3943,7 @@
       </c>
       <c r="M52">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2246891829062032E-2</v>
+        <v>0.62250502501913552</v>
       </c>
       <c r="N52" s="7">
         <v>0.90367281274799927</v>
@@ -5359,7 +4005,7 @@
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55584896091743052</v>
+        <v>7.4547528787579642E-2</v>
       </c>
       <c r="N53" s="7">
         <v>0.33401603606125274</v>
@@ -5423,7 +4069,7 @@
       </c>
       <c r="M54">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89589524587487146</v>
+        <v>0.34825096995526683</v>
       </c>
       <c r="N54" s="7">
         <v>0.78782993494586073</v>
@@ -5485,7 +4131,7 @@
       </c>
       <c r="M55">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90838468511304071</v>
+        <v>0.90095533704571218</v>
       </c>
       <c r="N55" s="7">
         <v>0.32262435562402192</v>
@@ -5547,7 +4193,7 @@
       </c>
       <c r="M56">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57158638250103566</v>
+        <v>0.90260373493146384</v>
       </c>
       <c r="N56" s="7">
         <v>0.91897761332231853</v>
@@ -5609,7 +4255,7 @@
       </c>
       <c r="M57">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24116700508955113</v>
+        <v>0.13257448100731106</v>
       </c>
       <c r="N57" s="7">
         <v>0.29246561980543551</v>
@@ -5671,7 +4317,7 @@
       </c>
       <c r="M58">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30187841719204422</v>
+        <v>0.9230993482971428</v>
       </c>
       <c r="N58" s="7">
         <v>0.74772967135635671</v>
@@ -5733,7 +4379,7 @@
       </c>
       <c r="M59">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77842478800310666</v>
+        <v>0.92268619945143926</v>
       </c>
       <c r="N59" s="7">
         <v>0.69621562359731126</v>
@@ -5795,7 +4441,7 @@
       </c>
       <c r="M60">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46951920715209972</v>
+        <v>0.51271213454905296</v>
       </c>
       <c r="N60" s="7">
         <v>0.20909957463594775</v>
@@ -5857,7 +4503,7 @@
       </c>
       <c r="M61">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56739042776670812</v>
+        <v>0.35961630589799076</v>
       </c>
       <c r="N61" s="7">
         <v>0.79346297452888637</v>
@@ -5919,7 +4565,7 @@
       </c>
       <c r="M62">
         <f t="shared" ca="1" si="5"/>
-        <v>7.2286654744275203E-2</v>
+        <v>0.67515311304300352</v>
       </c>
       <c r="N62" s="7">
         <v>0.31149909990883551</v>
@@ -5981,7 +4627,7 @@
       </c>
       <c r="M63">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68348696349215354</v>
+        <v>0.19821032051819509</v>
       </c>
       <c r="N63" s="7">
         <v>0.48031537986172113</v>
@@ -6043,7 +4689,7 @@
       </c>
       <c r="M64">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79719234615435286</v>
+        <v>8.4397536063867462E-2</v>
       </c>
       <c r="N64" s="7">
         <v>0.80102559709529053</v>
@@ -6105,7 +4751,7 @@
       </c>
       <c r="M65">
         <f t="shared" ca="1" si="5"/>
-        <v>0.95219221324219816</v>
+        <v>0.30786109466235045</v>
       </c>
       <c r="N65" s="7">
         <v>0.28828332955544012</v>
@@ -6167,7 +4813,7 @@
       </c>
       <c r="M66">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7185776407700359E-2</v>
+        <v>1.1937877429155752E-2</v>
       </c>
       <c r="N66" s="7">
         <v>0.48899291055505756</v>
@@ -6229,7 +4875,7 @@
       </c>
       <c r="M67">
         <f t="shared" ref="M67:M72" ca="1" si="15">RAND()</f>
-        <v>0.92673769371581194</v>
+        <v>0.45239532199237498</v>
       </c>
       <c r="N67" s="7">
         <v>0.80047770738788393</v>
@@ -6291,7 +4937,7 @@
       </c>
       <c r="M68">
         <f t="shared" ca="1" si="15"/>
-        <v>5.199974337494806E-2</v>
+        <v>0.35492541732194305</v>
       </c>
       <c r="N68" s="7">
         <v>0.46632345703033884</v>
@@ -6353,7 +4999,7 @@
       </c>
       <c r="M69">
         <f t="shared" ca="1" si="15"/>
-        <v>0.85146134733548329</v>
+        <v>0.37821202447177293</v>
       </c>
       <c r="N69" s="7">
         <v>0.74207184365936485</v>
@@ -6415,7 +5061,7 @@
       </c>
       <c r="M70">
         <f t="shared" ca="1" si="15"/>
-        <v>0.94890319139618984</v>
+        <v>0.28714147009044133</v>
       </c>
       <c r="N70" s="7">
         <v>0.96530053340657029</v>
@@ -6477,7 +5123,7 @@
       </c>
       <c r="M71">
         <f t="shared" ca="1" si="15"/>
-        <v>0.56330773465728678</v>
+        <v>0.8939705141404849</v>
       </c>
       <c r="N71" s="7">
         <v>0.12934481239966189</v>
@@ -6539,7 +5185,7 @@
       </c>
       <c r="M72">
         <f t="shared" ca="1" si="15"/>
-        <v>0.63931881934293355</v>
+        <v>0.39280799571750713</v>
       </c>
       <c r="N72" s="7">
         <v>0.14921015862555653</v>
@@ -6602,7 +5248,7 @@
       </c>
       <c r="M73">
         <f t="shared" ref="M73:M86" ca="1" si="18">RAND()</f>
-        <v>0.34812713112630844</v>
+        <v>0.98192759913259353</v>
       </c>
       <c r="N73" s="7">
         <v>8.1118040046405104E-2</v>
@@ -6665,7 +5311,7 @@
       </c>
       <c r="M74">
         <f t="shared" ca="1" si="18"/>
-        <v>0.54618562086210343</v>
+        <v>0.29622927736514193</v>
       </c>
       <c r="N74" s="7">
         <v>0.17936155117592445</v>
@@ -6728,7 +5374,7 @@
       </c>
       <c r="M75">
         <f t="shared" ca="1" si="18"/>
-        <v>0.5871078438788081</v>
+        <v>0.76608247341714097</v>
       </c>
       <c r="N75" s="7">
         <v>0.39247141670469787</v>
@@ -6791,7 +5437,7 @@
       </c>
       <c r="M76">
         <f t="shared" ca="1" si="18"/>
-        <v>0.1224408217652545</v>
+        <v>0.23262995152350663</v>
       </c>
       <c r="N76" s="7">
         <v>0.45266156241192723</v>
@@ -6854,7 +5500,7 @@
       </c>
       <c r="M77">
         <f t="shared" ca="1" si="18"/>
-        <v>0.22035438767411075</v>
+        <v>0.74202661954712923</v>
       </c>
       <c r="N77" s="7">
         <v>0.16334533433755671</v>
@@ -6917,7 +5563,7 @@
       </c>
       <c r="M78">
         <f t="shared" ca="1" si="18"/>
-        <v>0.17042487358578828</v>
+        <v>0.34452757320938632</v>
       </c>
       <c r="N78" s="7">
         <v>0.52468795773904264</v>
@@ -6980,7 +5626,7 @@
       </c>
       <c r="M79">
         <f t="shared" ca="1" si="18"/>
-        <v>0.52938977917386276</v>
+        <v>8.3680340017573851E-2</v>
       </c>
       <c r="N79" s="7">
         <v>0.63253074449134639</v>
@@ -7043,7 +5689,7 @@
       </c>
       <c r="M80">
         <f t="shared" ca="1" si="18"/>
-        <v>0.26452940439916484</v>
+        <v>0.96864052748533647</v>
       </c>
       <c r="N80" s="7">
         <v>0.69296323757560652</v>
@@ -7106,7 +5752,7 @@
       </c>
       <c r="M81">
         <f t="shared" ca="1" si="18"/>
-        <v>0.10782309378768229</v>
+        <v>0.95166960461340822</v>
       </c>
       <c r="N81" s="7">
         <v>0.29589698897676608</v>
@@ -7169,7 +5815,7 @@
       </c>
       <c r="M82">
         <f t="shared" ca="1" si="18"/>
-        <v>0.4815093797115122</v>
+        <v>0.11436427859844189</v>
       </c>
       <c r="N82" s="7">
         <v>0.77516020799779406</v>
@@ -7232,7 +5878,7 @@
       </c>
       <c r="M83">
         <f t="shared" ca="1" si="18"/>
-        <v>0.62947978570613849</v>
+        <v>0.58796021856342129</v>
       </c>
       <c r="N83" s="7">
         <v>0.4658991273440577</v>
@@ -7295,7 +5941,7 @@
       </c>
       <c r="M84">
         <f t="shared" ca="1" si="18"/>
-        <v>0.98550720852866536</v>
+        <v>2.3277562156706177E-2</v>
       </c>
       <c r="N84" s="7">
         <v>0.72317574723917522</v>
@@ -7358,7 +6004,7 @@
       </c>
       <c r="M85">
         <f t="shared" ca="1" si="18"/>
-        <v>0.34199417476071381</v>
+        <v>0.66345673168701269</v>
       </c>
       <c r="N85" s="7">
         <v>0.87006243512491854</v>
@@ -7421,7 +6067,7 @@
       </c>
       <c r="M86">
         <f t="shared" ca="1" si="18"/>
-        <v>0.92822369448696662</v>
+        <v>0.55563374715881397</v>
       </c>
       <c r="N86" s="7">
         <v>0.87611417886010456</v>
@@ -7452,74 +6098,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD59DFE-7F75-4DF4-B32D-CE7E758F39E4}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P83" sqref="P83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="13"/>
-    <col min="8" max="8" width="11.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="20"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:16" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="P1" s="26" t="s">
         <v>131</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -7533,42 +6179,39 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="18">
+        <v>27.5</v>
+      </c>
+      <c r="E2" s="18">
         <v>28.461011507094401</v>
       </c>
-      <c r="E2" s="20">
+      <c r="F2" s="18">
         <v>30.293706893920898</v>
       </c>
-      <c r="F2" s="18">
-        <v>27.5</v>
-      </c>
-      <c r="H2" s="18">
+      <c r="G2" s="18"/>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <f ca="1">RAND()</f>
+        <v>0.18918495972502836</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.84478255039968908</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.75527393303156953</v>
+      </c>
+      <c r="L2" s="4">
+        <v>8.8203583278534947E-2</v>
+      </c>
+      <c r="M2" s="16">
         <v>30.293706893920898</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4">
-        <f ca="1">RAND()</f>
-        <v>0.63266611271146778</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.84478255039968908</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0.75527393303156953</v>
-      </c>
-      <c r="M2" s="4">
-        <v>8.8203583278534947E-2</v>
-      </c>
-      <c r="N2" s="4">
-        <f>AVERAGE(D2:E2)</f>
-        <v>29.377359200507648</v>
-      </c>
-      <c r="O2" s="4">
+      <c r="N2" s="21">
         <v>0</v>
       </c>
-      <c r="P2" s="4">
+      <c r="O2" s="21">
         <v>0</v>
       </c>
     </row>
@@ -7583,43 +6226,40 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="18">
+        <f>D2*POWER(2,1/12)</f>
+        <v>29.13523509488062</v>
+      </c>
+      <c r="E3" s="18">
         <v>33.565436262432399</v>
       </c>
-      <c r="E3" s="20">
+      <c r="F3" s="18">
         <v>33.989334106445298</v>
       </c>
-      <c r="F3" s="18">
-        <f>F2*POWER(2,1/12)</f>
-        <v>29.13523509488062</v>
-      </c>
-      <c r="H3" s="18">
+      <c r="G3" s="18"/>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I66" ca="1" si="1">RAND()</f>
+        <v>0.42984950482635831</v>
+      </c>
+      <c r="J3" s="4">
+        <v>9.5376401867727334E-2</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.69182351711943824</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.76345173474239558</v>
+      </c>
+      <c r="M3" s="16">
         <v>33.989334106445298</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J66" ca="1" si="1">RAND()</f>
-        <v>0.32622580800093193</v>
-      </c>
-      <c r="K3" s="4">
-        <v>9.5376401867727334E-2</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0.69182351711943824</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0.76345173474239558</v>
-      </c>
-      <c r="N3" s="4">
-        <f t="shared" ref="N3:N66" si="2">AVERAGE(D3:E3)</f>
-        <v>33.777385184438849</v>
-      </c>
-      <c r="O3" s="4">
+      <c r="N3" s="21">
         <v>0</v>
       </c>
-      <c r="P3" s="4">
+      <c r="O3" s="21">
         <v>0</v>
       </c>
     </row>
@@ -7634,43 +6274,40 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="18">
+        <f t="shared" ref="D4:D67" si="2">D3*POWER(2,1/12)</f>
+        <v>30.867706328507758</v>
+      </c>
+      <c r="E4" s="18">
         <v>32.244483625078601</v>
       </c>
-      <c r="E4" s="20">
+      <c r="F4" s="18">
         <v>30.780091285705499</v>
       </c>
-      <c r="F4" s="18">
-        <f t="shared" ref="F4:F67" si="3">F3*POWER(2,1/12)</f>
-        <v>30.867706328507758</v>
-      </c>
-      <c r="H4" s="18">
+      <c r="G4" s="18"/>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.0029957463632027E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.92406946114126354</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.68428257520222102</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.37134707100122288</v>
+      </c>
+      <c r="M4" s="16">
         <v>30.780091285705499</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.53144238289241219</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.92406946114126354</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0.68428257520222102</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0.37134707100122288</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" si="2"/>
-        <v>31.512287455392048</v>
-      </c>
-      <c r="O4" s="4">
+      <c r="N4" s="21">
         <v>0</v>
       </c>
-      <c r="P4" s="4">
+      <c r="O4" s="21">
         <v>0</v>
       </c>
     </row>
@@ -7685,43 +6322,40 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="18">
+        <f t="shared" si="2"/>
+        <v>32.703195662574835</v>
+      </c>
+      <c r="E5" s="18">
         <v>32.639336282805701</v>
       </c>
-      <c r="E5" s="20">
+      <c r="F5" s="18">
         <v>32.534324645996001</v>
       </c>
-      <c r="F5" s="18">
-        <f t="shared" si="3"/>
-        <v>32.703195662574835</v>
-      </c>
-      <c r="H5" s="18">
+      <c r="G5" s="18"/>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.76830367766828256</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.29549419708826907</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.61491827448545555</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.63342963440591915</v>
+      </c>
+      <c r="M5" s="16">
         <v>32.534324645996001</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.30919186481826855</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.29549419708826907</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0.61491827448545555</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0.63342963440591915</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" si="2"/>
-        <v>32.586830464400848</v>
-      </c>
-      <c r="O5" s="4">
+      <c r="N5" s="21">
         <v>0</v>
       </c>
-      <c r="P5" s="4">
+      <c r="O5" s="21">
         <v>0</v>
       </c>
     </row>
@@ -7736,43 +6370,40 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="18">
+        <f t="shared" si="2"/>
+        <v>34.647828872109017</v>
+      </c>
+      <c r="E6" s="18">
         <v>32.722701914642201</v>
       </c>
-      <c r="E6" s="20">
+      <c r="F6" s="18">
         <v>32.704025268554602</v>
       </c>
-      <c r="F6" s="18">
-        <f t="shared" si="3"/>
-        <v>34.647828872109017</v>
-      </c>
-      <c r="H6" s="18">
+      <c r="G6" s="18"/>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.35157703967032472</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2.0883994672800776E-2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.38166269194612523</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.4040673205092048</v>
+      </c>
+      <c r="M6" s="16">
         <v>32.704025268554602</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.37444631834834718</v>
-      </c>
-      <c r="K6" s="4">
-        <v>2.0883994672800776E-2</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0.38166269194612523</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0.4040673205092048</v>
-      </c>
-      <c r="N6" s="4">
-        <f t="shared" si="2"/>
-        <v>32.713363591598402</v>
-      </c>
-      <c r="O6" s="4">
+      <c r="N6" s="21">
         <v>0</v>
       </c>
-      <c r="P6" s="4">
+      <c r="O6" s="21">
         <v>0</v>
       </c>
     </row>
@@ -7787,43 +6418,40 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="18">
+        <f t="shared" si="2"/>
+        <v>36.708095989675954</v>
+      </c>
+      <c r="E7" s="18">
         <v>36.549696774467201</v>
       </c>
-      <c r="E7" s="20">
+      <c r="F7" s="18">
         <v>36.507204055786097</v>
       </c>
-      <c r="F7" s="18">
-        <f t="shared" si="3"/>
-        <v>36.708095989675954</v>
-      </c>
-      <c r="H7" s="18">
+      <c r="G7" s="18"/>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.16941965135218806</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.67383747473272981</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.45328756787955593</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.10733242596151249</v>
+      </c>
+      <c r="M7" s="16">
         <v>36.507204055786097</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.8934569128065579E-2</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.67383747473272981</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0.45328756787955593</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0.10733242596151249</v>
-      </c>
-      <c r="N7" s="4">
-        <f t="shared" si="2"/>
-        <v>36.528450415126649</v>
-      </c>
-      <c r="O7" s="4">
+      <c r="N7" s="21">
         <v>0</v>
       </c>
-      <c r="P7" s="4">
+      <c r="O7" s="21">
         <v>0</v>
       </c>
     </row>
@@ -7838,43 +6466,40 @@
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="18">
+        <f t="shared" si="2"/>
+        <v>38.890872965260122</v>
+      </c>
+      <c r="E8" s="18">
         <v>38.820896733501499</v>
       </c>
-      <c r="E8" s="20">
+      <c r="F8" s="18">
         <v>38.646694183349602</v>
       </c>
-      <c r="F8" s="18">
-        <f t="shared" si="3"/>
-        <v>38.890872965260122</v>
-      </c>
-      <c r="H8" s="18">
+      <c r="G8" s="18"/>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.85064269011271798</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.57851152116751636</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.78661787548324891</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.58968430079112044</v>
+      </c>
+      <c r="M8" s="16">
         <v>38.646694183349602</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.15230863662230376</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0.57851152116751636</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0.78661787548324891</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0.58968430079112044</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="2"/>
-        <v>38.733795458425547</v>
-      </c>
-      <c r="O8" s="4">
+      <c r="N8" s="21">
         <v>0</v>
       </c>
-      <c r="P8" s="4">
+      <c r="O8" s="21">
         <v>0</v>
       </c>
     </row>
@@ -7889,43 +6514,40 @@
       <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="18">
+        <f t="shared" si="2"/>
+        <v>41.203444614108754</v>
+      </c>
+      <c r="E9" s="18">
         <v>40.602588413371201</v>
       </c>
-      <c r="E9" s="20">
+      <c r="F9" s="18">
         <v>40.72261428833</v>
       </c>
-      <c r="F9" s="18">
-        <f t="shared" si="3"/>
-        <v>41.203444614108754</v>
-      </c>
-      <c r="H9" s="18">
+      <c r="G9" s="18"/>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.76573336177019591</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.185115682007294</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.55845804418748379</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.95752014607918212</v>
+      </c>
+      <c r="M9" s="16">
         <v>40.72261428833</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.68142522476661538</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0.185115682007294</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0.55845804418748379</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0.95752014607918212</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="2"/>
-        <v>40.662601350850601</v>
-      </c>
-      <c r="O9" s="4">
+      <c r="N9" s="21">
         <v>0</v>
       </c>
-      <c r="P9" s="4">
+      <c r="O9" s="21">
         <v>0</v>
       </c>
     </row>
@@ -7940,43 +6562,40 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="18">
+        <f t="shared" si="2"/>
+        <v>43.6535289291255</v>
+      </c>
+      <c r="E10" s="18">
         <v>42.733436198566302</v>
       </c>
-      <c r="E10" s="20">
+      <c r="F10" s="18">
         <v>42.902133941650298</v>
       </c>
-      <c r="F10" s="18">
-        <f t="shared" si="3"/>
-        <v>43.6535289291255</v>
-      </c>
-      <c r="H10" s="18">
+      <c r="G10" s="18"/>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.8230277029542679E-2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.34226794633547597</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.94948885057316612</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.38778591719194333</v>
+      </c>
+      <c r="M10" s="16">
         <v>42.902133941650298</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.73838435469069452</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0.34226794633547597</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0.94948885057316612</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0.38778591719194333</v>
-      </c>
-      <c r="N10" s="4">
-        <f t="shared" si="2"/>
-        <v>42.8177850701083</v>
-      </c>
-      <c r="O10" s="4">
+      <c r="N10" s="21">
         <v>0</v>
       </c>
-      <c r="P10" s="4">
+      <c r="O10" s="21">
         <v>0</v>
       </c>
     </row>
@@ -7991,43 +6610,40 @@
       <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="18">
+        <f t="shared" si="2"/>
+        <v>46.249302838954314</v>
+      </c>
+      <c r="E11" s="18">
         <v>46.002099071534303</v>
       </c>
-      <c r="E11" s="20">
+      <c r="F11" s="18">
         <v>46.025157928466797</v>
       </c>
-      <c r="F11" s="18">
-        <f t="shared" si="3"/>
-        <v>46.249302838954314</v>
-      </c>
-      <c r="H11" s="18">
+      <c r="G11" s="18"/>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.33506747023246597</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.38759838177620687</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.49328684516645971</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.18171434178226098</v>
+      </c>
+      <c r="M11" s="16">
         <v>46.025157928466797</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.22610621385698826</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0.38759838177620687</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0.49328684516645971</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0.18171434178226098</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="2"/>
-        <v>46.01362850000055</v>
-      </c>
-      <c r="O11" s="4">
+      <c r="N11" s="21">
         <v>0</v>
       </c>
-      <c r="P11" s="4">
+      <c r="O11" s="21">
         <v>0</v>
       </c>
     </row>
@@ -8042,43 +6658,40 @@
       <c r="C12">
         <v>10</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="18">
+        <f t="shared" si="2"/>
+        <v>48.99942949771868</v>
+      </c>
+      <c r="E12" s="18">
         <v>46.385959894950297</v>
       </c>
-      <c r="E12" s="20">
+      <c r="F12" s="18">
         <v>46.516143798828097</v>
       </c>
-      <c r="F12" s="18">
-        <f t="shared" si="3"/>
-        <v>48.99942949771868</v>
-      </c>
-      <c r="H12" s="18">
+      <c r="G12" s="18"/>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.31599386517365213</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.66316156876309551</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.30985379615154351</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.27797869363388927</v>
+      </c>
+      <c r="M12" s="16">
         <v>46.516143798828097</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.56520836855616918</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0.66316156876309551</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0.30985379615154351</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0.27797869363388927</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" si="2"/>
-        <v>46.4510518468892</v>
-      </c>
-      <c r="O12" s="4">
+      <c r="N12" s="21">
         <v>0</v>
       </c>
-      <c r="P12" s="4">
+      <c r="O12" s="21">
         <v>0</v>
       </c>
     </row>
@@ -8093,43 +6706,40 @@
       <c r="C13">
         <v>11</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="18">
+        <f t="shared" si="2"/>
+        <v>51.913087197493162</v>
+      </c>
+      <c r="E13" s="18">
         <v>51.683609269622004</v>
       </c>
-      <c r="E13" s="20">
+      <c r="F13" s="18">
         <v>51.6283149719238</v>
       </c>
-      <c r="F13" s="18">
-        <f t="shared" si="3"/>
-        <v>51.913087197493162</v>
-      </c>
-      <c r="H13" s="18">
+      <c r="G13" s="18"/>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47812760991445236</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.45822169274200597</v>
+      </c>
+      <c r="K13" s="4">
+        <v>4.0934639698014252E-2</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.84426398789431145</v>
+      </c>
+      <c r="M13" s="16">
         <v>51.6283149719238</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.46103881104323285</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0.45822169274200597</v>
-      </c>
-      <c r="L13" s="4">
-        <v>4.0934639698014252E-2</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0.84426398789431145</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="2"/>
-        <v>51.655962120772898</v>
-      </c>
-      <c r="O13" s="4">
+      <c r="N13" s="21">
         <v>0</v>
       </c>
-      <c r="P13" s="4">
+      <c r="O13" s="21">
         <v>0</v>
       </c>
     </row>
@@ -8144,43 +6754,40 @@
       <c r="C14">
         <v>12</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="18">
+        <f t="shared" si="2"/>
+        <v>55.000000000000021</v>
+      </c>
+      <c r="E14" s="18">
         <v>54.563179799499601</v>
       </c>
-      <c r="E14" s="20">
+      <c r="F14" s="18">
         <v>54.683086395263601</v>
       </c>
-      <c r="F14" s="18">
-        <f t="shared" si="3"/>
-        <v>55.000000000000021</v>
-      </c>
-      <c r="H14" s="18">
+      <c r="G14" s="18"/>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.86939958906773585</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.74645793978350128</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.61505523732587353</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.74308561908697668</v>
+      </c>
+      <c r="M14" s="16">
         <v>54.683086395263601</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.53025999190857609</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.74645793978350128</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0.61505523732587353</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0.74308561908697668</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="2"/>
-        <v>54.623133097381597</v>
-      </c>
-      <c r="O14" s="4">
+      <c r="N14" s="21">
         <v>0</v>
       </c>
-      <c r="P14" s="4">
+      <c r="O14" s="21">
         <v>0</v>
       </c>
     </row>
@@ -8195,41 +6802,38 @@
       <c r="C15">
         <v>13</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="18">
+        <f t="shared" si="2"/>
+        <v>58.270470189761262</v>
+      </c>
+      <c r="E15" s="18">
         <v>56.606248652163401</v>
       </c>
-      <c r="E15" s="20">
+      <c r="F15" s="18">
         <v>56.612411499023402</v>
       </c>
-      <c r="F15" s="18">
-        <f t="shared" si="3"/>
-        <v>58.270470189761262</v>
-      </c>
-      <c r="H15" s="18">
+      <c r="G15" s="18"/>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.23794622175666658</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.84827896041315631</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.65319096929423315</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.92030125887305625</v>
+      </c>
+      <c r="M15" s="16">
         <v>56.612411499023402</v>
       </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.7063438247945556</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.84827896041315631</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0.65319096929423315</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0.92030125887305625</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" si="2"/>
-        <v>56.609330075593405</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4">
+      <c r="N15" s="16"/>
+      <c r="O15" s="21">
         <v>0</v>
       </c>
     </row>
@@ -8244,45 +6848,42 @@
       <c r="C16">
         <v>14</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="18">
+        <f t="shared" si="2"/>
+        <v>61.735412657015537</v>
+      </c>
+      <c r="E16" s="18">
         <v>60.461371309780297</v>
       </c>
-      <c r="E16" s="20">
+      <c r="F16" s="18">
         <v>60.653106689453097</v>
       </c>
-      <c r="F16" s="18">
-        <f t="shared" si="3"/>
-        <v>61.735412657015537</v>
-      </c>
-      <c r="H16" s="18">
+      <c r="G16" s="18"/>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.11790289717131741</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.55153199336734848</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.18054622797229725</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.98483524560105251</v>
+      </c>
+      <c r="M16" s="16">
         <v>60.653106689453097</v>
       </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.68277777882186086</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0.55153199336734848</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0.18054622797229725</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0.98483524560105251</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" si="2"/>
-        <v>60.5572389996167</v>
-      </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4">
+      <c r="N16" s="16"/>
+      <c r="O16" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -8293,45 +6894,42 @@
       <c r="C17">
         <v>15</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="18">
+        <f t="shared" si="2"/>
+        <v>65.406391325149684</v>
+      </c>
+      <c r="E17" s="18">
         <v>63.6229375863538</v>
       </c>
-      <c r="E17" s="20">
+      <c r="F17" s="18">
         <v>63.9025268554687</v>
       </c>
-      <c r="F17" s="18">
-        <f t="shared" si="3"/>
-        <v>65.406391325149684</v>
-      </c>
-      <c r="H17" s="18">
+      <c r="G17" s="18"/>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.20692218120109607</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.63483187984307188</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.40907012822346134</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.96398805136580723</v>
+      </c>
+      <c r="M17" s="16">
         <v>63.9025268554687</v>
       </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.28791142561580541</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0.63483187984307188</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0.40907012822346134</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0.96398805136580723</v>
-      </c>
-      <c r="N17" s="4">
-        <f t="shared" si="2"/>
-        <v>63.762732220911246</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4">
+      <c r="N17" s="16"/>
+      <c r="O17" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -8342,45 +6940,42 @@
       <c r="C18">
         <v>16</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="18">
+        <f t="shared" si="2"/>
+        <v>69.295657744218047</v>
+      </c>
+      <c r="E18" s="18">
         <v>67.488738204206001</v>
       </c>
-      <c r="E18" s="20">
+      <c r="F18" s="18">
         <v>67.691818237304602</v>
       </c>
-      <c r="F18" s="18">
-        <f t="shared" si="3"/>
-        <v>69.295657744218047</v>
-      </c>
-      <c r="H18" s="18">
+      <c r="G18" s="18"/>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.57538774484228639</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.14490236805953904</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.78171284347943815</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.52617751940293145</v>
+      </c>
+      <c r="M18" s="16">
         <v>67.691818237304602</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.93943583174586431</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0.14490236805953904</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0.78171284347943815</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0.52617751940293145</v>
-      </c>
-      <c r="N18" s="4">
-        <f t="shared" si="2"/>
-        <v>67.590278220755295</v>
-      </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4">
+      <c r="N18" s="16"/>
+      <c r="O18" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -8391,45 +6986,42 @@
       <c r="C19">
         <v>17</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="18">
+        <f t="shared" si="2"/>
+        <v>73.416191979351922</v>
+      </c>
+      <c r="E19" s="18">
         <v>71.215557788568006</v>
       </c>
-      <c r="E19" s="20">
+      <c r="F19" s="18">
         <v>71.329765319824205</v>
       </c>
-      <c r="F19" s="18">
-        <f t="shared" si="3"/>
-        <v>73.416191979351922</v>
-      </c>
-      <c r="H19" s="18">
+      <c r="G19" s="18"/>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.48618460810089725</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.356972934768229</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.71989352940748175</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.67699057029620791</v>
+      </c>
+      <c r="M19" s="16">
         <v>71.329765319824205</v>
       </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14303194467448477</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0.356972934768229</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0.71989352940748175</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0.67699057029620791</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" si="2"/>
-        <v>71.272661554196105</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4">
+      <c r="N19" s="16"/>
+      <c r="O19" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -8440,45 +7032,42 @@
       <c r="C20">
         <v>18</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="18">
+        <f t="shared" si="2"/>
+        <v>77.781745930520259</v>
+      </c>
+      <c r="E20" s="18">
         <v>75.491572389787805</v>
       </c>
-      <c r="E20" s="20">
+      <c r="F20" s="18">
         <v>75.606437683105398</v>
       </c>
-      <c r="F20" s="18">
-        <f t="shared" si="3"/>
-        <v>77.781745930520259</v>
-      </c>
-      <c r="H20" s="18">
+      <c r="G20" s="18"/>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65279329383722962</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.78478193902239712</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.71722964512848408</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.39521071305427224</v>
+      </c>
+      <c r="M20" s="16">
         <v>75.606437683105398</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.15378110663341538</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.78478193902239712</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0.71722964512848408</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0.39521071305427224</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="2"/>
-        <v>75.549005036446601</v>
-      </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4">
+      <c r="N20" s="16"/>
+      <c r="O20" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -8489,45 +7078,42 @@
       <c r="C21">
         <v>19</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="18">
+        <f t="shared" si="2"/>
+        <v>82.406889228217523</v>
+      </c>
+      <c r="E21" s="18">
         <v>80.340578898642804</v>
       </c>
-      <c r="E21" s="20">
+      <c r="F21" s="18">
         <v>80.525413513183594</v>
       </c>
-      <c r="F21" s="18">
-        <f t="shared" si="3"/>
-        <v>82.406889228217523</v>
-      </c>
-      <c r="H21" s="18">
+      <c r="G21" s="18"/>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.55147565500561146</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.11332271031710606</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.19612889882211459</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.96714802485671714</v>
+      </c>
+      <c r="M21" s="16">
         <v>80.525413513183594</v>
       </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5318584315307302</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0.11332271031710606</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0.19612889882211459</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0.96714802485671714</v>
-      </c>
-      <c r="N21" s="4">
-        <f t="shared" si="2"/>
-        <v>80.432996205913199</v>
-      </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4">
+      <c r="N21" s="16"/>
+      <c r="O21" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -8538,45 +7124,42 @@
       <c r="C22">
         <v>20</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="18">
+        <f t="shared" si="2"/>
+        <v>87.307057858251014</v>
+      </c>
+      <c r="E22" s="18">
         <v>84.786770670159299</v>
       </c>
-      <c r="E22" s="20">
+      <c r="F22" s="18">
         <v>84.822731018066406</v>
       </c>
-      <c r="F22" s="18">
-        <f t="shared" si="3"/>
-        <v>87.307057858251014</v>
-      </c>
-      <c r="H22" s="18">
+      <c r="G22" s="18"/>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.56503168895588296</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.31221491944713942</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.27449369339633367</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.93699941883948012</v>
+      </c>
+      <c r="M22" s="16">
         <v>84.822731018066406</v>
       </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-      <c r="J22" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.36785685098661647</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0.31221491944713942</v>
-      </c>
-      <c r="L22" s="4">
-        <v>0.27449369339633367</v>
-      </c>
-      <c r="M22" s="4">
-        <v>0.93699941883948012</v>
-      </c>
-      <c r="N22" s="4">
-        <f t="shared" si="2"/>
-        <v>84.804750844112846</v>
-      </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4">
+      <c r="N22" s="16"/>
+      <c r="O22" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -8587,45 +7170,42 @@
       <c r="C23">
         <v>21</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="18">
+        <f t="shared" si="2"/>
+        <v>92.498605677908643</v>
+      </c>
+      <c r="E23" s="18">
         <v>90.159371739066501</v>
       </c>
-      <c r="E23" s="20">
+      <c r="F23" s="18">
         <v>90.379859924316406</v>
       </c>
-      <c r="F23" s="18">
-        <f t="shared" si="3"/>
-        <v>92.498605677908643</v>
-      </c>
-      <c r="H23" s="18">
+      <c r="G23" s="18"/>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.32505638312502294</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.42294804619024018</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.98300718840165668</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.1196353416552296</v>
+      </c>
+      <c r="M23" s="16">
         <v>90.379859924316406</v>
       </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.17246478236335061</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0.42294804619024018</v>
-      </c>
-      <c r="L23" s="4">
-        <v>0.98300718840165668</v>
-      </c>
-      <c r="M23" s="4">
-        <v>0.1196353416552296</v>
-      </c>
-      <c r="N23" s="4">
-        <f t="shared" si="2"/>
-        <v>90.269615831691453</v>
-      </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4">
+      <c r="N23" s="16"/>
+      <c r="O23" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -8636,45 +7216,42 @@
       <c r="C24">
         <v>22</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="18">
+        <f t="shared" si="2"/>
+        <v>97.998858995437374</v>
+      </c>
+      <c r="E24" s="18">
         <v>95.548023317083903</v>
       </c>
-      <c r="E24" s="20">
+      <c r="F24" s="18">
         <v>95.760177612304602</v>
       </c>
-      <c r="F24" s="18">
-        <f t="shared" si="3"/>
-        <v>97.998858995437374</v>
-      </c>
-      <c r="H24" s="18">
+      <c r="G24" s="18"/>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.63863870652399857</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.22032984385181897</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.38004584152372811</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0.5974949006931769</v>
+      </c>
+      <c r="M24" s="16">
         <v>95.760177612304602</v>
       </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
-      <c r="J24" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.81267028124367491</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0.22032984385181897</v>
-      </c>
-      <c r="L24" s="4">
-        <v>0.38004584152372811</v>
-      </c>
-      <c r="M24" s="4">
-        <v>0.5974949006931769</v>
-      </c>
-      <c r="N24" s="4">
-        <f t="shared" si="2"/>
-        <v>95.654100464694253</v>
-      </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4">
+      <c r="N24" s="16"/>
+      <c r="O24" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -8685,95 +7262,88 @@
       <c r="C25">
         <v>23</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="18">
+        <f t="shared" si="2"/>
+        <v>103.82617439498634</v>
+      </c>
+      <c r="E25" s="18">
         <v>101.323159169224</v>
       </c>
-      <c r="E25" s="20">
+      <c r="F25" s="18">
         <v>101.463134765625</v>
       </c>
-      <c r="F25" s="18">
-        <f t="shared" si="3"/>
-        <v>103.82617439498634</v>
-      </c>
-      <c r="H25" s="18">
+      <c r="G25" s="18"/>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.42463149864837935</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.55298365228987389</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.9389436280988408</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0.21752296874472021</v>
+      </c>
+      <c r="M25" s="16">
         <v>101.463134765625</v>
       </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.35510911143677082</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0.55298365228987389</v>
-      </c>
-      <c r="L25" s="4">
-        <v>0.9389436280988408</v>
-      </c>
-      <c r="M25" s="4">
-        <v>0.21752296874472021</v>
-      </c>
-      <c r="N25" s="4">
-        <f t="shared" si="2"/>
-        <v>101.3931469674245</v>
-      </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4">
+      <c r="N25" s="16"/>
+      <c r="O25" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+    <row r="26" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="14">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="14">
         <v>24</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="19">
+        <f t="shared" si="2"/>
+        <v>110.00000000000006</v>
+      </c>
+      <c r="E26" s="19">
         <v>107.349543359595</v>
       </c>
-      <c r="E26" s="26">
+      <c r="F26" s="19">
         <v>107.48963928222599</v>
       </c>
-      <c r="F26" s="27">
-        <f t="shared" si="3"/>
-        <v>110.00000000000006</v>
-      </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="27">
+      <c r="G26" s="19"/>
+      <c r="H26" s="14">
+        <v>2</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.16998841314011781</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0.57209760993574277</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0.62174546536348818</v>
+      </c>
+      <c r="L26" s="15">
+        <v>7.7675255775897067E-2</v>
+      </c>
+      <c r="M26" s="17">
         <v>107.48963928222599</v>
       </c>
-      <c r="I26" s="24">
-        <v>2</v>
-      </c>
-      <c r="J26" s="29">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.73064805097788565</v>
-      </c>
-      <c r="K26" s="29">
-        <v>0.57209760993574277</v>
-      </c>
-      <c r="L26" s="29">
-        <v>0.62174546536348818</v>
-      </c>
-      <c r="M26" s="29">
-        <v>7.7675255775897067E-2</v>
-      </c>
-      <c r="N26" s="29">
-        <f t="shared" si="2"/>
-        <v>107.4195913209105</v>
-      </c>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29">
+      <c r="N26" s="17"/>
+      <c r="O26" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -8784,45 +7354,42 @@
       <c r="C27">
         <v>25</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="18">
+        <f t="shared" si="2"/>
+        <v>116.54094037952254</v>
+      </c>
+      <c r="E27" s="18">
         <v>113.66519675779401</v>
       </c>
-      <c r="E27" s="20">
+      <c r="F27" s="18">
         <v>113.87899017333901</v>
       </c>
-      <c r="F27" s="18">
-        <f t="shared" si="3"/>
-        <v>116.54094037952254</v>
-      </c>
-      <c r="H27" s="18">
+      <c r="G27" s="18"/>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88290163235597219</v>
+      </c>
+      <c r="J27" s="4">
+        <v>9.380053797811061E-2</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.87071326348339484</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0.30329332743682336</v>
+      </c>
+      <c r="M27" s="16">
         <v>113.87899017333901</v>
       </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.47753475266131196</v>
-      </c>
-      <c r="K27" s="4">
-        <v>9.380053797811061E-2</v>
-      </c>
-      <c r="L27" s="4">
-        <v>0.87071326348339484</v>
-      </c>
-      <c r="M27" s="4">
-        <v>0.30329332743682336</v>
-      </c>
-      <c r="N27" s="4">
-        <f t="shared" si="2"/>
-        <v>113.77209346556651</v>
-      </c>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4">
+      <c r="N27" s="16"/>
+      <c r="O27" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -8833,45 +7400,42 @@
       <c r="C28">
         <v>26</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="18">
+        <f t="shared" si="2"/>
+        <v>123.4708253140311</v>
+      </c>
+      <c r="E28" s="18">
         <v>120.527151675685</v>
       </c>
-      <c r="E28" s="20">
+      <c r="F28" s="18">
         <v>120.647888183593</v>
       </c>
-      <c r="F28" s="18">
-        <f t="shared" si="3"/>
-        <v>123.4708253140311</v>
-      </c>
-      <c r="H28" s="18">
+      <c r="G28" s="18"/>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.44344626913008789</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.48397609718548762</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.4614708727395116</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.26657276614776404</v>
+      </c>
+      <c r="M28" s="16">
         <v>120.647888183593</v>
       </c>
-      <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.98660940023715282</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0.48397609718548762</v>
-      </c>
-      <c r="L28" s="4">
-        <v>0.4614708727395116</v>
-      </c>
-      <c r="M28" s="4">
-        <v>0.26657276614776404</v>
-      </c>
-      <c r="N28" s="4">
-        <f t="shared" si="2"/>
-        <v>120.587519929639</v>
-      </c>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4">
+      <c r="N28" s="16"/>
+      <c r="O28" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -8882,45 +7446,42 @@
       <c r="C29">
         <v>27</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="18">
+        <f t="shared" si="2"/>
+        <v>130.8127826502994</v>
+      </c>
+      <c r="E29" s="18">
         <v>126.90698009926101</v>
       </c>
-      <c r="E29" s="20">
+      <c r="F29" s="18">
         <v>127.106117248535</v>
       </c>
-      <c r="F29" s="18">
-        <f t="shared" si="3"/>
-        <v>130.8127826502994</v>
-      </c>
-      <c r="H29" s="18">
+      <c r="G29" s="18"/>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37731209821971745</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.45660717271868545</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.78276332961838468</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0.14701113579377401</v>
+      </c>
+      <c r="M29" s="16">
         <v>127.106117248535</v>
       </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.84566892813523242</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0.45660717271868545</v>
-      </c>
-      <c r="L29" s="4">
-        <v>0.78276332961838468</v>
-      </c>
-      <c r="M29" s="4">
-        <v>0.14701113579377401</v>
-      </c>
-      <c r="N29" s="4">
-        <f t="shared" si="2"/>
-        <v>127.00654867389801</v>
-      </c>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4">
+      <c r="N29" s="16"/>
+      <c r="O29" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -8931,45 +7492,42 @@
       <c r="C30">
         <v>28</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="18">
+        <f t="shared" si="2"/>
+        <v>138.59131548843615</v>
+      </c>
+      <c r="E30" s="18">
         <v>135.56228672339299</v>
       </c>
-      <c r="E30" s="20">
+      <c r="F30" s="18">
         <v>136.19244384765599</v>
       </c>
-      <c r="F30" s="18">
-        <f t="shared" si="3"/>
-        <v>138.59131548843615</v>
-      </c>
-      <c r="H30" s="18">
+      <c r="G30" s="18"/>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.68796358055204709</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.15079539744814707</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.74415196980821985</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0.56832127965096613</v>
+      </c>
+      <c r="M30" s="16">
         <v>136.19244384765599</v>
       </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-      <c r="J30" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.28979193788601032</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0.15079539744814707</v>
-      </c>
-      <c r="L30" s="4">
-        <v>0.74415196980821985</v>
-      </c>
-      <c r="M30" s="4">
-        <v>0.56832127965096613</v>
-      </c>
-      <c r="N30" s="4">
-        <f t="shared" si="2"/>
-        <v>135.87736528552449</v>
-      </c>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4">
+      <c r="N30" s="16"/>
+      <c r="O30" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -8980,45 +7538,42 @@
       <c r="C31">
         <v>29</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="18">
+        <f t="shared" si="2"/>
+        <v>146.8323839587039</v>
+      </c>
+      <c r="E31" s="18">
         <v>143.24543883900799</v>
       </c>
-      <c r="E31" s="20">
+      <c r="F31" s="18">
         <v>143.49411773681601</v>
       </c>
-      <c r="F31" s="18">
-        <f t="shared" si="3"/>
-        <v>146.8323839587039</v>
-      </c>
-      <c r="H31" s="18">
+      <c r="G31" s="18"/>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6953964357432354</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.79822134755866092</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0.14893139235208086</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0.66949852784264774</v>
+      </c>
+      <c r="M31" s="16">
         <v>143.49411773681601</v>
       </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.78919710676791366</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0.79822134755866092</v>
-      </c>
-      <c r="L31" s="4">
-        <v>0.14893139235208086</v>
-      </c>
-      <c r="M31" s="4">
-        <v>0.66949852784264774</v>
-      </c>
-      <c r="N31" s="4">
-        <f t="shared" si="2"/>
-        <v>143.369778287912</v>
-      </c>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4">
+      <c r="N31" s="16"/>
+      <c r="O31" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -9029,43 +7584,40 @@
       <c r="C32">
         <v>30</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="18">
+        <f t="shared" si="2"/>
+        <v>155.5634918610406</v>
+      </c>
+      <c r="E32" s="18">
         <v>148.90559267010099</v>
       </c>
-      <c r="E32" s="20">
+      <c r="F32" s="18">
         <v>149.35060119628901</v>
       </c>
-      <c r="F32" s="18">
-        <f t="shared" si="3"/>
-        <v>155.5634918610406</v>
-      </c>
-      <c r="H32" s="18">
+      <c r="G32" s="18"/>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4516119330420757</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0.27855230801069675</v>
+      </c>
+      <c r="K32" s="4">
+        <v>4.2255751506824479E-3</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0.39349713166630329</v>
+      </c>
+      <c r="M32" s="16">
         <v>149.35060119628901</v>
       </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
-      <c r="J32" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.6317632201830179E-2</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0.27855230801069675</v>
-      </c>
-      <c r="L32" s="4">
-        <v>4.2255751506824479E-3</v>
-      </c>
-      <c r="M32" s="4">
-        <v>0.39349713166630329</v>
-      </c>
-      <c r="N32" s="4">
-        <f t="shared" si="2"/>
-        <v>149.128096933195</v>
-      </c>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -9076,43 +7628,40 @@
       <c r="C33">
         <v>31</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="18">
+        <f t="shared" si="2"/>
+        <v>164.81377845643513</v>
+      </c>
+      <c r="E33" s="18">
         <v>159.043052892931</v>
       </c>
-      <c r="E33" s="20">
+      <c r="F33" s="18">
         <v>159.629768371582</v>
       </c>
-      <c r="F33" s="18">
-        <f t="shared" si="3"/>
-        <v>164.81377845643513</v>
-      </c>
-      <c r="H33" s="18">
+      <c r="G33" s="18"/>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.14104707320766896</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0.57856616352363965</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0.94386652803331372</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0.52792885315524818</v>
+      </c>
+      <c r="M33" s="16">
         <v>159.629768371582</v>
       </c>
-      <c r="I33">
-        <v>3</v>
-      </c>
-      <c r="J33" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2388800271978242</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0.57856616352363965</v>
-      </c>
-      <c r="L33" s="4">
-        <v>0.94386652803331372</v>
-      </c>
-      <c r="M33" s="4">
-        <v>0.52792885315524818</v>
-      </c>
-      <c r="N33" s="4">
-        <f t="shared" si="2"/>
-        <v>159.3364106322565</v>
-      </c>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -9123,43 +7672,40 @@
       <c r="C34">
         <v>32</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="18">
+        <f t="shared" si="2"/>
+        <v>174.61411571650211</v>
+      </c>
+      <c r="E34" s="18">
         <v>168.78898568616299</v>
       </c>
-      <c r="E34" s="20">
+      <c r="F34" s="18">
         <v>169.64434814453099</v>
       </c>
-      <c r="F34" s="18">
-        <f t="shared" si="3"/>
-        <v>174.61411571650211</v>
-      </c>
-      <c r="H34" s="18">
+      <c r="G34" s="18"/>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.20199837682476174</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0.18885380642756577</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0.79178687595923181</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0.63095303254389223</v>
+      </c>
+      <c r="M34" s="16">
         <v>169.64434814453099</v>
       </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
-      <c r="J34" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.4040024571141294E-2</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0.18885380642756577</v>
-      </c>
-      <c r="L34" s="4">
-        <v>0.79178687595923181</v>
-      </c>
-      <c r="M34" s="4">
-        <v>0.63095303254389223</v>
-      </c>
-      <c r="N34" s="4">
-        <f t="shared" si="2"/>
-        <v>169.21666691534699</v>
-      </c>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -9170,43 +7716,40 @@
       <c r="C35">
         <v>33</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="18">
+        <f t="shared" si="2"/>
+        <v>184.9972113558174</v>
+      </c>
+      <c r="E35" s="18">
         <v>177.27514101741301</v>
       </c>
-      <c r="E35" s="20">
+      <c r="F35" s="18">
         <v>177.67329406738199</v>
       </c>
-      <c r="F35" s="18">
-        <f t="shared" si="3"/>
-        <v>184.9972113558174</v>
-      </c>
-      <c r="H35" s="18">
+      <c r="G35" s="18"/>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.77373260613681172</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0.72172968661672821</v>
+      </c>
+      <c r="K35" s="4">
+        <v>8.8864605883917092E-2</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0.84603784843514052</v>
+      </c>
+      <c r="M35" s="16">
         <v>177.67329406738199</v>
       </c>
-      <c r="I35">
-        <v>3</v>
-      </c>
-      <c r="J35" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.51576679406274828</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0.72172968661672821</v>
-      </c>
-      <c r="L35" s="4">
-        <v>8.8864605883917092E-2</v>
-      </c>
-      <c r="M35" s="4">
-        <v>0.84603784843514052</v>
-      </c>
-      <c r="N35" s="4">
-        <f t="shared" si="2"/>
-        <v>177.4742175423975</v>
-      </c>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -9217,43 +7760,40 @@
       <c r="C36">
         <v>34</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="18">
+        <f t="shared" si="2"/>
+        <v>195.99771799087486</v>
+      </c>
+      <c r="E36" s="18">
         <v>189.48293055454101</v>
       </c>
-      <c r="E36" s="20">
+      <c r="F36" s="18">
         <v>190.40190124511699</v>
       </c>
-      <c r="F36" s="18">
-        <f t="shared" si="3"/>
-        <v>195.99771799087486</v>
-      </c>
-      <c r="H36" s="18">
+      <c r="G36" s="18"/>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84704869394822591</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0.11434494047821941</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0.42242237765327562</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0.57310162781097884</v>
+      </c>
+      <c r="M36" s="16">
         <v>190.40190124511699</v>
       </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
-      <c r="J36" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.27081272033110515</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0.11434494047821941</v>
-      </c>
-      <c r="L36" s="4">
-        <v>0.42242237765327562</v>
-      </c>
-      <c r="M36" s="4">
-        <v>0.57310162781097884</v>
-      </c>
-      <c r="N36" s="4">
-        <f t="shared" si="2"/>
-        <v>189.942415899829</v>
-      </c>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -9264,91 +7804,84 @@
       <c r="C37">
         <v>35</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="18">
+        <f t="shared" si="2"/>
+        <v>207.65234878997279</v>
+      </c>
+      <c r="E37" s="18">
         <v>199.72276422568501</v>
       </c>
-      <c r="E37" s="20">
+      <c r="F37" s="18">
         <v>200.577224731445</v>
       </c>
-      <c r="F37" s="18">
-        <f t="shared" si="3"/>
-        <v>207.65234878997279</v>
-      </c>
-      <c r="H37" s="18">
+      <c r="G37" s="18"/>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.6842395530389638E-2</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0.41117990887062206</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0.87119355519959329</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0.9232487624660114</v>
+      </c>
+      <c r="M37" s="16">
         <v>200.577224731445</v>
       </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
-      <c r="J37" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5194220307550057</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0.41117990887062206</v>
-      </c>
-      <c r="L37" s="4">
-        <v>0.87119355519959329</v>
-      </c>
-      <c r="M37" s="4">
-        <v>0.9232487624660114</v>
-      </c>
-      <c r="N37" s="4">
-        <f t="shared" si="2"/>
-        <v>200.14999447856502</v>
-      </c>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-    </row>
-    <row r="38" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+    </row>
+    <row r="38" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="14">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="14">
         <v>36</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="19">
+        <f t="shared" si="2"/>
+        <v>220.00000000000026</v>
+      </c>
+      <c r="E38" s="19">
         <v>212.61350654614299</v>
       </c>
-      <c r="E38" s="26">
+      <c r="F38" s="19">
         <v>213.73532104492099</v>
       </c>
-      <c r="F38" s="27">
-        <f t="shared" si="3"/>
-        <v>220.00000000000026</v>
-      </c>
-      <c r="G38" s="28"/>
-      <c r="H38" s="27">
+      <c r="G38" s="19"/>
+      <c r="H38" s="14">
+        <v>3</v>
+      </c>
+      <c r="I38" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47599925770532858</v>
+      </c>
+      <c r="J38" s="15">
+        <v>0.11554223892688753</v>
+      </c>
+      <c r="K38" s="15">
+        <v>0.16933568304002777</v>
+      </c>
+      <c r="L38" s="15">
+        <v>0.47645312642165361</v>
+      </c>
+      <c r="M38" s="17">
         <v>213.73532104492099</v>
       </c>
-      <c r="I38" s="24">
-        <v>3</v>
-      </c>
-      <c r="J38" s="29">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.30878992072268829</v>
-      </c>
-      <c r="K38" s="29">
-        <v>0.11554223892688753</v>
-      </c>
-      <c r="L38" s="29">
-        <v>0.16933568304002777</v>
-      </c>
-      <c r="M38" s="29">
-        <v>0.47645312642165361</v>
-      </c>
-      <c r="N38" s="29">
-        <f t="shared" si="2"/>
-        <v>213.17441379553199</v>
-      </c>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -9359,43 +7892,40 @@
       <c r="C39">
         <v>37</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="18">
+        <f t="shared" si="2"/>
+        <v>233.08188075904525</v>
+      </c>
+      <c r="E39" s="18">
         <v>225.40710091529101</v>
       </c>
-      <c r="E39" s="20">
+      <c r="F39" s="18">
         <v>226.46087646484301</v>
       </c>
-      <c r="F39" s="18">
-        <f t="shared" si="3"/>
-        <v>233.08188075904525</v>
-      </c>
-      <c r="H39" s="18">
+      <c r="G39" s="18"/>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2482702103076847</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0.31841188548655486</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0.68908204580204879</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0.1848571615332617</v>
+      </c>
+      <c r="M39" s="16">
         <v>226.46087646484301</v>
       </c>
-      <c r="I39">
-        <v>3</v>
-      </c>
-      <c r="J39" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11931441219911776</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0.31841188548655486</v>
-      </c>
-      <c r="L39" s="4">
-        <v>0.68908204580204879</v>
-      </c>
-      <c r="M39" s="4">
-        <v>0.1848571615332617</v>
-      </c>
-      <c r="N39" s="4">
-        <f t="shared" si="2"/>
-        <v>225.933988690067</v>
-      </c>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -9406,43 +7936,40 @@
       <c r="C40">
         <v>38</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="18">
+        <f t="shared" si="2"/>
+        <v>246.94165062806238</v>
+      </c>
+      <c r="E40" s="18">
         <v>239.40657477779999</v>
       </c>
-      <c r="E40" s="20">
+      <c r="F40" s="18">
         <v>239.99073028564399</v>
       </c>
-      <c r="F40" s="18">
-        <f t="shared" si="3"/>
-        <v>246.94165062806238</v>
-      </c>
-      <c r="H40" s="18">
+      <c r="G40" s="18"/>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.41067825397084612</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0.95481168333473865</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0.234332051689771</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0.17625060674408999</v>
+      </c>
+      <c r="M40" s="16">
         <v>239.99073028564399</v>
       </c>
-      <c r="I40">
-        <v>3</v>
-      </c>
-      <c r="J40" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.58847863905155917</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0.95481168333473865</v>
-      </c>
-      <c r="L40" s="4">
-        <v>0.234332051689771</v>
-      </c>
-      <c r="M40" s="4">
-        <v>0.17625060674408999</v>
-      </c>
-      <c r="N40" s="4">
-        <f t="shared" si="2"/>
-        <v>239.69865253172199</v>
-      </c>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -9453,43 +7980,40 @@
       <c r="C41">
         <v>39</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="18">
+        <f t="shared" si="2"/>
+        <v>261.62556530059896</v>
+      </c>
+      <c r="E41" s="18">
         <v>250.66298310563701</v>
       </c>
-      <c r="E41" s="20">
+      <c r="F41" s="18">
         <v>251.44344329833899</v>
       </c>
-      <c r="F41" s="18">
-        <f t="shared" si="3"/>
-        <v>261.62556530059896</v>
-      </c>
-      <c r="H41" s="18">
+      <c r="G41" s="18"/>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.52480036112098349</v>
+      </c>
+      <c r="J41" s="4">
+        <v>8.031856679977567E-2</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0.49531664204983517</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0.10614219082381715</v>
+      </c>
+      <c r="M41" s="16">
         <v>251.44344329833899</v>
       </c>
-      <c r="I41">
-        <v>3</v>
-      </c>
-      <c r="J41" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.91866072587818304</v>
-      </c>
-      <c r="K41" s="4">
-        <v>8.031856679977567E-2</v>
-      </c>
-      <c r="L41" s="4">
-        <v>0.49531664204983517</v>
-      </c>
-      <c r="M41" s="4">
-        <v>0.10614219082381715</v>
-      </c>
-      <c r="N41" s="4">
-        <f t="shared" si="2"/>
-        <v>251.053213201988</v>
-      </c>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -9500,43 +8024,40 @@
       <c r="C42">
         <v>40</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="18">
+        <f t="shared" si="2"/>
+        <v>277.18263097687247</v>
+      </c>
+      <c r="E42" s="18">
         <v>268.85493744800698</v>
       </c>
-      <c r="E42" s="20">
+      <c r="F42" s="18">
         <v>270.76040649414</v>
       </c>
-      <c r="F42" s="18">
-        <f t="shared" si="3"/>
-        <v>277.18263097687247</v>
-      </c>
-      <c r="H42" s="18">
+      <c r="G42" s="18"/>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.66108962919249081</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0.28789730192789598</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0.79586964770589519</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0.68057565437178869</v>
+      </c>
+      <c r="M42" s="16">
         <v>270.76040649414</v>
       </c>
-      <c r="I42">
-        <v>3</v>
-      </c>
-      <c r="J42" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.27808423263264836</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0.28789730192789598</v>
-      </c>
-      <c r="L42" s="4">
-        <v>0.79586964770589519</v>
-      </c>
-      <c r="M42" s="4">
-        <v>0.68057565437178869</v>
-      </c>
-      <c r="N42" s="4">
-        <f t="shared" si="2"/>
-        <v>269.80767197107349</v>
-      </c>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -9547,43 +8068,40 @@
       <c r="C43">
         <v>41</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="18">
+        <f t="shared" si="2"/>
+        <v>293.66476791740797</v>
+      </c>
+      <c r="E43" s="18">
         <v>281.044108328155</v>
       </c>
-      <c r="E43" s="20">
+      <c r="F43" s="18">
         <v>282.017822265625</v>
       </c>
-      <c r="F43" s="18">
-        <f t="shared" si="3"/>
-        <v>293.66476791740797</v>
-      </c>
-      <c r="H43" s="18">
+      <c r="G43" s="18"/>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84157547103541253</v>
+      </c>
+      <c r="J43" s="4">
+        <v>3.4202223337405857E-2</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0.19024571959383341</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0.8455713416359858</v>
+      </c>
+      <c r="M43" s="16">
         <v>282.017822265625</v>
       </c>
-      <c r="I43">
-        <v>3</v>
-      </c>
-      <c r="J43" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.98635760983710508</v>
-      </c>
-      <c r="K43" s="4">
-        <v>3.4202223337405857E-2</v>
-      </c>
-      <c r="L43" s="4">
-        <v>0.19024571959383341</v>
-      </c>
-      <c r="M43" s="4">
-        <v>0.8455713416359858</v>
-      </c>
-      <c r="N43" s="4">
-        <f t="shared" si="2"/>
-        <v>281.53096529689003</v>
-      </c>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -9594,43 +8112,40 @@
       <c r="C44">
         <v>42</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="18">
+        <f t="shared" si="2"/>
+        <v>311.12698372208138</v>
+      </c>
+      <c r="E44" s="18">
         <v>298.88161644086802</v>
       </c>
-      <c r="E44" s="20">
+      <c r="F44" s="18">
         <v>300.59477233886702</v>
       </c>
-      <c r="F44" s="18">
-        <f t="shared" si="3"/>
-        <v>311.12698372208138</v>
-      </c>
-      <c r="H44" s="18">
+      <c r="G44" s="18"/>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.96284953902504589</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0.75137997257622746</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0.91387400268434571</v>
+      </c>
+      <c r="L44" s="4">
+        <v>7.6285677247242889E-2</v>
+      </c>
+      <c r="M44" s="16">
         <v>300.59477233886702</v>
       </c>
-      <c r="I44">
-        <v>3</v>
-      </c>
-      <c r="J44" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.89193866665218369</v>
-      </c>
-      <c r="K44" s="4">
-        <v>0.75137997257622746</v>
-      </c>
-      <c r="L44" s="4">
-        <v>0.91387400268434571</v>
-      </c>
-      <c r="M44" s="4">
-        <v>7.6285677247242889E-2</v>
-      </c>
-      <c r="N44" s="4">
-        <f t="shared" si="2"/>
-        <v>299.73819438986754</v>
-      </c>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -9641,43 +8156,40 @@
       <c r="C45">
         <v>43</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="18">
+        <f t="shared" si="2"/>
+        <v>329.62755691287043</v>
+      </c>
+      <c r="E45" s="18">
         <v>311.43870308391399</v>
       </c>
-      <c r="E45" s="20">
+      <c r="F45" s="18">
         <v>312.96795654296801</v>
       </c>
-      <c r="F45" s="18">
-        <f t="shared" si="3"/>
-        <v>329.62755691287043</v>
-      </c>
-      <c r="H45" s="18">
+      <c r="G45" s="18"/>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38327612590302573</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0.24929124293029947</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0.60036169830312436</v>
+      </c>
+      <c r="L45" s="4">
+        <v>4.3867188586101391E-2</v>
+      </c>
+      <c r="M45" s="16">
         <v>312.96795654296801</v>
       </c>
-      <c r="I45">
-        <v>3</v>
-      </c>
-      <c r="J45" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.52879194217352454</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0.24929124293029947</v>
-      </c>
-      <c r="L45" s="4">
-        <v>0.60036169830312436</v>
-      </c>
-      <c r="M45" s="4">
-        <v>4.3867188586101391E-2</v>
-      </c>
-      <c r="N45" s="4">
-        <f t="shared" si="2"/>
-        <v>312.20332981344097</v>
-      </c>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -9688,43 +8200,40 @@
       <c r="C46">
         <v>44</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="18">
+        <f t="shared" si="2"/>
+        <v>349.22823143300445</v>
+      </c>
+      <c r="E46" s="18">
         <v>338.09395069244999</v>
       </c>
-      <c r="E46" s="20">
+      <c r="F46" s="18">
         <v>341.12612915039</v>
       </c>
-      <c r="F46" s="18">
-        <f t="shared" si="3"/>
-        <v>349.22823143300445</v>
-      </c>
-      <c r="H46" s="18">
+      <c r="G46" s="18"/>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.80407145897143995</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0.29804160612107455</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0.48352900570667423</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0.76125632793777509</v>
+      </c>
+      <c r="M46" s="16">
         <v>341.12612915039</v>
       </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
-      <c r="J46" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.34910519709281984</v>
-      </c>
-      <c r="K46" s="4">
-        <v>0.29804160612107455</v>
-      </c>
-      <c r="L46" s="4">
-        <v>0.48352900570667423</v>
-      </c>
-      <c r="M46" s="4">
-        <v>0.76125632793777509</v>
-      </c>
-      <c r="N46" s="4">
-        <f t="shared" si="2"/>
-        <v>339.61003992142003</v>
-      </c>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -9735,43 +8244,40 @@
       <c r="C47">
         <v>45</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="18">
+        <f t="shared" si="2"/>
+        <v>369.99442271163502</v>
+      </c>
+      <c r="E47" s="18">
         <v>357.68585618336903</v>
       </c>
-      <c r="E47" s="20">
+      <c r="F47" s="18">
         <v>359.42364501953102</v>
       </c>
-      <c r="F47" s="18">
-        <f t="shared" si="3"/>
-        <v>369.99442271163502</v>
-      </c>
-      <c r="H47" s="18">
+      <c r="G47" s="18"/>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.71989630675452254</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0.20769494057005744</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0.80892999065925664</v>
+      </c>
+      <c r="L47" s="4">
+        <v>3.7670712395264982E-2</v>
+      </c>
+      <c r="M47" s="16">
         <v>359.42364501953102</v>
       </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
-      <c r="J47" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.18229502737962533</v>
-      </c>
-      <c r="K47" s="4">
-        <v>0.20769494057005744</v>
-      </c>
-      <c r="L47" s="4">
-        <v>0.80892999065925664</v>
-      </c>
-      <c r="M47" s="4">
-        <v>3.7670712395264982E-2</v>
-      </c>
-      <c r="N47" s="4">
-        <f t="shared" si="2"/>
-        <v>358.55475060145</v>
-      </c>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -9782,43 +8288,40 @@
       <c r="C48">
         <v>46</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="18">
+        <f t="shared" si="2"/>
+        <v>391.99543598174995</v>
+      </c>
+      <c r="E48" s="18">
         <v>379.94199290908199</v>
       </c>
-      <c r="E48" s="20">
+      <c r="F48" s="18">
         <v>380.88848876953102</v>
       </c>
-      <c r="F48" s="18">
-        <f t="shared" si="3"/>
-        <v>391.99543598174995</v>
-      </c>
-      <c r="H48" s="18">
+      <c r="G48" s="18"/>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.98420655090160214</v>
+      </c>
+      <c r="J48" s="4">
+        <v>0.54190990267350281</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0.81384886051174887</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0.63522657994024678</v>
+      </c>
+      <c r="M48" s="16">
         <v>380.88848876953102</v>
       </c>
-      <c r="I48">
-        <v>3</v>
-      </c>
-      <c r="J48" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.81884180693286412</v>
-      </c>
-      <c r="K48" s="4">
-        <v>0.54190990267350281</v>
-      </c>
-      <c r="L48" s="4">
-        <v>0.81384886051174887</v>
-      </c>
-      <c r="M48" s="4">
-        <v>0.63522657994024678</v>
-      </c>
-      <c r="N48" s="4">
-        <f t="shared" si="2"/>
-        <v>380.41524083930653</v>
-      </c>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -9829,91 +8332,84 @@
       <c r="C49">
         <v>47</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="18">
+        <f t="shared" si="2"/>
+        <v>415.30469757994587</v>
+      </c>
+      <c r="E49" s="18">
         <v>400.50488549297199</v>
       </c>
-      <c r="E49" s="20">
+      <c r="F49" s="18">
         <v>401.34313964843699</v>
       </c>
-      <c r="F49" s="18">
-        <f t="shared" si="3"/>
-        <v>415.30469757994587</v>
-      </c>
-      <c r="H49" s="18">
+      <c r="G49" s="18"/>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72158784009653054</v>
+      </c>
+      <c r="J49" s="4">
+        <v>0.87041312176130292</v>
+      </c>
+      <c r="K49" s="4">
+        <v>5.8991949985899406E-2</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0.35037973793511346</v>
+      </c>
+      <c r="M49" s="16">
         <v>401.34313964843699</v>
       </c>
-      <c r="I49">
-        <v>3</v>
-      </c>
-      <c r="J49" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.44722936726979823</v>
-      </c>
-      <c r="K49" s="4">
-        <v>0.87041312176130292</v>
-      </c>
-      <c r="L49" s="4">
-        <v>5.8991949985899406E-2</v>
-      </c>
-      <c r="M49" s="4">
-        <v>0.35037973793511346</v>
-      </c>
-      <c r="N49" s="4">
-        <f t="shared" si="2"/>
-        <v>400.92401257070446</v>
-      </c>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-    </row>
-    <row r="50" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="s">
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+    </row>
+    <row r="50" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="24">
+      <c r="B50" s="14">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="14">
         <v>48</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="19">
+        <f>D49*POWER(2,1/12)</f>
+        <v>440.0000000000008</v>
+      </c>
+      <c r="E50" s="19">
         <v>421.181716564635</v>
       </c>
-      <c r="E50" s="26">
+      <c r="F50" s="19">
         <v>422.569091796875</v>
       </c>
-      <c r="F50" s="27">
-        <f>F49*POWER(2,1/12)</f>
-        <v>440.0000000000008</v>
-      </c>
-      <c r="G50" s="28"/>
-      <c r="H50" s="27">
+      <c r="G50" s="19"/>
+      <c r="H50" s="14">
+        <v>3</v>
+      </c>
+      <c r="I50" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50555315314247984</v>
+      </c>
+      <c r="J50" s="15">
+        <v>0.44462156059686397</v>
+      </c>
+      <c r="K50" s="15">
+        <v>0.35258070799866403</v>
+      </c>
+      <c r="L50" s="15">
+        <v>0.78408469457294572</v>
+      </c>
+      <c r="M50" s="17">
         <v>422.569091796875</v>
       </c>
-      <c r="I50" s="24">
-        <v>3</v>
-      </c>
-      <c r="J50" s="29">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.573265273852686</v>
-      </c>
-      <c r="K50" s="29">
-        <v>0.44462156059686397</v>
-      </c>
-      <c r="L50" s="29">
-        <v>0.35258070799866403</v>
-      </c>
-      <c r="M50" s="29">
-        <v>0.78408469457294572</v>
-      </c>
-      <c r="N50" s="29">
-        <f t="shared" si="2"/>
-        <v>421.87540418075503</v>
-      </c>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -9924,43 +8420,40 @@
       <c r="C51">
         <v>49</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="18">
+        <f t="shared" si="2"/>
+        <v>466.16376151809078</v>
+      </c>
+      <c r="E51" s="18">
         <v>446.75647736189802</v>
       </c>
-      <c r="E51" s="20">
+      <c r="F51" s="18">
         <v>450.22381591796801</v>
       </c>
-      <c r="F51" s="18">
-        <f t="shared" si="3"/>
-        <v>466.16376151809078</v>
-      </c>
-      <c r="H51" s="18">
+      <c r="G51" s="18"/>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.26165216439691175</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0.30973338762642155</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0.73917578002689599</v>
+      </c>
+      <c r="L51" s="4">
+        <v>0.43345090154623611</v>
+      </c>
+      <c r="M51" s="16">
         <v>450.22381591796801</v>
       </c>
-      <c r="I51">
-        <v>3</v>
-      </c>
-      <c r="J51" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.31802353725746413</v>
-      </c>
-      <c r="K51" s="4">
-        <v>0.30973338762642155</v>
-      </c>
-      <c r="L51" s="4">
-        <v>0.73917578002689599</v>
-      </c>
-      <c r="M51" s="4">
-        <v>0.43345090154623611</v>
-      </c>
-      <c r="N51" s="4">
-        <f t="shared" si="2"/>
-        <v>448.49014663993302</v>
-      </c>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -9971,43 +8464,40 @@
       <c r="C52">
         <v>50</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="18">
+        <f>D51*POWER(2,1/12)</f>
+        <v>493.88330125612504</v>
+      </c>
+      <c r="E52" s="18">
         <v>476.78483437764999</v>
       </c>
-      <c r="E52" s="20">
+      <c r="F52" s="18">
         <v>478.39596557617102</v>
       </c>
-      <c r="F52" s="18">
-        <f>F51*POWER(2,1/12)</f>
-        <v>493.88330125612504</v>
-      </c>
-      <c r="H52" s="18">
+      <c r="G52" s="18"/>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.96341875687887846</v>
+      </c>
+      <c r="J52" s="4">
+        <v>0.33572986621031309</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0.61752225878501299</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0.41583584392780015</v>
+      </c>
+      <c r="M52" s="16">
         <v>478.39596557617102</v>
       </c>
-      <c r="I52">
-        <v>3</v>
-      </c>
-      <c r="J52" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.17225722728996229</v>
-      </c>
-      <c r="K52" s="4">
-        <v>0.33572986621031309</v>
-      </c>
-      <c r="L52" s="4">
-        <v>0.61752225878501299</v>
-      </c>
-      <c r="M52" s="4">
-        <v>0.41583584392780015</v>
-      </c>
-      <c r="N52" s="4">
-        <f t="shared" si="2"/>
-        <v>477.59039997691048</v>
-      </c>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -10018,43 +8508,40 @@
       <c r="C53">
         <v>51</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="18">
+        <f t="shared" si="2"/>
+        <v>523.25113060119827</v>
+      </c>
+      <c r="E53" s="18">
         <v>502.944324093918</v>
       </c>
-      <c r="E53" s="20">
+      <c r="F53" s="18">
         <v>505.330474853515</v>
       </c>
-      <c r="F53" s="18">
-        <f t="shared" si="3"/>
-        <v>523.25113060119827</v>
-      </c>
-      <c r="H53" s="18">
+      <c r="G53" s="18"/>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.20502239577705961</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0.47666603290839527</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0.3660913829397362</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0.20193204755624883</v>
+      </c>
+      <c r="M53" s="16">
         <v>505.330474853515</v>
       </c>
-      <c r="I53">
-        <v>3</v>
-      </c>
-      <c r="J53" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.30316199955355982</v>
-      </c>
-      <c r="K53" s="4">
-        <v>0.47666603290839527</v>
-      </c>
-      <c r="L53" s="4">
-        <v>0.3660913829397362</v>
-      </c>
-      <c r="M53" s="4">
-        <v>0.20193204755624883</v>
-      </c>
-      <c r="N53" s="4">
-        <f t="shared" si="2"/>
-        <v>504.13739947371653</v>
-      </c>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -10065,43 +8552,40 @@
       <c r="C54">
         <v>52</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="18">
+        <f t="shared" si="2"/>
+        <v>554.36526195374529</v>
+      </c>
+      <c r="E54" s="18">
         <v>515.40620232399999</v>
       </c>
-      <c r="E54" s="20">
+      <c r="F54" s="18">
         <v>517.26461791992097</v>
       </c>
-      <c r="F54" s="18">
-        <f t="shared" si="3"/>
-        <v>554.36526195374529</v>
-      </c>
-      <c r="H54" s="18">
+      <c r="G54" s="18"/>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.60532332115402487</v>
+      </c>
+      <c r="J54" s="4">
+        <v>0.48145241570552633</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0.99553310746775481</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0.95345588316502283</v>
+      </c>
+      <c r="M54" s="16">
         <v>517.26461791992097</v>
       </c>
-      <c r="I54">
-        <v>3</v>
-      </c>
-      <c r="J54" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.58096508425846349</v>
-      </c>
-      <c r="K54" s="4">
-        <v>0.48145241570552633</v>
-      </c>
-      <c r="L54" s="4">
-        <v>0.99553310746775481</v>
-      </c>
-      <c r="M54" s="4">
-        <v>0.95345588316502283</v>
-      </c>
-      <c r="N54" s="4">
-        <f t="shared" si="2"/>
-        <v>516.33541012196042</v>
-      </c>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -10112,43 +8596,40 @@
       <c r="C55">
         <v>53</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="18">
+        <f t="shared" si="2"/>
+        <v>587.32953583481628</v>
+      </c>
+      <c r="E55" s="18">
         <v>545.95243321699604</v>
       </c>
-      <c r="E55" s="20">
+      <c r="F55" s="18">
         <v>548.1640625</v>
       </c>
-      <c r="F55" s="18">
-        <f t="shared" si="3"/>
-        <v>587.32953583481628</v>
-      </c>
-      <c r="H55" s="18">
+      <c r="G55" s="18"/>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.59619251174109644</v>
+      </c>
+      <c r="J55" s="4">
+        <v>2.1936151067853737E-2</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0.73823120246506813</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0.19985120376841981</v>
+      </c>
+      <c r="M55" s="16">
         <v>548.1640625</v>
       </c>
-      <c r="I55">
-        <v>3</v>
-      </c>
-      <c r="J55" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.83090310979545778</v>
-      </c>
-      <c r="K55" s="4">
-        <v>2.1936151067853737E-2</v>
-      </c>
-      <c r="L55" s="4">
-        <v>0.73823120246506813</v>
-      </c>
-      <c r="M55" s="4">
-        <v>0.19985120376841981</v>
-      </c>
-      <c r="N55" s="4">
-        <f t="shared" si="2"/>
-        <v>547.05824785849802</v>
-      </c>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -10159,43 +8640,40 @@
       <c r="C56">
         <v>54</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D56" s="18">
+        <f t="shared" si="2"/>
+        <v>622.2539674441631</v>
+      </c>
+      <c r="E56" s="18">
         <v>590.70649597421004</v>
       </c>
-      <c r="E56" s="20">
+      <c r="F56" s="18">
         <v>594.32931518554597</v>
       </c>
-      <c r="F56" s="18">
-        <f t="shared" si="3"/>
-        <v>622.2539674441631</v>
-      </c>
-      <c r="H56" s="18">
+      <c r="G56" s="18"/>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.49822723988540873</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0.96738747112235823</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0.88826786003068536</v>
+      </c>
+      <c r="L56" s="4">
+        <v>0.8377689175667653</v>
+      </c>
+      <c r="M56" s="16">
         <v>594.32931518554597</v>
       </c>
-      <c r="I56">
-        <v>3</v>
-      </c>
-      <c r="J56" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.43449966784876137</v>
-      </c>
-      <c r="K56" s="4">
-        <v>0.96738747112235823</v>
-      </c>
-      <c r="L56" s="4">
-        <v>0.88826786003068536</v>
-      </c>
-      <c r="M56" s="4">
-        <v>0.8377689175667653</v>
-      </c>
-      <c r="N56" s="4">
-        <f t="shared" si="2"/>
-        <v>592.51790557987806</v>
-      </c>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -10206,43 +8684,40 @@
       <c r="C57">
         <v>55</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="18">
+        <f t="shared" si="2"/>
+        <v>659.2551138257412</v>
+      </c>
+      <c r="E57" s="18">
         <v>629.86386880288205</v>
       </c>
-      <c r="E57" s="20">
+      <c r="F57" s="18">
         <v>632.85357666015602</v>
       </c>
-      <c r="F57" s="18">
-        <f t="shared" si="3"/>
-        <v>659.2551138257412</v>
-      </c>
-      <c r="H57" s="18">
+      <c r="G57" s="18"/>
+      <c r="H57">
+        <v>3</v>
+      </c>
+      <c r="I57" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.3243097014906916</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0.14523634205494529</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0.1721967144883878</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0.48695450870607049</v>
+      </c>
+      <c r="M57" s="16">
         <v>632.85357666015602</v>
       </c>
-      <c r="I57">
-        <v>3</v>
-      </c>
-      <c r="J57" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.23080360260390287</v>
-      </c>
-      <c r="K57" s="4">
-        <v>0.14523634205494529</v>
-      </c>
-      <c r="L57" s="4">
-        <v>0.1721967144883878</v>
-      </c>
-      <c r="M57" s="4">
-        <v>0.48695450870607049</v>
-      </c>
-      <c r="N57" s="4">
-        <f t="shared" si="2"/>
-        <v>631.35872273151904</v>
-      </c>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -10253,43 +8728,40 @@
       <c r="C58">
         <v>56</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D58" s="18">
+        <f t="shared" si="2"/>
+        <v>698.45646286600925</v>
+      </c>
+      <c r="E58" s="18">
         <v>664.17918314640497</v>
       </c>
-      <c r="E58" s="20">
+      <c r="F58" s="18">
         <v>667.36047363281205</v>
       </c>
-      <c r="F58" s="18">
-        <f t="shared" si="3"/>
-        <v>698.45646286600925</v>
-      </c>
-      <c r="H58" s="18">
+      <c r="G58" s="18"/>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="I58" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.78541041588198612</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0.49371279074193153</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0.4252190405247176</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0.39756108894473707</v>
+      </c>
+      <c r="M58" s="16">
         <v>667.36047363281205</v>
       </c>
-      <c r="I58">
-        <v>3</v>
-      </c>
-      <c r="J58" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.86563449734418374</v>
-      </c>
-      <c r="K58" s="4">
-        <v>0.49371279074193153</v>
-      </c>
-      <c r="L58" s="4">
-        <v>0.4252190405247176</v>
-      </c>
-      <c r="M58" s="4">
-        <v>0.39756108894473707</v>
-      </c>
-      <c r="N58" s="4">
-        <f t="shared" si="2"/>
-        <v>665.76982838960851</v>
-      </c>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -10300,43 +8772,40 @@
       <c r="C59">
         <v>57</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="18">
+        <f t="shared" si="2"/>
+        <v>739.98884542327039</v>
+      </c>
+      <c r="E59" s="18">
         <v>704.87810965105803</v>
       </c>
-      <c r="E59" s="20">
+      <c r="F59" s="18">
         <v>706.65289306640602</v>
       </c>
-      <c r="F59" s="18">
-        <f t="shared" si="3"/>
-        <v>739.98884542327039</v>
-      </c>
-      <c r="H59" s="18">
+      <c r="G59" s="18"/>
+      <c r="H59">
+        <v>3</v>
+      </c>
+      <c r="I59" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9168292988440766</v>
+      </c>
+      <c r="J59" s="4">
+        <v>6.0955510652993095E-2</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0.44069686416327858</v>
+      </c>
+      <c r="L59" s="4">
+        <v>0.64052630807057698</v>
+      </c>
+      <c r="M59" s="16">
         <v>706.65289306640602</v>
       </c>
-      <c r="I59">
-        <v>3</v>
-      </c>
-      <c r="J59" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.6847447904108932</v>
-      </c>
-      <c r="K59" s="4">
-        <v>6.0955510652993095E-2</v>
-      </c>
-      <c r="L59" s="4">
-        <v>0.44069686416327858</v>
-      </c>
-      <c r="M59" s="4">
-        <v>0.64052630807057698</v>
-      </c>
-      <c r="N59" s="4">
-        <f t="shared" si="2"/>
-        <v>705.76550135873208</v>
-      </c>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>89</v>
       </c>
@@ -10347,43 +8816,40 @@
       <c r="C60">
         <v>58</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="18">
+        <f t="shared" si="2"/>
+        <v>783.99087196350035</v>
+      </c>
+      <c r="E60" s="18">
         <v>746.5260852742</v>
       </c>
-      <c r="E60" s="20">
+      <c r="F60" s="18">
         <v>748.64080810546795</v>
       </c>
-      <c r="F60" s="18">
-        <f t="shared" si="3"/>
-        <v>783.99087196350035</v>
-      </c>
-      <c r="H60" s="18">
+      <c r="G60" s="18"/>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8215522502145749</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0.84017437083578261</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0.62805893899792598</v>
+      </c>
+      <c r="L60" s="4">
+        <v>0.11508193479496243</v>
+      </c>
+      <c r="M60" s="16">
         <v>748.64080810546795</v>
       </c>
-      <c r="I60">
-        <v>3</v>
-      </c>
-      <c r="J60" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11660816144869424</v>
-      </c>
-      <c r="K60" s="4">
-        <v>0.84017437083578261</v>
-      </c>
-      <c r="L60" s="4">
-        <v>0.62805893899792598</v>
-      </c>
-      <c r="M60" s="4">
-        <v>0.11508193479496243</v>
-      </c>
-      <c r="N60" s="4">
-        <f t="shared" si="2"/>
-        <v>747.58344668983398</v>
-      </c>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -10394,93 +8860,86 @@
       <c r="C61">
         <v>59</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="18">
+        <f t="shared" si="2"/>
+        <v>830.60939515989219</v>
+      </c>
+      <c r="E61" s="18">
         <v>798.29809382725603</v>
       </c>
-      <c r="E61" s="20">
+      <c r="F61" s="18">
         <v>802.35629272460903</v>
       </c>
-      <c r="F61" s="18">
-        <f t="shared" si="3"/>
-        <v>830.60939515989219</v>
-      </c>
-      <c r="H61" s="18">
+      <c r="G61" s="18"/>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.9287974281750948E-3</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0.44700201828882691</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0.92370139032589582</v>
+      </c>
+      <c r="L61" s="4">
+        <v>0.71711195165064001</v>
+      </c>
+      <c r="M61" s="16">
         <v>802.35629272460903</v>
       </c>
-      <c r="I61">
-        <v>3</v>
-      </c>
-      <c r="J61" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.36864401288793758</v>
-      </c>
-      <c r="K61" s="4">
-        <v>0.44700201828882691</v>
-      </c>
-      <c r="L61" s="4">
-        <v>0.92370139032589582</v>
-      </c>
-      <c r="M61" s="4">
-        <v>0.71711195165064001</v>
-      </c>
-      <c r="N61" s="4">
-        <f t="shared" si="2"/>
-        <v>800.32719327593259</v>
-      </c>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-    </row>
-    <row r="62" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+    </row>
+    <row r="62" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="24">
+      <c r="B62" s="14">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="14">
         <v>60</v>
       </c>
-      <c r="D62" s="25">
+      <c r="D62" s="19">
+        <f t="shared" si="2"/>
+        <v>880.00000000000205</v>
+      </c>
+      <c r="E62" s="19">
         <v>847.76849238695002</v>
       </c>
-      <c r="E62" s="26">
+      <c r="F62" s="19">
         <v>849.85186767578102</v>
       </c>
-      <c r="F62" s="27">
-        <f t="shared" si="3"/>
-        <v>880.00000000000205</v>
-      </c>
-      <c r="G62" s="28">
+      <c r="G62" s="19">
         <v>856</v>
       </c>
-      <c r="H62" s="27">
+      <c r="H62" s="14">
+        <v>3</v>
+      </c>
+      <c r="I62" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.23812388437880294</v>
+      </c>
+      <c r="J62" s="15">
+        <v>0.31652505396822705</v>
+      </c>
+      <c r="K62" s="15">
+        <v>0.53612967434850756</v>
+      </c>
+      <c r="L62" s="15">
+        <v>0.43729524521024443</v>
+      </c>
+      <c r="M62" s="17">
         <v>849.85186767578102</v>
       </c>
-      <c r="I62" s="24">
-        <v>3</v>
-      </c>
-      <c r="J62" s="29">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.79893588771577395</v>
-      </c>
-      <c r="K62" s="29">
-        <v>0.31652505396822705</v>
-      </c>
-      <c r="L62" s="29">
-        <v>0.53612967434850756</v>
-      </c>
-      <c r="M62" s="29">
-        <v>0.43729524521024443</v>
-      </c>
-      <c r="N62" s="29">
-        <f t="shared" si="2"/>
-        <v>848.81018003136546</v>
-      </c>
-      <c r="O62" s="29"/>
-      <c r="P62" s="29"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>92</v>
       </c>
@@ -10491,43 +8950,40 @@
       <c r="C63">
         <v>61</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D63" s="18">
+        <f t="shared" si="2"/>
+        <v>932.32752303618201</v>
+      </c>
+      <c r="E63" s="18">
         <v>900.87832748388303</v>
       </c>
-      <c r="E63" s="20">
+      <c r="F63" s="18">
         <v>905.08139038085903</v>
       </c>
-      <c r="F63" s="18">
-        <f t="shared" si="3"/>
-        <v>932.32752303618201</v>
-      </c>
-      <c r="H63" s="18">
+      <c r="G63" s="18"/>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97086848379013757</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0.53012209637953223</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0.28478531384688677</v>
+      </c>
+      <c r="L63" s="4">
+        <v>0.50268423347609958</v>
+      </c>
+      <c r="M63" s="16">
         <v>905.08139038085903</v>
       </c>
-      <c r="I63">
-        <v>3</v>
-      </c>
-      <c r="J63" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.92175996917184877</v>
-      </c>
-      <c r="K63" s="4">
-        <v>0.53012209637953223</v>
-      </c>
-      <c r="L63" s="4">
-        <v>0.28478531384688677</v>
-      </c>
-      <c r="M63" s="4">
-        <v>0.50268423347609958</v>
-      </c>
-      <c r="N63" s="4">
-        <f t="shared" si="2"/>
-        <v>902.97985893237103</v>
-      </c>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -10538,41 +8994,38 @@
       <c r="C64">
         <v>62</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D64" s="18">
+        <f t="shared" si="2"/>
+        <v>987.76660251225053</v>
+      </c>
+      <c r="E64" s="18">
         <v>938.01079609756698</v>
       </c>
-      <c r="E64" s="20">
+      <c r="F64" s="18">
         <v>942.76617431640602</v>
       </c>
-      <c r="F64" s="18">
-        <f t="shared" si="3"/>
-        <v>987.76660251225053</v>
-      </c>
-      <c r="H64" s="18">
+      <c r="G64" s="18"/>
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.51568382248583455</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0.53385962079543314</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0.75234602906444237</v>
+      </c>
+      <c r="L64" s="4">
+        <v>0.20254856495622919</v>
+      </c>
+      <c r="M64" s="16">
         <v>942.76617431640602</v>
       </c>
-      <c r="I64">
-        <v>3</v>
-      </c>
-      <c r="J64" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.38076468422899223</v>
-      </c>
-      <c r="K64" s="4">
-        <v>0.53385962079543314</v>
-      </c>
-      <c r="L64" s="4">
-        <v>0.75234602906444237</v>
-      </c>
-      <c r="M64" s="4">
-        <v>0.20254856495622919</v>
-      </c>
-      <c r="N64" s="4">
-        <f t="shared" si="2"/>
-        <v>940.3884852069865</v>
-      </c>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
@@ -10585,41 +9038,38 @@
       <c r="C65">
         <v>63</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D65" s="18">
+        <f t="shared" si="2"/>
+        <v>1046.502261202397</v>
+      </c>
+      <c r="E65" s="18">
         <v>1016.30556256871</v>
       </c>
-      <c r="E65" s="20">
+      <c r="F65" s="18">
         <v>1016.8302307128901</v>
       </c>
-      <c r="F65" s="18">
-        <f t="shared" si="3"/>
-        <v>1046.502261202397</v>
-      </c>
-      <c r="H65" s="18">
+      <c r="G65" s="18"/>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="I65" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.15026497374572911</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0.34141394558349558</v>
+      </c>
+      <c r="K65" s="4">
+        <v>2.662679901777909E-2</v>
+      </c>
+      <c r="L65" s="4">
+        <v>0.79531951000327972</v>
+      </c>
+      <c r="M65" s="16">
         <v>1016.8302307128901</v>
       </c>
-      <c r="I65">
-        <v>3</v>
-      </c>
-      <c r="J65" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.49706988860892098</v>
-      </c>
-      <c r="K65" s="4">
-        <v>0.34141394558349558</v>
-      </c>
-      <c r="L65" s="4">
-        <v>2.662679901777909E-2</v>
-      </c>
-      <c r="M65" s="4">
-        <v>0.79531951000327972</v>
-      </c>
-      <c r="N65" s="4">
-        <f t="shared" si="2"/>
-        <v>1016.5678966408</v>
-      </c>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
@@ -10632,1967 +9082,956 @@
       <c r="C66">
         <v>64</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D66" s="18">
+        <f t="shared" si="2"/>
+        <v>1108.730523907491</v>
+      </c>
+      <c r="E66" s="18">
         <v>1062.47821662618</v>
       </c>
-      <c r="E66" s="20">
+      <c r="F66" s="18">
         <v>1064.78637695312</v>
       </c>
-      <c r="F66" s="18">
-        <f t="shared" si="3"/>
-        <v>1108.730523907491</v>
-      </c>
-      <c r="H66" s="18">
+      <c r="G66" s="18"/>
+      <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66" s="4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.30985179799993223</v>
+      </c>
+      <c r="J66" s="4">
+        <v>0.40078027153445561</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0.72447397308415906</v>
+      </c>
+      <c r="L66" s="4">
+        <v>0.61139765198955154</v>
+      </c>
+      <c r="M66" s="16">
         <v>1064.78637695312</v>
       </c>
-      <c r="I66">
-        <v>3</v>
-      </c>
-      <c r="J66" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.54102469065073033</v>
-      </c>
-      <c r="K66" s="4">
-        <v>0.40078027153445561</v>
-      </c>
-      <c r="L66" s="4">
-        <v>0.72447397308415906</v>
-      </c>
-      <c r="M66" s="4">
-        <v>0.61139765198955154</v>
-      </c>
-      <c r="N66" s="4">
-        <f t="shared" si="2"/>
-        <v>1063.6322967896499</v>
-      </c>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>96</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B86" si="4">C67+33</f>
+        <f t="shared" ref="B67:B86" si="3">C67+33</f>
         <v>98</v>
       </c>
       <c r="C67">
         <v>65</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D67" s="18">
+        <f t="shared" si="2"/>
+        <v>1174.659071669633</v>
+      </c>
+      <c r="E67" s="18">
         <v>1134.5271353835799</v>
       </c>
-      <c r="E67" s="20">
+      <c r="F67" s="18">
         <v>1128.6564331054601</v>
       </c>
-      <c r="F67" s="18">
-        <f t="shared" si="3"/>
-        <v>1174.659071669633</v>
-      </c>
-      <c r="H67" s="18">
+      <c r="G67" s="18"/>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67" s="4">
+        <f t="shared" ref="I67:I86" ca="1" si="4">RAND()</f>
+        <v>5.7917780288325948E-2</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0.53035394079898279</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0.35117151458018248</v>
+      </c>
+      <c r="L67" s="4">
+        <v>0.83058345688459012</v>
+      </c>
+      <c r="M67" s="16">
         <v>1128.6564331054601</v>
       </c>
-      <c r="I67">
-        <v>3</v>
-      </c>
-      <c r="J67" s="4">
-        <f t="shared" ref="J67:J86" ca="1" si="5">RAND()</f>
-        <v>0.91029159312992902</v>
-      </c>
-      <c r="K67" s="4">
-        <v>0.53035394079898279</v>
-      </c>
-      <c r="L67" s="4">
-        <v>0.35117151458018248</v>
-      </c>
-      <c r="M67" s="4">
-        <v>0.83058345688459012</v>
-      </c>
-      <c r="N67" s="4">
-        <f t="shared" ref="N67:N79" si="6">AVERAGE(D67:E67)</f>
-        <v>1131.5917842445201</v>
-      </c>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>97</v>
       </c>
       <c r="B68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="C68">
         <v>66</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D68" s="18">
+        <f t="shared" ref="D68:D86" si="5">D67*POWER(2,1/12)</f>
+        <v>1244.5079348883266</v>
+      </c>
+      <c r="E68" s="18">
         <v>1200.72759153989</v>
       </c>
-      <c r="E68" s="20">
+      <c r="F68" s="18">
         <v>1200.7982788085901</v>
       </c>
-      <c r="F68" s="18">
-        <f t="shared" ref="F68:F86" si="7">F67*POWER(2,1/12)</f>
-        <v>1244.5079348883266</v>
-      </c>
-      <c r="H68" s="18">
+      <c r="G68" s="18"/>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.11735374837781865</v>
+      </c>
+      <c r="J68" s="4">
+        <v>0.85066202920853051</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0.33226705916502342</v>
+      </c>
+      <c r="L68" s="4">
+        <v>0.21079165540672007</v>
+      </c>
+      <c r="M68" s="16">
         <v>1200.7982788085901</v>
       </c>
-      <c r="I68">
-        <v>3</v>
-      </c>
-      <c r="J68" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.3253654645083239E-2</v>
-      </c>
-      <c r="K68" s="4">
-        <v>0.85066202920853051</v>
-      </c>
-      <c r="L68" s="4">
-        <v>0.33226705916502342</v>
-      </c>
-      <c r="M68" s="4">
-        <v>0.21079165540672007</v>
-      </c>
-      <c r="N68" s="4">
-        <f t="shared" si="6"/>
-        <v>1200.7629351742401</v>
-      </c>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>98</v>
       </c>
       <c r="B69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="C69">
         <v>67</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D69" s="18">
+        <f t="shared" si="5"/>
+        <v>1318.5102276514829</v>
+      </c>
+      <c r="E69" s="18">
         <v>1294.81572510926</v>
       </c>
-      <c r="E69" s="20">
+      <c r="F69" s="18">
         <v>1283.1427612304601</v>
       </c>
-      <c r="F69" s="18">
-        <f t="shared" si="7"/>
-        <v>1318.5102276514829</v>
-      </c>
-      <c r="H69" s="18">
+      <c r="G69" s="18"/>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.28785935941693486</v>
+      </c>
+      <c r="J69" s="4">
+        <v>0.79564237282474648</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0.34780831106863841</v>
+      </c>
+      <c r="L69" s="4">
+        <v>0.82768486148133014</v>
+      </c>
+      <c r="M69" s="16">
         <v>1283.1427612304601</v>
       </c>
-      <c r="I69">
-        <v>3</v>
-      </c>
-      <c r="J69" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.82323946286911054</v>
-      </c>
-      <c r="K69" s="4">
-        <v>0.79564237282474648</v>
-      </c>
-      <c r="L69" s="4">
-        <v>0.34780831106863841</v>
-      </c>
-      <c r="M69" s="4">
-        <v>0.82768486148133014</v>
-      </c>
-      <c r="N69" s="4">
-        <f t="shared" si="6"/>
-        <v>1288.9792431698602</v>
-      </c>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>99</v>
       </c>
       <c r="B70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="C70">
         <v>68</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70" s="18">
+        <f t="shared" si="5"/>
+        <v>1396.9129257320189</v>
+      </c>
+      <c r="E70" s="18">
         <v>1343.7723561999801</v>
       </c>
-      <c r="E70" s="20">
+      <c r="F70" s="18">
         <v>1341.02954101562</v>
       </c>
-      <c r="F70" s="18">
-        <f t="shared" si="7"/>
-        <v>1396.9129257320189</v>
-      </c>
-      <c r="H70" s="18">
+      <c r="G70" s="18"/>
+      <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.6416187284327739</v>
+      </c>
+      <c r="J70" s="4">
+        <v>0.52318313122964144</v>
+      </c>
+      <c r="K70" s="4">
+        <v>6.6005904292473216E-2</v>
+      </c>
+      <c r="L70" s="4">
+        <v>0.53567411681663346</v>
+      </c>
+      <c r="M70" s="16">
         <v>1341.02954101562</v>
       </c>
-      <c r="I70">
-        <v>3</v>
-      </c>
-      <c r="J70" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.52682678325193599</v>
-      </c>
-      <c r="K70" s="4">
-        <v>0.52318313122964144</v>
-      </c>
-      <c r="L70" s="4">
-        <v>6.6005904292473216E-2</v>
-      </c>
-      <c r="M70" s="4">
-        <v>0.53567411681663346</v>
-      </c>
-      <c r="N70" s="4">
-        <f t="shared" si="6"/>
-        <v>1342.4009486078</v>
-      </c>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>100</v>
       </c>
       <c r="B71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="C71">
         <v>69</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71" s="18">
+        <f t="shared" si="5"/>
+        <v>1479.9776908465412</v>
+      </c>
+      <c r="E71" s="18">
         <v>1443.04346655564</v>
       </c>
-      <c r="E71" s="20">
+      <c r="F71" s="18">
         <v>1442.1290893554601</v>
       </c>
-      <c r="F71" s="18">
-        <f t="shared" si="7"/>
-        <v>1479.9776908465412</v>
-      </c>
-      <c r="H71" s="18">
+      <c r="G71" s="18"/>
+      <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.81014543947269479</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0.6522303144676761</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0.72969113406390407</v>
+      </c>
+      <c r="L71" s="4">
+        <v>0.15108683324153849</v>
+      </c>
+      <c r="M71" s="16">
         <v>1442.1290893554601</v>
       </c>
-      <c r="I71">
-        <v>3</v>
-      </c>
-      <c r="J71" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.74460107517132235</v>
-      </c>
-      <c r="K71" s="4">
-        <v>0.6522303144676761</v>
-      </c>
-      <c r="L71" s="4">
-        <v>0.72969113406390407</v>
-      </c>
-      <c r="M71" s="4">
-        <v>0.15108683324153849</v>
-      </c>
-      <c r="N71" s="4">
-        <f t="shared" si="6"/>
-        <v>1442.58627795555</v>
-      </c>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>101</v>
       </c>
       <c r="B72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="C72">
         <v>70</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D72" s="18">
+        <f t="shared" si="5"/>
+        <v>1567.9817439270012</v>
+      </c>
+      <c r="E72" s="18">
         <v>1533.74407579119</v>
       </c>
-      <c r="E72" s="20">
+      <c r="F72" s="18">
         <v>1532.4273071289001</v>
       </c>
-      <c r="F72" s="18">
-        <f t="shared" si="7"/>
-        <v>1567.9817439270012</v>
-      </c>
-      <c r="H72" s="18">
+      <c r="G72" s="18"/>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.6906557456808472</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0.1769121737174616</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0.90403514997337375</v>
+      </c>
+      <c r="L72" s="4">
+        <v>0.73539560038427354</v>
+      </c>
+      <c r="M72" s="16">
         <v>1532.4273071289001</v>
       </c>
-      <c r="I72">
-        <v>3</v>
-      </c>
-      <c r="J72" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.38191194796280448</v>
-      </c>
-      <c r="K72" s="4">
-        <v>0.1769121737174616</v>
-      </c>
-      <c r="L72" s="4">
-        <v>0.90403514997337375</v>
-      </c>
-      <c r="M72" s="4">
-        <v>0.73539560038427354</v>
-      </c>
-      <c r="N72" s="4">
-        <f t="shared" si="6"/>
-        <v>1533.0856914600449</v>
-      </c>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>102</v>
       </c>
       <c r="B73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="C73">
         <v>71</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D73" s="18">
+        <f t="shared" si="5"/>
+        <v>1661.2187903197848</v>
+      </c>
+      <c r="E73" s="18">
         <v>1546.0040358892099</v>
       </c>
-      <c r="E73" s="20">
+      <c r="F73" s="18">
         <v>1609.13317871093</v>
       </c>
-      <c r="F73" s="18">
-        <f t="shared" si="7"/>
-        <v>1661.2187903197848</v>
-      </c>
-      <c r="H73" s="18">
+      <c r="G73" s="18"/>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.30330429157371019</v>
+      </c>
+      <c r="J73" s="4">
+        <v>0.30880539019051378</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0.32304626886746146</v>
+      </c>
+      <c r="L73" s="4">
+        <v>0.98246586445317508</v>
+      </c>
+      <c r="M73" s="16">
         <v>1609.13317871093</v>
       </c>
-      <c r="I73">
-        <v>3</v>
-      </c>
-      <c r="J73" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.16735750554111906</v>
-      </c>
-      <c r="K73" s="4">
-        <v>0.30880539019051378</v>
-      </c>
-      <c r="L73" s="4">
-        <v>0.32304626886746146</v>
-      </c>
-      <c r="M73" s="4">
-        <v>0.98246586445317508</v>
-      </c>
-      <c r="N73" s="4">
-        <f t="shared" si="6"/>
-        <v>1577.56860730007</v>
-      </c>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-    </row>
-    <row r="74" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="24" t="s">
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+    </row>
+    <row r="74" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="24">
-        <f t="shared" si="4"/>
+      <c r="B74" s="14">
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="C74" s="24">
+      <c r="C74" s="14">
         <v>72</v>
       </c>
-      <c r="D74" s="25">
+      <c r="D74" s="19">
+        <f t="shared" si="5"/>
+        <v>1760.0000000000045</v>
+      </c>
+      <c r="E74" s="19">
         <v>596.112441925555</v>
       </c>
-      <c r="E74" s="26">
+      <c r="F74" s="19">
         <v>531.51971435546795</v>
       </c>
-      <c r="F74" s="27">
-        <f t="shared" si="7"/>
-        <v>1760.0000000000045</v>
-      </c>
-      <c r="G74" s="28"/>
-      <c r="H74" s="27" t="s">
+      <c r="G74" s="19">
+        <v>1755</v>
+      </c>
+      <c r="H74" s="14">
+        <v>3</v>
+      </c>
+      <c r="I74" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.14298302458862955</v>
+      </c>
+      <c r="J74" s="15">
+        <v>7.0262423465566881E-3</v>
+      </c>
+      <c r="K74" s="15">
+        <v>0.80825759071388992</v>
+      </c>
+      <c r="L74" s="15">
+        <v>0.69277155182306638</v>
+      </c>
+      <c r="M74" s="22">
+        <v>1755</v>
+      </c>
+      <c r="N74" s="22">
+        <v>1828.52</v>
+      </c>
+      <c r="O74" s="22">
+        <f>531.52*3</f>
+        <v>1594.56</v>
+      </c>
+      <c r="P74" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="I74" s="24">
-        <v>3</v>
-      </c>
-      <c r="J74" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.48339451741706807</v>
-      </c>
-      <c r="K74" s="29">
-        <v>7.0262423465566881E-3</v>
-      </c>
-      <c r="L74" s="29">
-        <v>0.80825759071388992</v>
-      </c>
-      <c r="M74" s="29">
-        <v>0.69277155182306638</v>
-      </c>
-      <c r="N74" s="29">
-        <f t="shared" si="6"/>
-        <v>563.81607814051154</v>
-      </c>
-      <c r="O74" s="29"/>
-      <c r="P74" s="29"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>104</v>
       </c>
       <c r="B75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="C75">
         <v>73</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D75" s="18">
+        <f t="shared" si="5"/>
+        <v>1864.6550460723645</v>
+      </c>
+      <c r="E75" s="18">
         <v>1794.6674145843599</v>
       </c>
-      <c r="E75" s="20">
+      <c r="F75" s="18">
         <v>1828.5154418945301</v>
       </c>
-      <c r="F75" s="18">
-        <f t="shared" si="7"/>
-        <v>1864.6550460723645</v>
-      </c>
-      <c r="H75" s="18">
+      <c r="G75" s="18"/>
+      <c r="H75">
+        <v>3</v>
+      </c>
+      <c r="I75" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.5000875926100864</v>
+      </c>
+      <c r="J75" s="4">
+        <v>0.88853308433958678</v>
+      </c>
+      <c r="K75" s="4">
+        <v>0.97817788873359868</v>
+      </c>
+      <c r="L75" s="4">
+        <v>0.33869377237107878</v>
+      </c>
+      <c r="M75" s="16">
         <v>1828.5154418945301</v>
       </c>
-      <c r="I75">
-        <v>3</v>
-      </c>
-      <c r="J75" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.7782980283261911</v>
-      </c>
-      <c r="K75" s="4">
-        <v>0.88853308433958678</v>
-      </c>
-      <c r="L75" s="4">
-        <v>0.97817788873359868</v>
-      </c>
-      <c r="M75" s="4">
-        <v>0.33869377237107878</v>
-      </c>
-      <c r="N75" s="4">
-        <f t="shared" si="6"/>
-        <v>1811.5914282394451</v>
-      </c>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>105</v>
       </c>
       <c r="B76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="C76">
         <v>74</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D76" s="18">
+        <f t="shared" si="5"/>
+        <v>1975.5332050245017</v>
+      </c>
+      <c r="E76" s="18">
         <v>1972.43525204087</v>
       </c>
-      <c r="E76" s="20">
+      <c r="F76" s="18">
         <v>1987.3062133789001</v>
       </c>
-      <c r="F76" s="18">
-        <f t="shared" si="7"/>
-        <v>1975.5332050245017</v>
-      </c>
-      <c r="H76" s="18">
+      <c r="G76" s="18"/>
+      <c r="H76">
+        <v>3</v>
+      </c>
+      <c r="I76" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.70966793211802115</v>
+      </c>
+      <c r="J76" s="4">
+        <v>5.3317692872198341E-2</v>
+      </c>
+      <c r="K76" s="4">
+        <v>2.2595845353655997E-2</v>
+      </c>
+      <c r="L76" s="4">
+        <v>0.10148495437132865</v>
+      </c>
+      <c r="M76" s="16">
         <v>1987.3062133789001</v>
       </c>
-      <c r="I76">
-        <v>3</v>
-      </c>
-      <c r="J76" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.3745471930505766</v>
-      </c>
-      <c r="K76" s="4">
-        <v>5.3317692872198341E-2</v>
-      </c>
-      <c r="L76" s="4">
-        <v>2.2595845353655997E-2</v>
-      </c>
-      <c r="M76" s="4">
-        <v>0.10148495437132865</v>
-      </c>
-      <c r="N76" s="4">
-        <f t="shared" si="6"/>
-        <v>1979.870732709885</v>
-      </c>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>106</v>
       </c>
       <c r="B77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="C77">
         <v>75</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D77" s="18">
+        <f t="shared" si="5"/>
+        <v>2093.0045224047949</v>
+      </c>
+      <c r="E77" s="18">
         <v>2026.8672242482501</v>
       </c>
-      <c r="E77" s="20">
+      <c r="F77" s="18">
         <v>2019.15991210937</v>
       </c>
-      <c r="F77" s="18">
-        <f t="shared" si="7"/>
-        <v>2093.0045224047949</v>
-      </c>
-      <c r="H77" s="18">
+      <c r="G77" s="18"/>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.88933191441967829</v>
+      </c>
+      <c r="J77" s="4">
+        <v>0.97119500744358966</v>
+      </c>
+      <c r="K77" s="4">
+        <v>0.71522842488098948</v>
+      </c>
+      <c r="L77" s="4">
+        <v>0.48321978653063347</v>
+      </c>
+      <c r="M77" s="16">
         <v>2019.15991210937</v>
       </c>
-      <c r="I77">
-        <v>3</v>
-      </c>
-      <c r="J77" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.51530563364875448</v>
-      </c>
-      <c r="K77" s="4">
-        <v>0.97119500744358966</v>
-      </c>
-      <c r="L77" s="4">
-        <v>0.71522842488098948</v>
-      </c>
-      <c r="M77" s="4">
-        <v>0.48321978653063347</v>
-      </c>
-      <c r="N77" s="4">
-        <f t="shared" si="6"/>
-        <v>2023.0135681788101</v>
-      </c>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>107</v>
       </c>
       <c r="B78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="C78">
         <v>76</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D78" s="18">
+        <f t="shared" si="5"/>
+        <v>2217.461047814983</v>
+      </c>
+      <c r="E78" s="18">
         <v>2194.16237548038</v>
       </c>
-      <c r="E78" s="20">
+      <c r="F78" s="18">
         <v>2194.4295654296802</v>
       </c>
-      <c r="F78" s="18">
-        <f t="shared" si="7"/>
-        <v>2217.461047814983</v>
-      </c>
-      <c r="H78" s="18">
+      <c r="G78" s="18"/>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78" s="4">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.15904192535155481</v>
+      </c>
+      <c r="J78" s="4">
+        <v>0.52211652903954087</v>
+      </c>
+      <c r="K78" s="4">
+        <v>0.66645910670098163</v>
+      </c>
+      <c r="L78" s="4">
+        <v>0.70543357506788551</v>
+      </c>
+      <c r="M78" s="16">
         <v>2194.4295654296802</v>
       </c>
-      <c r="I78">
-        <v>3</v>
-      </c>
-      <c r="J78" s="4">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.57960266638222235</v>
-      </c>
-      <c r="K78" s="4">
-        <v>0.52211652903954087</v>
-      </c>
-      <c r="L78" s="4">
-        <v>0.66645910670098163</v>
-      </c>
-      <c r="M78" s="4">
-        <v>0.70543357506788551</v>
-      </c>
-      <c r="N78" s="4">
-        <f t="shared" si="6"/>
-        <v>2194.2959704550303</v>
-      </c>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-    </row>
-    <row r="79" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="24" t="s">
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+    </row>
+    <row r="79" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="24">
-        <f t="shared" si="4"/>
+      <c r="B79" s="14">
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="C79" s="24">
+      <c r="C79" s="14">
         <v>77</v>
       </c>
-      <c r="D79" s="25">
+      <c r="D79" s="19">
+        <f t="shared" si="5"/>
+        <v>2349.318143339267</v>
+      </c>
+      <c r="E79" s="19">
         <v>2217.4604682823601</v>
       </c>
-      <c r="E79" s="26">
+      <c r="F79" s="19">
         <v>2217.46044921875</v>
       </c>
-      <c r="F79" s="27">
-        <f t="shared" si="7"/>
-        <v>2349.318143339267</v>
-      </c>
-      <c r="G79" s="28">
+      <c r="G79" s="19">
         <v>2305</v>
       </c>
-      <c r="H79" s="27">
+      <c r="H79" s="14">
+        <v>3</v>
+      </c>
+      <c r="I79" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.57494488276184419</v>
+      </c>
+      <c r="J79" s="15">
+        <v>0.95623160343086033</v>
+      </c>
+      <c r="K79" s="15">
+        <v>0.40105748538528363</v>
+      </c>
+      <c r="L79" s="15">
+        <v>0.19704191396058779</v>
+      </c>
+      <c r="M79" s="17">
         <v>2305</v>
       </c>
-      <c r="I79" s="24">
-        <v>3</v>
-      </c>
-      <c r="J79" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.74578457775441431</v>
-      </c>
-      <c r="K79" s="29">
-        <v>0.95623160343086033</v>
-      </c>
-      <c r="L79" s="29">
-        <v>0.40105748538528363</v>
-      </c>
-      <c r="M79" s="29">
-        <v>0.19704191396058779</v>
-      </c>
-      <c r="N79" s="29">
-        <f t="shared" si="6"/>
-        <v>2217.4604587505551</v>
-      </c>
-      <c r="O79" s="29"/>
-      <c r="P79" s="29"/>
-    </row>
-    <row r="80" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="24" t="s">
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+    </row>
+    <row r="80" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B80" s="24">
-        <f t="shared" si="4"/>
+      <c r="B80" s="14">
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="C80" s="24">
+      <c r="C80" s="14">
         <v>78</v>
       </c>
-      <c r="D80" s="25">
+      <c r="D80" s="19">
+        <f t="shared" si="5"/>
+        <v>2489.0158697766542</v>
+      </c>
+      <c r="E80" s="19">
         <v>2217.4604544161198</v>
       </c>
-      <c r="E80" s="26">
+      <c r="F80" s="19">
         <v>2217.46044921875</v>
       </c>
-      <c r="F80" s="27">
-        <f t="shared" si="7"/>
-        <v>2489.0158697766542</v>
-      </c>
-      <c r="G80" s="28">
+      <c r="G80" s="19">
         <v>2485</v>
       </c>
-      <c r="H80" s="27">
+      <c r="H80" s="14">
+        <v>3</v>
+      </c>
+      <c r="I80" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.64595248312266351</v>
+      </c>
+      <c r="J80" s="15">
+        <v>0.45354809280436537</v>
+      </c>
+      <c r="K80" s="15">
+        <v>0.83723158142108645</v>
+      </c>
+      <c r="L80" s="15">
+        <v>0.78865301281529998</v>
+      </c>
+      <c r="M80" s="17">
         <v>2485</v>
       </c>
-      <c r="I80" s="24">
-        <v>3</v>
-      </c>
-      <c r="J80" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.8819361738308531</v>
-      </c>
-      <c r="K80" s="29">
-        <v>0.45354809280436537</v>
-      </c>
-      <c r="L80" s="29">
-        <v>0.83723158142108645</v>
-      </c>
-      <c r="M80" s="29">
-        <v>0.78865301281529998</v>
-      </c>
-      <c r="N80" s="29">
-        <v>2428.754050501625</v>
-      </c>
-      <c r="O80" s="29"/>
-      <c r="P80" s="29"/>
-    </row>
-    <row r="81" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="24" t="s">
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+    </row>
+    <row r="81" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B81" s="24">
-        <f t="shared" si="4"/>
+      <c r="B81" s="14">
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="C81" s="24">
+      <c r="C81" s="14">
         <v>79</v>
       </c>
-      <c r="D81" s="25">
+      <c r="D81" s="19">
+        <f t="shared" si="5"/>
+        <v>2637.0204553029671</v>
+      </c>
+      <c r="E81" s="19">
         <v>2217.46044787558</v>
       </c>
-      <c r="E81" s="26">
+      <c r="F81" s="19">
         <v>2217.46044921875</v>
       </c>
-      <c r="F81" s="27">
-        <f t="shared" si="7"/>
-        <v>2637.0204553029671</v>
-      </c>
-      <c r="G81" s="28">
+      <c r="G81" s="19">
         <v>2615</v>
       </c>
-      <c r="H81" s="27">
+      <c r="H81" s="14">
+        <v>3</v>
+      </c>
+      <c r="I81" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.84245129335105118</v>
+      </c>
+      <c r="J81" s="15">
+        <v>0.75719309588544415</v>
+      </c>
+      <c r="K81" s="15">
+        <v>6.0663882198474739E-2</v>
+      </c>
+      <c r="L81" s="15">
+        <v>0.54203132431343615</v>
+      </c>
+      <c r="M81" s="17">
         <v>2615</v>
       </c>
-      <c r="I81" s="24">
-        <v>3</v>
-      </c>
-      <c r="J81" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.29354507077781411</v>
-      </c>
-      <c r="K81" s="29">
-        <v>0.75719309588544415</v>
-      </c>
-      <c r="L81" s="29">
-        <v>6.0663882198474739E-2</v>
-      </c>
-      <c r="M81" s="29">
-        <v>0.54203132431343615</v>
-      </c>
-      <c r="N81" s="29">
-        <v>2541.7631271921573</v>
-      </c>
-      <c r="O81" s="29"/>
-      <c r="P81" s="29"/>
-    </row>
-    <row r="82" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="24" t="s">
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+    </row>
+    <row r="82" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="24">
-        <f t="shared" si="4"/>
+      <c r="B82" s="14">
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
-      <c r="C82" s="24">
+      <c r="C82" s="14">
         <v>80</v>
       </c>
-      <c r="D82" s="25">
+      <c r="D82" s="19">
+        <f t="shared" si="5"/>
+        <v>2793.8258514640393</v>
+      </c>
+      <c r="E82" s="19">
         <v>2217.4604514952198</v>
       </c>
-      <c r="E82" s="26">
+      <c r="F82" s="19">
         <v>2217.46044921875</v>
       </c>
-      <c r="F82" s="27">
-        <f t="shared" si="7"/>
-        <v>2793.8258514640393</v>
-      </c>
-      <c r="G82" s="28">
+      <c r="G82" s="19">
         <v>2752</v>
       </c>
-      <c r="H82" s="27">
+      <c r="H82" s="14">
+        <v>3</v>
+      </c>
+      <c r="I82" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.18981694187374598</v>
+      </c>
+      <c r="J82" s="15">
+        <v>0.84627429963901324</v>
+      </c>
+      <c r="K82" s="15">
+        <v>0.87050559748462075</v>
+      </c>
+      <c r="L82" s="15">
+        <v>0.38138846210217769</v>
+      </c>
+      <c r="M82" s="17">
         <v>2752</v>
       </c>
-      <c r="I82" s="24">
-        <v>3</v>
-      </c>
-      <c r="J82" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.32088144759623149</v>
-      </c>
-      <c r="K82" s="29">
-        <v>0.84627429963901324</v>
-      </c>
-      <c r="L82" s="29">
-        <v>0.87050559748462075</v>
-      </c>
-      <c r="M82" s="29">
-        <v>0.38138846210217769</v>
-      </c>
-      <c r="N82" s="29">
-        <v>2733.0735669920664</v>
-      </c>
-      <c r="O82" s="29"/>
-      <c r="P82" s="29"/>
-    </row>
-    <row r="83" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="24" t="s">
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+    </row>
+    <row r="83" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B83" s="24">
-        <f t="shared" si="4"/>
+      <c r="B83" s="14">
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="C83" s="24">
+      <c r="C83" s="14">
         <v>81</v>
       </c>
-      <c r="D83" s="25">
+      <c r="D83" s="19">
+        <f t="shared" si="5"/>
+        <v>2959.9553816930838</v>
+      </c>
+      <c r="E83" s="19">
         <v>2217.46041135818</v>
       </c>
-      <c r="E83" s="26">
+      <c r="F83" s="19">
         <v>2217.46044921875</v>
       </c>
-      <c r="F83" s="27">
-        <f t="shared" si="7"/>
-        <v>2959.9553816930838</v>
-      </c>
-      <c r="G83" s="28">
+      <c r="G83" s="19">
         <v>2925</v>
       </c>
-      <c r="H83" s="27">
+      <c r="H83" s="14">
+        <v>3</v>
+      </c>
+      <c r="I83" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.2813829696182043</v>
+      </c>
+      <c r="J83" s="15">
+        <v>0.50928280494223221</v>
+      </c>
+      <c r="K83" s="15">
+        <v>0.79948145667057235</v>
+      </c>
+      <c r="L83" s="15">
+        <v>0.32567084905121479</v>
+      </c>
+      <c r="M83" s="17">
         <v>2925</v>
       </c>
-      <c r="I83" s="24">
-        <v>3</v>
-      </c>
-      <c r="J83" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.2902689823480324E-2</v>
-      </c>
-      <c r="K83" s="29">
-        <v>0.50928280494223221</v>
-      </c>
-      <c r="L83" s="29">
-        <v>0.79948145667057235</v>
-      </c>
-      <c r="M83" s="29">
-        <v>0.32567084905121479</v>
-      </c>
-      <c r="N83" s="29">
-        <v>2868.128608396134</v>
-      </c>
-      <c r="O83" s="29"/>
-      <c r="P83" s="29"/>
-    </row>
-    <row r="84" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="24" t="s">
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+    </row>
+    <row r="84" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="24">
-        <f t="shared" si="4"/>
+      <c r="B84" s="14">
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="C84" s="24">
+      <c r="C84" s="14">
         <v>82</v>
       </c>
-      <c r="D84" s="25">
+      <c r="D84" s="19">
+        <f t="shared" si="5"/>
+        <v>3135.9634878540037</v>
+      </c>
+      <c r="E84" s="19">
         <v>2217.4604174123201</v>
       </c>
-      <c r="E84" s="26">
+      <c r="F84" s="19">
         <v>2217.46044921875</v>
       </c>
-      <c r="F84" s="27">
-        <f t="shared" si="7"/>
-        <v>3135.9634878540037</v>
-      </c>
-      <c r="G84" s="28">
+      <c r="G84" s="19">
         <v>3075</v>
       </c>
-      <c r="H84" s="27">
+      <c r="H84" s="14">
+        <v>3</v>
+      </c>
+      <c r="I84" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.2445186007073965E-2</v>
+      </c>
+      <c r="J84" s="15">
+        <v>0.85529069266003699</v>
+      </c>
+      <c r="K84" s="15">
+        <v>0.81499550217740224</v>
+      </c>
+      <c r="L84" s="15">
+        <v>0.51288849882731657</v>
+      </c>
+      <c r="M84" s="17">
         <v>3075</v>
       </c>
-      <c r="I84" s="24">
-        <v>3</v>
-      </c>
-      <c r="J84" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.29408311391066022</v>
-      </c>
-      <c r="K84" s="29">
-        <v>0.85529069266003699</v>
-      </c>
-      <c r="L84" s="29">
-        <v>0.81499550217740224</v>
-      </c>
-      <c r="M84" s="29">
-        <v>0.51288849882731657</v>
-      </c>
-      <c r="N84" s="29">
-        <v>3062.8807130598752</v>
-      </c>
-      <c r="O84" s="29"/>
-      <c r="P84" s="29"/>
-    </row>
-    <row r="85" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="24" t="s">
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+    </row>
+    <row r="85" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B85" s="24">
-        <f t="shared" si="4"/>
+      <c r="B85" s="14">
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
-      <c r="C85" s="24">
+      <c r="C85" s="14">
         <v>83</v>
       </c>
-      <c r="D85" s="25">
+      <c r="D85" s="19">
+        <f t="shared" si="5"/>
+        <v>3322.437580639571</v>
+      </c>
+      <c r="E85" s="19">
         <v>2217.4604443769199</v>
       </c>
-      <c r="E85" s="26">
+      <c r="F85" s="19">
         <v>2217.46044921875</v>
       </c>
-      <c r="F85" s="27">
-        <f t="shared" si="7"/>
-        <v>3322.437580639571</v>
-      </c>
-      <c r="G85" s="28">
+      <c r="G85" s="19">
         <v>3285</v>
       </c>
-      <c r="H85" s="27">
+      <c r="H85" s="14">
+        <v>3</v>
+      </c>
+      <c r="I85" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.18919953648027532</v>
+      </c>
+      <c r="J85" s="15">
+        <v>0.84761148551526466</v>
+      </c>
+      <c r="K85" s="15">
+        <v>0.19754803058005188</v>
+      </c>
+      <c r="L85" s="15">
+        <v>3.8087411755016731E-2</v>
+      </c>
+      <c r="M85" s="17">
         <v>3285</v>
       </c>
-      <c r="I85" s="24">
-        <v>3</v>
-      </c>
-      <c r="J85" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.76939827250740223</v>
-      </c>
-      <c r="K85" s="29">
-        <v>0.84761148551526466</v>
-      </c>
-      <c r="L85" s="29">
-        <v>0.19754803058005188</v>
-      </c>
-      <c r="M85" s="29">
-        <v>3.8087411755016731E-2</v>
-      </c>
-      <c r="N85" s="29">
-        <v>3259.6497334696382</v>
-      </c>
-      <c r="O85" s="29"/>
-      <c r="P85" s="29"/>
-    </row>
-    <row r="86" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="24" t="s">
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+    </row>
+    <row r="86" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B86" s="24">
-        <f t="shared" si="4"/>
+      <c r="B86" s="14">
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="C86" s="24">
+      <c r="C86" s="14">
         <v>84</v>
       </c>
-      <c r="D86" s="25">
+      <c r="D86" s="19">
+        <f t="shared" si="5"/>
+        <v>3520.0000000000105</v>
+      </c>
+      <c r="E86" s="19">
         <v>2217.46026782433</v>
       </c>
-      <c r="E86" s="26">
+      <c r="F86" s="19">
         <v>2217.46020507812</v>
       </c>
-      <c r="F86" s="27">
-        <f t="shared" si="7"/>
-        <v>3520.0000000000105</v>
-      </c>
-      <c r="G86" s="28">
+      <c r="G86" s="19">
         <v>3455</v>
       </c>
-      <c r="H86" s="27">
+      <c r="H86" s="14">
+        <v>3</v>
+      </c>
+      <c r="I86" s="15">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.31705658720043317</v>
+      </c>
+      <c r="J86" s="15">
+        <v>7.1234154753825774E-2</v>
+      </c>
+      <c r="K86" s="15">
+        <v>0.82233242992308864</v>
+      </c>
+      <c r="L86" s="15">
+        <v>0.86050295239688057</v>
+      </c>
+      <c r="M86" s="17">
         <v>3455</v>
       </c>
-      <c r="I86" s="24">
-        <v>3</v>
-      </c>
-      <c r="J86" s="29">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.54218236029840072</v>
-      </c>
-      <c r="K86" s="29">
-        <v>7.1234154753825774E-2</v>
-      </c>
-      <c r="L86" s="29">
-        <v>0.82233242992308864</v>
-      </c>
-      <c r="M86" s="29">
-        <v>0.86050295239688057</v>
-      </c>
-      <c r="N86" s="29">
-        <v>3454.1176572876311</v>
-      </c>
-      <c r="O86" s="29"/>
-      <c r="P86" s="29"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="N2 N3:N46 N47:N71" formulaRange="1"/>
-  </ignoredErrors>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D71C92-915A-4713-B28D-88E73CAD541C}">
-  <dimension ref="A1:C85"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="3" width="21" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23">
-        <v>2.84610115070944E+16</v>
-      </c>
-      <c r="C1" s="23">
-        <v>302937068939209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23">
-        <v>3356543626243240</v>
-      </c>
-      <c r="C2" s="23">
-        <v>3398933410644530</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23">
-        <v>3.22444836250786E+16</v>
-      </c>
-      <c r="C3" s="23">
-        <v>3.07800912857055E+16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="23">
-        <v>3.26393362828057E+16</v>
-      </c>
-      <c r="C4" s="23">
-        <v>3.2534324645996E+16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="23">
-        <v>3.27227019146422E+16</v>
-      </c>
-      <c r="C5" s="23">
-        <v>3270402526855460</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="23">
-        <v>3654969677446720</v>
-      </c>
-      <c r="C6" s="23">
-        <v>3650720405578610</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="23">
-        <v>3.8820896733501504E+16</v>
-      </c>
-      <c r="C7" s="23">
-        <v>3864669418334960</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="23">
-        <v>4060258841337120</v>
-      </c>
-      <c r="C8" s="23">
-        <v>4072261428833000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="23">
-        <v>4273343619856630</v>
-      </c>
-      <c r="C9" s="23">
-        <v>4290213394165030</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="23">
-        <v>4600209907153430</v>
-      </c>
-      <c r="C10" s="23">
-        <v>460251579284668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="23">
-        <v>4638595989495030</v>
-      </c>
-      <c r="C11" s="23">
-        <v>4.6516143798828096E+16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="23">
-        <v>5.1683609269622E+16</v>
-      </c>
-      <c r="C12" s="23">
-        <v>5162831497192380</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="23">
-        <v>5.45631797994996E+16</v>
-      </c>
-      <c r="C13" s="23">
-        <v>5468308639526360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="23">
-        <v>5.66062486521634E+16</v>
-      </c>
-      <c r="C14" s="23">
-        <v>5661241149902340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="23">
-        <v>6046137130978030</v>
-      </c>
-      <c r="C15" s="23">
-        <v>6.0653106689453104E+16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="23">
-        <v>6362293758635380</v>
-      </c>
-      <c r="C16" s="23">
-        <v>6390252685546870</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="23">
-        <v>6748873820420600</v>
-      </c>
-      <c r="C17" s="23">
-        <v>6769181823730460</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="23">
-        <v>7121555778856800</v>
-      </c>
-      <c r="C18" s="23">
-        <v>7132976531982420</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="23">
-        <v>7549157238978780</v>
-      </c>
-      <c r="C19" s="23">
-        <v>7560643768310540</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="23">
-        <v>8034057889864280</v>
-      </c>
-      <c r="C20" s="23">
-        <v>805254135131836</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="23">
-        <v>8478677067015930</v>
-      </c>
-      <c r="C21" s="23">
-        <v>848227310180664</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="23">
-        <v>9015937173906650</v>
-      </c>
-      <c r="C22" s="23">
-        <v>903798599243164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="23">
-        <v>9554802331708390</v>
-      </c>
-      <c r="C23" s="23">
-        <v>9576017761230460</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="23">
-        <v>1.01323159169224E+16</v>
-      </c>
-      <c r="C24" s="23">
-        <v>101463134765625</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="23">
-        <v>1.07349543359595E+16</v>
-      </c>
-      <c r="C25" s="23">
-        <v>1.07489639282226E+16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="23">
-        <v>1.13665196757794E+16</v>
-      </c>
-      <c r="C26" s="23">
-        <v>1.13878990173339E+16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="23">
-        <v>1.20527151675685E+16</v>
-      </c>
-      <c r="C27" s="23">
-        <v>1.20647888183593E+16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="23">
-        <v>1.26906980099261E+16</v>
-      </c>
-      <c r="C28" s="23">
-        <v>1.27106117248535E+16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="23">
-        <v>1.35562286723393E+16</v>
-      </c>
-      <c r="C29" s="23">
-        <v>1.36192443847656E+16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="23">
-        <v>1.43245438839008E+16</v>
-      </c>
-      <c r="C30" s="23">
-        <v>1434941177368160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="23">
-        <v>1.48905592670101E+16</v>
-      </c>
-      <c r="C31" s="23">
-        <v>1.49350601196289E+16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="23">
-        <v>1.59043052892931E+16</v>
-      </c>
-      <c r="C32" s="23">
-        <v>1.59629768371582E+16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="23">
-        <v>1687889856861630</v>
-      </c>
-      <c r="C33" s="23">
-        <v>1.69644348144531E+16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="23">
-        <v>1.77275141017413E+16</v>
-      </c>
-      <c r="C34" s="23">
-        <v>1776732940673820</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="23">
-        <v>1.89482930554541E+16</v>
-      </c>
-      <c r="C35" s="23">
-        <v>1904019012451170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="23">
-        <v>1997227642256850</v>
-      </c>
-      <c r="C36" s="23">
-        <v>2005772247314450</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="23">
-        <v>2.12613506546143E+16</v>
-      </c>
-      <c r="C37" s="23">
-        <v>2.13735321044921E+16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="23">
-        <v>2.25407100915291E+16</v>
-      </c>
-      <c r="C38" s="23">
-        <v>2.26460876464843E+16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="23">
-        <v>2.394065747778E+16</v>
-      </c>
-      <c r="C39" s="23">
-        <v>2.39990730285644E+16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="23">
-        <v>2506629831056370</v>
-      </c>
-      <c r="C40" s="23">
-        <v>2.51443443298339E+16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="23">
-        <v>2688549374480070</v>
-      </c>
-      <c r="C41" s="23">
-        <v>2707604064941400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="23">
-        <v>2810441083281550</v>
-      </c>
-      <c r="C42" s="23">
-        <v>282017822265625</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="23">
-        <v>2988816164408680</v>
-      </c>
-      <c r="C43" s="23">
-        <v>3005947723388670</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="23">
-        <v>3.11438703083914E+16</v>
-      </c>
-      <c r="C44" s="23">
-        <v>3.12967956542968E+16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="23">
-        <v>3.3809395069245E+16</v>
-      </c>
-      <c r="C45" s="23">
-        <v>3411261291503900</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="23">
-        <v>3.57685856183369E+16</v>
-      </c>
-      <c r="C46" s="23">
-        <v>3.59423645019531E+16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="23">
-        <v>3799419929090820</v>
-      </c>
-      <c r="C47" s="23">
-        <v>3.8088848876953104E+16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="23">
-        <v>4.00504885492972E+16</v>
-      </c>
-      <c r="C48" s="23">
-        <v>4013431396484370</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="23">
-        <v>4211817165646350</v>
-      </c>
-      <c r="C49" s="23">
-        <v>422569091796875</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="23">
-        <v>4.46756477361898E+16</v>
-      </c>
-      <c r="C50" s="23">
-        <v>4.50223815917968E+16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="23">
-        <v>4767848343776500</v>
-      </c>
-      <c r="C51" s="23">
-        <v>4783959655761710</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="23">
-        <v>502944324093918</v>
-      </c>
-      <c r="C52" s="23">
-        <v>5053304748535150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="23">
-        <v>515406202324</v>
-      </c>
-      <c r="C53" s="23">
-        <v>5172646179199210</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" s="23">
-        <v>5459524332169960</v>
-      </c>
-      <c r="C54" s="23">
-        <v>5481640625</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="23">
-        <v>5907064959742100</v>
-      </c>
-      <c r="C55" s="23">
-        <v>5943293151855460</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="23">
-        <v>6298638688028820</v>
-      </c>
-      <c r="C56" s="23">
-        <v>6328535766601560</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="23">
-        <v>6641791831464050</v>
-      </c>
-      <c r="C57" s="23">
-        <v>6673604736328120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" s="23">
-        <v>7048781096510580</v>
-      </c>
-      <c r="C58" s="23">
-        <v>7066528930664060</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="23">
-        <v>7465260852742000</v>
-      </c>
-      <c r="C59" s="23">
-        <v>7486408081054680</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" s="23">
-        <v>7982980938272560</v>
-      </c>
-      <c r="C60" s="23">
-        <v>8023562927246090</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="23">
-        <v>8477684923869500</v>
-      </c>
-      <c r="C61" s="23">
-        <v>8498518676757810</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" s="23">
-        <v>9008783274838830</v>
-      </c>
-      <c r="C62" s="23">
-        <v>9050813903808590</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" s="23">
-        <v>9380107960975670</v>
-      </c>
-      <c r="C63" s="23">
-        <v>9427661743164060</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" s="23">
-        <v>1016305562568710</v>
-      </c>
-      <c r="C64" s="23">
-        <v>1.01683023071289E+16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" s="23">
-        <v>1062478216626180</v>
-      </c>
-      <c r="C65" s="23">
-        <v>1064786376953120</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" s="23">
-        <v>1.13452713538358E+16</v>
-      </c>
-      <c r="C66" s="23">
-        <v>1.12865643310546E+16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" s="23">
-        <v>1.20072759153989E+16</v>
-      </c>
-      <c r="C67" s="23">
-        <v>1.20079827880859E+16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" s="23">
-        <v>1294815725109260</v>
-      </c>
-      <c r="C68" s="23">
-        <v>1.28314276123046E+16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" s="23">
-        <v>1.34377235619998E+16</v>
-      </c>
-      <c r="C69" s="23">
-        <v>1341029541015620</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" s="23">
-        <v>1443043466555640</v>
-      </c>
-      <c r="C70" s="23">
-        <v>1.44212908935546E+16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" s="23">
-        <v>1.53374407579119E+16</v>
-      </c>
-      <c r="C71" s="23">
-        <v>1.5324273071289E+16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" s="23">
-        <v>1.54600403588921E+16</v>
-      </c>
-      <c r="C72" s="23">
-        <v>1.60913317871093E+16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" s="23">
-        <v>596112441925555</v>
-      </c>
-      <c r="C73" s="23">
-        <v>5315197143554680</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" s="23">
-        <v>1.79466741458436E+16</v>
-      </c>
-      <c r="C74" s="23">
-        <v>1.82851544189453E+16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" s="23">
-        <v>1.97243525204087E+16</v>
-      </c>
-      <c r="C75" s="23">
-        <v>1.9873062133789E+16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" s="23">
-        <v>2.02686722424825E+16</v>
-      </c>
-      <c r="C76" s="23">
-        <v>2019159912109370</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" s="23">
-        <v>2.19416237548038E+16</v>
-      </c>
-      <c r="C77" s="23">
-        <v>2.19442956542968E+16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" s="23">
-        <v>221746046828236</v>
-      </c>
-      <c r="C78" s="23">
-        <v>221746044921875</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" s="23">
-        <v>2.21746045441612E+16</v>
-      </c>
-      <c r="C79" s="23">
-        <v>221746044921875</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" s="23">
-        <v>2.21746044787558E+16</v>
-      </c>
-      <c r="C80" s="23">
-        <v>221746044921875</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" s="23">
-        <v>2217460451495220</v>
-      </c>
-      <c r="C81" s="23">
-        <v>221746044921875</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" s="23">
-        <v>2217460411358180</v>
-      </c>
-      <c r="C82" s="23">
-        <v>221746044921875</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" s="23">
-        <v>2217460417412320</v>
-      </c>
-      <c r="C83" s="23">
-        <v>221746044921875</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" s="23">
-        <v>2217460444376920</v>
-      </c>
-      <c r="C84" s="23">
-        <v>221746044921875</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" s="23">
-        <v>2.21746026782433E+16</v>
-      </c>
-      <c r="C85" s="23">
-        <v>2217460205078120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pitchTracking/keyData.xlsx
+++ b/pitchTracking/keyData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr codeName="Questa_cartella_di_lavoro"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaco\Desktop\smc8-pm-project\pitchTracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giacomo\Desktop\smc8-pm-project\pitchTracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0A905D-45AC-4DCC-8AC8-27920C7BF958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469334B9-E605-41D9-B62D-F8235EBC7DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keynotes" sheetId="1" r:id="rId1"/>
@@ -408,15 +408,6 @@
     <t>Random</t>
   </si>
   <si>
-    <t>Static r. 1</t>
-  </si>
-  <si>
-    <t>Static r. 2</t>
-  </si>
-  <si>
-    <t>Static r. 3</t>
-  </si>
-  <si>
     <t>Used 1</t>
   </si>
   <si>
@@ -436,6 +427,15 @@
   </si>
   <si>
     <t>Manual</t>
+  </si>
+  <si>
+    <t>Static r. sign</t>
+  </si>
+  <si>
+    <t>Static r. s2</t>
+  </si>
+  <si>
+    <t>Static r. s3</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -592,15 +592,9 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -892,24 +886,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="13" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="7" customWidth="1"/>
-    <col min="17" max="18" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="7" customWidth="1"/>
+    <col min="17" max="18" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -965,7 +960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1006,7 +1001,7 @@
       </c>
       <c r="M2">
         <f ca="1">RAND()</f>
-        <v>0.46277500680221795</v>
+        <v>0.73126642085082016</v>
       </c>
       <c r="N2" s="7">
         <v>0.36363978468860625</v>
@@ -1020,7 +1015,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1061,7 +1056,7 @@
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M66" ca="1" si="5">RAND()</f>
-        <v>0.92431804747435786</v>
+        <v>0.92332058179647825</v>
       </c>
       <c r="N3" s="7">
         <v>0.15453078428827749</v>
@@ -1075,7 +1070,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1116,7 +1111,7 @@
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32697983277875386</v>
+        <v>0.73489580854587089</v>
       </c>
       <c r="N4" s="7">
         <v>0.65252324908191239</v>
@@ -1130,7 +1125,7 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1166,7 @@
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43864780061982211</v>
+        <v>0.6101825713094241</v>
       </c>
       <c r="N5" s="7">
         <v>0.82101361555669505</v>
@@ -1185,7 +1180,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1226,7 +1221,7 @@
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7566709666761029E-2</v>
+        <v>0.47468698415060206</v>
       </c>
       <c r="N6" s="7">
         <v>0.6576754830814584</v>
@@ -1240,7 +1235,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1281,7 +1276,7 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.28792178244591571</v>
+        <v>0.878329610791722</v>
       </c>
       <c r="N7" s="7">
         <v>0.71568519429429844</v>
@@ -1295,7 +1290,7 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1336,7 +1331,7 @@
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88228484317224709</v>
+        <v>0.86720114904474543</v>
       </c>
       <c r="N8" s="7">
         <v>5.2850028046014241E-2</v>
@@ -1350,7 +1345,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1391,7 +1386,7 @@
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17509415777025827</v>
+        <v>0.95694869082145517</v>
       </c>
       <c r="N9" s="7">
         <v>0.21308809860812472</v>
@@ -1405,7 +1400,7 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1446,7 +1441,7 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55680726327551866</v>
+        <v>0.29251839783903122</v>
       </c>
       <c r="N10" s="7">
         <v>0.82709017219206349</v>
@@ -1460,7 +1455,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1500,7 +1495,7 @@
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="5"/>
-        <v>0.53984890583980438</v>
+        <v>0.40444436136020312</v>
       </c>
       <c r="N11" s="7">
         <v>0.31858018787723441</v>
@@ -1514,7 +1509,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1554,7 +1549,7 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56351116408382063</v>
+        <v>0.6380765197971604</v>
       </c>
       <c r="N12" s="7">
         <v>4.9441714832939354E-2</v>
@@ -1568,7 +1563,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1608,7 +1603,7 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27756489539880169</v>
+        <v>0.64702375394969402</v>
       </c>
       <c r="N13" s="7">
         <v>9.0789275175559458E-2</v>
@@ -1622,7 +1617,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1662,7 +1657,7 @@
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49232810965764784</v>
+        <v>0.20507065812132852</v>
       </c>
       <c r="N14" s="7">
         <v>0.31354481400876677</v>
@@ -1676,7 +1671,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1717,7 +1712,7 @@
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="5"/>
-        <v>0.6351096530733622</v>
+        <v>0.21634816403816015</v>
       </c>
       <c r="N15" s="7">
         <v>0.20618208392437076</v>
@@ -1734,7 +1729,7 @@
       </c>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1775,7 +1770,7 @@
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2076998728795889E-2</v>
+        <v>0.74537584075980978</v>
       </c>
       <c r="N16" s="7">
         <v>0.39953080131459351</v>
@@ -1792,7 +1787,7 @@
       </c>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1833,7 +1828,7 @@
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19098954717355165</v>
+        <v>0.76168061378028296</v>
       </c>
       <c r="N17" s="7">
         <v>0.40484968853932757</v>
@@ -1850,7 +1845,7 @@
       </c>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1891,7 +1886,7 @@
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9288859352708968</v>
+        <v>0.87336203031662196</v>
       </c>
       <c r="N18" s="7">
         <v>0.33741213629515332</v>
@@ -1908,7 +1903,7 @@
       </c>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1949,7 +1944,7 @@
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85197763099716151</v>
+        <v>0.26171776991655926</v>
       </c>
       <c r="N19" s="7">
         <v>0.27644326351109294</v>
@@ -1966,7 +1961,7 @@
       </c>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2007,7 +2002,7 @@
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15982107057080774</v>
+        <v>0.58279630878838384</v>
       </c>
       <c r="N20" s="7">
         <v>0.95355225691916257</v>
@@ -2024,7 +2019,7 @@
       </c>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2065,7 +2060,7 @@
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29873389823458174</v>
+        <v>0.37492503151226886</v>
       </c>
       <c r="N21" s="7">
         <v>0.49780031450639206</v>
@@ -2082,7 +2077,7 @@
       </c>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2123,7 +2118,7 @@
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38759034524084479</v>
+        <v>0.37366874203375178</v>
       </c>
       <c r="N22" s="7">
         <v>0.99777944707987265</v>
@@ -2140,7 +2135,7 @@
       </c>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2181,7 +2176,7 @@
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89788178764427573</v>
+        <v>0.80587033236573657</v>
       </c>
       <c r="N23" s="7">
         <v>0.34133183575900727</v>
@@ -2198,7 +2193,7 @@
       </c>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -2239,7 +2234,7 @@
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66104965338132582</v>
+        <v>0.40236277295173606</v>
       </c>
       <c r="N24" s="7">
         <v>0.53002196191416406</v>
@@ -2256,7 +2251,7 @@
       </c>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -2297,7 +2292,7 @@
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16096023412017813</v>
+        <v>0.81740970965700188</v>
       </c>
       <c r="N25" s="7">
         <v>0.59781950223764457</v>
@@ -2314,7 +2309,7 @@
       </c>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2355,7 +2350,7 @@
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6349630256596979E-2</v>
+        <v>0.81960474661269145</v>
       </c>
       <c r="N26" s="7">
         <v>0.35425136900246146</v>
@@ -2372,7 +2367,7 @@
       </c>
       <c r="R26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2413,7 +2408,7 @@
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30487206520148813</v>
+        <v>0.67302537548414565</v>
       </c>
       <c r="N27" s="7">
         <v>0.87052133070268678</v>
@@ -2430,7 +2425,7 @@
       </c>
       <c r="R27" s="5"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2471,7 +2466,7 @@
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56880391159794963</v>
+        <v>0.52940862330990357</v>
       </c>
       <c r="N28" s="7">
         <v>0.85666535883446049</v>
@@ -2488,7 +2483,7 @@
       </c>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -2529,7 +2524,7 @@
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.743661275317548</v>
+        <v>0.46385161955443166</v>
       </c>
       <c r="N29" s="7">
         <v>0.40060425890931561</v>
@@ -2546,7 +2541,7 @@
       </c>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2587,7 +2582,7 @@
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.78763468391987701</v>
+        <v>0.19940240518444341</v>
       </c>
       <c r="N30" s="7">
         <v>0.32058727942291576</v>
@@ -2604,7 +2599,7 @@
       </c>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -2645,7 +2640,7 @@
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.53880133217567494</v>
+        <v>0.59822918908226841</v>
       </c>
       <c r="N31" s="7">
         <v>0.13760252597132794</v>
@@ -2662,7 +2657,7 @@
       </c>
       <c r="R31" s="5"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2704,7 +2699,7 @@
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29727657819190778</v>
+        <v>0.45117294400106611</v>
       </c>
       <c r="N32" s="7">
         <v>0.11275382012540103</v>
@@ -2724,7 +2719,7 @@
         <v>19.000791990172736</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -2766,7 +2761,7 @@
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25060273146690959</v>
+        <v>0.61140586506879602</v>
       </c>
       <c r="N33" s="7">
         <v>0.70878438486920547</v>
@@ -2786,7 +2781,7 @@
         <v>-23.20143380233943</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -2828,7 +2823,7 @@
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86721505799162635</v>
+        <v>4.3319961412531027E-2</v>
       </c>
       <c r="N34" s="7">
         <v>0.61992022851264861</v>
@@ -2848,7 +2843,7 @@
         <v>-22.686330563444084</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -2890,7 +2885,7 @@
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47612184069037644</v>
+        <v>0.27217187496970985</v>
       </c>
       <c r="N35" s="7">
         <v>0.30876621929633052</v>
@@ -2910,7 +2905,7 @@
         <v>19.809427244433905</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -2952,7 +2947,7 @@
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88539621800811208</v>
+        <v>0.67314952913517312</v>
       </c>
       <c r="N36" s="7">
         <v>0.63337685198477589</v>
@@ -2972,7 +2967,7 @@
         <v>-23.206392636476302</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -3014,7 +3009,7 @@
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.98887764462836036</v>
+        <v>0.76374804610300229</v>
       </c>
       <c r="N37" s="7">
         <v>0.58308396017811348</v>
@@ -3034,7 +3029,7 @@
         <v>19.702538301510533</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -3076,7 +3071,7 @@
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.70500360144720564</v>
+        <v>0.78485931652611507</v>
       </c>
       <c r="N38" s="7">
         <v>0.45021574197405823</v>
@@ -3096,7 +3091,7 @@
         <v>15.190955958716536</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -3138,7 +3133,7 @@
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88102006719317083</v>
+        <v>0.97900867040467587</v>
       </c>
       <c r="N39" s="7">
         <v>0.2205184932163673</v>
@@ -3158,7 +3153,7 @@
         <v>15.470927000363744</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -3200,7 +3195,7 @@
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6853738028367315E-2</v>
+        <v>0.71783789343376592</v>
       </c>
       <c r="N40" s="7">
         <v>0.30204449462085692</v>
@@ -3220,7 +3215,7 @@
         <v>16.039366712003844</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -3262,7 +3257,7 @@
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.87276635977369843</v>
+        <v>0.33098680820829074</v>
       </c>
       <c r="N41" s="7">
         <v>0.96960269632308016</v>
@@ -3282,7 +3277,7 @@
         <v>-21.148705066683753</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -3324,7 +3319,7 @@
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75394951572554803</v>
+        <v>0.43718325515136192</v>
       </c>
       <c r="N42" s="7">
         <v>0.64894817609047195</v>
@@ -3344,7 +3339,7 @@
         <v>-21.904615346863963</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -3386,7 +3381,7 @@
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42525611619219128</v>
+        <v>0.39492681371595029</v>
       </c>
       <c r="N43" s="7">
         <v>0.9671384975591113</v>
@@ -3406,7 +3401,7 @@
         <v>-24.289514193051559</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -3448,7 +3443,7 @@
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.91671861849338088</v>
+        <v>0.52651396605504386</v>
       </c>
       <c r="N44" s="7">
         <v>0.16728056449427242</v>
@@ -3468,7 +3463,7 @@
         <v>17.798638862946298</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -3510,7 +3505,7 @@
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7609574203229412E-2</v>
+        <v>0.9514759663702147</v>
       </c>
       <c r="N45" s="7">
         <v>0.97014034368482205</v>
@@ -3530,7 +3525,7 @@
         <v>19.035441006955725</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -3572,7 +3567,7 @@
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21631753712688939</v>
+        <v>0.2126554036974686</v>
       </c>
       <c r="N46" s="7">
         <v>0.14184237276812373</v>
@@ -3592,7 +3587,7 @@
         <v>15.483065206801989</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -3634,7 +3629,7 @@
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45885688491107801</v>
+        <v>0.83630232507217483</v>
       </c>
       <c r="N47" s="7">
         <v>0.87369324209203869</v>
@@ -3654,7 +3649,7 @@
         <v>-21.354748344626351</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -3696,7 +3691,7 @@
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13461334625592702</v>
+        <v>0.55347392489303282</v>
       </c>
       <c r="N48" s="7">
         <v>0.23215110927673421</v>
@@ -3716,7 +3711,7 @@
         <v>19.632476224484549</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -3758,7 +3753,7 @@
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24943907202374105</v>
+        <v>0.34346642079051448</v>
       </c>
       <c r="N49" s="7">
         <v>0.41140424416952115</v>
@@ -3778,7 +3773,7 @@
         <v>-24.739101260204862</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -3819,7 +3814,7 @@
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7427970969002873E-3</v>
+        <v>0.34149817335925448</v>
       </c>
       <c r="N50" s="7">
         <v>0.45922463930133517</v>
@@ -3839,7 +3834,7 @@
         <v>-21.047877684432081</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -3881,7 +3876,7 @@
       </c>
       <c r="M51">
         <f t="shared" ca="1" si="5"/>
-        <v>0.96306409581812713</v>
+        <v>3.085478977503886E-3</v>
       </c>
       <c r="N51" s="7">
         <v>0.27298193365189094</v>
@@ -3901,7 +3896,7 @@
         <v>15.109457636400306</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3943,7 +3938,7 @@
       </c>
       <c r="M52">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62250502501913552</v>
+        <v>0.56938472287949771</v>
       </c>
       <c r="N52" s="7">
         <v>0.90367281274799927</v>
@@ -3963,7 +3958,7 @@
         <v>18.384480331190549</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -4005,7 +4000,7 @@
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="5"/>
-        <v>7.4547528787579642E-2</v>
+        <v>0.59528165388428167</v>
       </c>
       <c r="N53" s="7">
         <v>0.33401603606125274</v>
@@ -4025,7 +4020,7 @@
         <v>16.35135534831219</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -4069,7 +4064,7 @@
       </c>
       <c r="M54">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34825096995526683</v>
+        <v>0.95640611367764383</v>
       </c>
       <c r="N54" s="7">
         <v>0.78782993494586073</v>
@@ -4089,7 +4084,7 @@
         <v>-23.486205381060902</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -4131,7 +4126,7 @@
       </c>
       <c r="M55">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90095533704571218</v>
+        <v>0.13450052571454818</v>
       </c>
       <c r="N55" s="7">
         <v>0.32262435562402192</v>
@@ -4151,7 +4146,7 @@
         <v>-21.895943299170032</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -4193,7 +4188,7 @@
       </c>
       <c r="M56">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90260373493146384</v>
+        <v>8.0094007919432886E-2</v>
       </c>
       <c r="N56" s="7">
         <v>0.91897761332231853</v>
@@ -4213,7 +4208,7 @@
         <v>17.230114081152323</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -4255,7 +4250,7 @@
       </c>
       <c r="M57">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13257448100731106</v>
+        <v>0.57376904018450325</v>
       </c>
       <c r="N57" s="7">
         <v>0.29246561980543551</v>
@@ -4275,7 +4270,7 @@
         <v>16.174680557994332</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -4317,7 +4312,7 @@
       </c>
       <c r="M58">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9230993482971428</v>
+        <v>0.86178274455366655</v>
       </c>
       <c r="N58" s="7">
         <v>0.74772967135635671</v>
@@ -4337,7 +4332,7 @@
         <v>17.264618250940131</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -4379,7 +4374,7 @@
       </c>
       <c r="M59">
         <f t="shared" ca="1" si="5"/>
-        <v>0.92268619945143926</v>
+        <v>0.22674083939010659</v>
       </c>
       <c r="N59" s="7">
         <v>0.69621562359731126</v>
@@ -4399,7 +4394,7 @@
         <v>-22.87241147251018</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -4441,7 +4436,7 @@
       </c>
       <c r="M60">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51271213454905296</v>
+        <v>0.40716780264779762</v>
       </c>
       <c r="N60" s="7">
         <v>0.20909957463594775</v>
@@ -4461,7 +4456,7 @@
         <v>-20.607274614616852</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -4503,7 +4498,7 @@
       </c>
       <c r="M61">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35961630589799076</v>
+        <v>0.88329687486699349</v>
       </c>
       <c r="N61" s="7">
         <v>0.79346297452888637</v>
@@ -4523,7 +4518,7 @@
         <v>-21.225060213401058</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -4565,7 +4560,7 @@
       </c>
       <c r="M62">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67515311304300352</v>
+        <v>0.80083784510169687</v>
       </c>
       <c r="N62" s="7">
         <v>0.31149909990883551</v>
@@ -4585,7 +4580,7 @@
         <v>19.104026757106556</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -4627,7 +4622,7 @@
       </c>
       <c r="M63">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19821032051819509</v>
+        <v>0.92080571534216193</v>
       </c>
       <c r="N63" s="7">
         <v>0.48031537986172113</v>
@@ -4647,7 +4642,7 @@
         <v>16.694735945733452</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -4689,7 +4684,7 @@
       </c>
       <c r="M64">
         <f t="shared" ca="1" si="5"/>
-        <v>8.4397536063867462E-2</v>
+        <v>0.20296753597472572</v>
       </c>
       <c r="N64" s="7">
         <v>0.80102559709529053</v>
@@ -4709,7 +4704,7 @@
         <v>-23.853436370545804</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -4751,7 +4746,7 @@
       </c>
       <c r="M65">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30786109466235045</v>
+        <v>0.11811686512673658</v>
       </c>
       <c r="N65" s="7">
         <v>0.28828332955544012</v>
@@ -4771,7 +4766,7 @@
         <v>15.489667757919886</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -4813,7 +4808,7 @@
       </c>
       <c r="M66">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1937877429155752E-2</v>
+        <v>0.11526385852178922</v>
       </c>
       <c r="N66" s="7">
         <v>0.48899291055505756</v>
@@ -4833,7 +4828,7 @@
         <v>17.840335309199009</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -4875,7 +4870,7 @@
       </c>
       <c r="M67">
         <f t="shared" ref="M67:M72" ca="1" si="15">RAND()</f>
-        <v>0.45239532199237498</v>
+        <v>0.17826430333237075</v>
       </c>
       <c r="N67" s="7">
         <v>0.80047770738788393</v>
@@ -4895,7 +4890,7 @@
         <v>15.07461542189748</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -4937,7 +4932,7 @@
       </c>
       <c r="M68">
         <f t="shared" ca="1" si="15"/>
-        <v>0.35492541732194305</v>
+        <v>0.90884451867690097</v>
       </c>
       <c r="N68" s="7">
         <v>0.46632345703033884</v>
@@ -4957,7 +4952,7 @@
         <v>-20.019970184402801</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -4999,7 +4994,7 @@
       </c>
       <c r="M69">
         <f t="shared" ca="1" si="15"/>
-        <v>0.37821202447177293</v>
+        <v>0.40636210533357975</v>
       </c>
       <c r="N69" s="7">
         <v>0.74207184365936485</v>
@@ -5019,7 +5014,7 @@
         <v>-21.130983766892708</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -5061,7 +5056,7 @@
       </c>
       <c r="M70">
         <f t="shared" ca="1" si="15"/>
-        <v>0.28714147009044133</v>
+        <v>0.12482878777790718</v>
       </c>
       <c r="N70" s="7">
         <v>0.96530053340657029</v>
@@ -5081,7 +5076,7 @@
         <v>-23.271137586411225</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -5123,7 +5118,7 @@
       </c>
       <c r="M71">
         <f t="shared" ca="1" si="15"/>
-        <v>0.8939705141404849</v>
+        <v>0.78240960653617564</v>
       </c>
       <c r="N71" s="7">
         <v>0.12934481239966189</v>
@@ -5143,7 +5138,7 @@
         <v>-20.453013860878407</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -5185,7 +5180,7 @@
       </c>
       <c r="M72">
         <f t="shared" ca="1" si="15"/>
-        <v>0.39280799571750713</v>
+        <v>0.9925039505251273</v>
       </c>
       <c r="N72" s="7">
         <v>0.14921015862555653</v>
@@ -5205,7 +5200,7 @@
         <v>-22.358474643326421</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -5248,7 +5243,7 @@
       </c>
       <c r="M73">
         <f t="shared" ref="M73:M86" ca="1" si="18">RAND()</f>
-        <v>0.98192759913259353</v>
+        <v>0.23245465482951511</v>
       </c>
       <c r="N73" s="7">
         <v>8.1118040046405104E-2</v>
@@ -5268,7 +5263,7 @@
         <v>16.71905717798025</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -5311,7 +5306,7 @@
       </c>
       <c r="M74">
         <f t="shared" ca="1" si="18"/>
-        <v>0.29622927736514193</v>
+        <v>0.31663613560674919</v>
       </c>
       <c r="N74" s="7">
         <v>0.17936155117592445</v>
@@ -5331,7 +5326,7 @@
         <v>-23.222652017163949</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -5374,7 +5369,7 @@
       </c>
       <c r="M75">
         <f t="shared" ca="1" si="18"/>
-        <v>0.76608247341714097</v>
+        <v>0.4195512867206197</v>
       </c>
       <c r="N75" s="7">
         <v>0.39247141670469787</v>
@@ -5394,7 +5389,7 @@
         <v>16.526342051436764</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -5437,7 +5432,7 @@
       </c>
       <c r="M76">
         <f t="shared" ca="1" si="18"/>
-        <v>0.23262995152350663</v>
+        <v>0.90974583686033561</v>
       </c>
       <c r="N76" s="7">
         <v>0.45266156241192723</v>
@@ -5457,7 +5452,7 @@
         <v>-24.424694502792491</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -5500,7 +5495,7 @@
       </c>
       <c r="M77">
         <f t="shared" ca="1" si="18"/>
-        <v>0.74202661954712923</v>
+        <v>0.65128900450675187</v>
       </c>
       <c r="N77" s="7">
         <v>0.16334533433755671</v>
@@ -5520,7 +5515,7 @@
         <v>-22.090141823350425</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -5563,7 +5558,7 @@
       </c>
       <c r="M78">
         <f t="shared" ca="1" si="18"/>
-        <v>0.34452757320938632</v>
+        <v>0.92033298373098671</v>
       </c>
       <c r="N78" s="7">
         <v>0.52468795773904264</v>
@@ -5583,7 +5578,7 @@
         <v>-24.74461529004374</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -5626,7 +5621,7 @@
       </c>
       <c r="M79">
         <f t="shared" ca="1" si="18"/>
-        <v>8.3680340017573851E-2</v>
+        <v>0.65124740714562945</v>
       </c>
       <c r="N79" s="7">
         <v>0.63253074449134639</v>
@@ -5646,7 +5641,7 @@
         <v>-22.325517949177005</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -5689,7 +5684,7 @@
       </c>
       <c r="M80">
         <f t="shared" ca="1" si="18"/>
-        <v>0.96864052748533647</v>
+        <v>0.29525648154782291</v>
       </c>
       <c r="N80" s="7">
         <v>0.69296323757560652</v>
@@ -5709,7 +5704,7 @@
         <v>-24.400981573347948</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -5752,7 +5747,7 @@
       </c>
       <c r="M81">
         <f t="shared" ca="1" si="18"/>
-        <v>0.95166960461340822</v>
+        <v>0.62556894972256261</v>
       </c>
       <c r="N81" s="7">
         <v>0.29589698897676608</v>
@@ -5772,7 +5767,7 @@
         <v>19.946202459054469</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -5815,7 +5810,7 @@
       </c>
       <c r="M82">
         <f t="shared" ca="1" si="18"/>
-        <v>0.11436427859844189</v>
+        <v>0.70200294701690613</v>
       </c>
       <c r="N82" s="7">
         <v>0.77516020799779406</v>
@@ -5835,7 +5830,7 @@
         <v>-23.164896283249412</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -5878,7 +5873,7 @@
       </c>
       <c r="M83">
         <f t="shared" ca="1" si="18"/>
-        <v>0.58796021856342129</v>
+        <v>0.60856855574300595</v>
       </c>
       <c r="N83" s="7">
         <v>0.4658991273440577</v>
@@ -5898,7 +5893,7 @@
         <v>-23.810282954307574</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -5941,7 +5936,7 @@
       </c>
       <c r="M84">
         <f t="shared" ca="1" si="18"/>
-        <v>2.3277562156706177E-2</v>
+        <v>0.33227196325328046</v>
       </c>
       <c r="N84" s="7">
         <v>0.72317574723917522</v>
@@ -5961,7 +5956,7 @@
         <v>-23.258046709938547</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>17</v>
       </c>
@@ -6004,7 +5999,7 @@
       </c>
       <c r="M85">
         <f t="shared" ca="1" si="18"/>
-        <v>0.66345673168701269</v>
+        <v>0.7349536844209017</v>
       </c>
       <c r="N85" s="7">
         <v>0.87006243512491854</v>
@@ -6024,7 +6019,7 @@
         <v>-22.905656479453192</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -6067,7 +6062,7 @@
       </c>
       <c r="M86">
         <f t="shared" ca="1" si="18"/>
-        <v>0.55563374715881397</v>
+        <v>0.29200508659736502</v>
       </c>
       <c r="N86" s="7">
         <v>0.87611417886010456</v>
@@ -6096,79 +6091,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD59DFE-7F75-4DF4-B32D-CE7E758F39E4}">
+  <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P83" sqref="P83"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="20"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:16" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="O1" s="23" t="s">
+      <c r="P1" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -6179,22 +6174,22 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="4">
         <v>27.5</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="4">
         <v>28.461011507094401</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="4">
         <v>30.293706893920898</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="4"/>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" s="4">
         <f ca="1">RAND()</f>
-        <v>0.18918495972502836</v>
+        <v>0.30785226399886945</v>
       </c>
       <c r="J2" s="4">
         <v>0.84478255039968908</v>
@@ -6208,14 +6203,14 @@
       <c r="M2" s="16">
         <v>30.293706893920898</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="18">
         <v>0</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -6226,23 +6221,23 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="4">
         <f>D2*POWER(2,1/12)</f>
         <v>29.13523509488062</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="4">
         <v>33.565436262432399</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="4">
         <v>33.989334106445298</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="4"/>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" ref="I3:I66" ca="1" si="1">RAND()</f>
-        <v>0.42984950482635831</v>
+        <v>0.41323860618686714</v>
       </c>
       <c r="J3" s="4">
         <v>9.5376401867727334E-2</v>
@@ -6256,14 +6251,14 @@
       <c r="M3" s="16">
         <v>33.989334106445298</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="18">
         <v>0</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -6274,23 +6269,23 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="4">
         <f t="shared" ref="D4:D67" si="2">D3*POWER(2,1/12)</f>
         <v>30.867706328507758</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="4">
         <v>32.244483625078601</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="4">
         <v>30.780091285705499</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="4"/>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0029957463632027E-2</v>
+        <v>1.4397880177486999E-2</v>
       </c>
       <c r="J4" s="4">
         <v>0.92406946114126354</v>
@@ -6304,14 +6299,14 @@
       <c r="M4" s="16">
         <v>30.780091285705499</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="18">
         <v>0</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -6322,23 +6317,23 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="4">
         <f t="shared" si="2"/>
         <v>32.703195662574835</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="4">
         <v>32.639336282805701</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="4">
         <v>32.534324645996001</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="4"/>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76830367766828256</v>
+        <v>0.46075537208767003</v>
       </c>
       <c r="J5" s="4">
         <v>0.29549419708826907</v>
@@ -6352,14 +6347,14 @@
       <c r="M5" s="16">
         <v>32.534324645996001</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="18">
         <v>0</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -6370,23 +6365,23 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="4">
         <f t="shared" si="2"/>
         <v>34.647828872109017</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="4">
         <v>32.722701914642201</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="4">
         <v>32.704025268554602</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="4"/>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35157703967032472</v>
+        <v>0.10557690363588834</v>
       </c>
       <c r="J6" s="4">
         <v>2.0883994672800776E-2</v>
@@ -6400,14 +6395,14 @@
       <c r="M6" s="16">
         <v>32.704025268554602</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="18">
         <v>0</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -6418,23 +6413,23 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="4">
         <f t="shared" si="2"/>
         <v>36.708095989675954</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="4">
         <v>36.549696774467201</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="4">
         <v>36.507204055786097</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="4"/>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16941965135218806</v>
+        <v>0.72927749642293038</v>
       </c>
       <c r="J7" s="4">
         <v>0.67383747473272981</v>
@@ -6448,14 +6443,14 @@
       <c r="M7" s="16">
         <v>36.507204055786097</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="18">
         <v>0</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -6466,23 +6461,23 @@
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="4">
         <f t="shared" si="2"/>
         <v>38.890872965260122</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="4">
         <v>38.820896733501499</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="4">
         <v>38.646694183349602</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="4"/>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85064269011271798</v>
+        <v>4.9673308377602532E-2</v>
       </c>
       <c r="J8" s="4">
         <v>0.57851152116751636</v>
@@ -6496,14 +6491,14 @@
       <c r="M8" s="16">
         <v>38.646694183349602</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="18">
         <v>0</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -6514,23 +6509,23 @@
       <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="4">
         <f t="shared" si="2"/>
         <v>41.203444614108754</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="4">
         <v>40.602588413371201</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="4">
         <v>40.72261428833</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="4"/>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76573336177019591</v>
+        <v>0.40151277419715037</v>
       </c>
       <c r="J9" s="4">
         <v>0.185115682007294</v>
@@ -6544,14 +6539,14 @@
       <c r="M9" s="16">
         <v>40.72261428833</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="18">
         <v>0</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -6562,23 +6557,23 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="4">
         <f t="shared" si="2"/>
         <v>43.6535289291255</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="4">
         <v>42.733436198566302</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="4">
         <v>42.902133941650298</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="4"/>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8230277029542679E-2</v>
+        <v>0.64229028621164619</v>
       </c>
       <c r="J10" s="4">
         <v>0.34226794633547597</v>
@@ -6592,14 +6587,14 @@
       <c r="M10" s="16">
         <v>42.902133941650298</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="18">
         <v>0</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -6610,23 +6605,23 @@
       <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="4">
         <f t="shared" si="2"/>
         <v>46.249302838954314</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="4">
         <v>46.002099071534303</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="4">
         <v>46.025157928466797</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="4"/>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33506747023246597</v>
+        <v>0.34874090497548038</v>
       </c>
       <c r="J11" s="4">
         <v>0.38759838177620687</v>
@@ -6640,14 +6635,14 @@
       <c r="M11" s="16">
         <v>46.025157928466797</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="18">
         <v>0</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -6658,23 +6653,23 @@
       <c r="C12">
         <v>10</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="4">
         <f t="shared" si="2"/>
         <v>48.99942949771868</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="4">
         <v>46.385959894950297</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="4">
         <v>46.516143798828097</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="4"/>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31599386517365213</v>
+        <v>0.12609105682957922</v>
       </c>
       <c r="J12" s="4">
         <v>0.66316156876309551</v>
@@ -6688,14 +6683,14 @@
       <c r="M12" s="16">
         <v>46.516143798828097</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="18">
         <v>0</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -6706,23 +6701,23 @@
       <c r="C13">
         <v>11</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="4">
         <f t="shared" si="2"/>
         <v>51.913087197493162</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="4">
         <v>51.683609269622004</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="4">
         <v>51.6283149719238</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="4"/>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47812760991445236</v>
+        <v>0.17110315445013702</v>
       </c>
       <c r="J13" s="4">
         <v>0.45822169274200597</v>
@@ -6736,14 +6731,14 @@
       <c r="M13" s="16">
         <v>51.6283149719238</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="18">
         <v>0</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O13" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -6754,23 +6749,23 @@
       <c r="C14">
         <v>12</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="4">
         <f t="shared" si="2"/>
         <v>55.000000000000021</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="4">
         <v>54.563179799499601</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="4">
         <v>54.683086395263601</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="4"/>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86939958906773585</v>
+        <v>0.14903358385633547</v>
       </c>
       <c r="J14" s="4">
         <v>0.74645793978350128</v>
@@ -6784,14 +6779,14 @@
       <c r="M14" s="16">
         <v>54.683086395263601</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="18">
         <v>0</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -6802,23 +6797,23 @@
       <c r="C15">
         <v>13</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="4">
         <f t="shared" si="2"/>
         <v>58.270470189761262</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="4">
         <v>56.606248652163401</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="4">
         <v>56.612411499023402</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="4"/>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23794622175666658</v>
+        <v>7.6765346933316159E-2</v>
       </c>
       <c r="J15" s="4">
         <v>0.84827896041315631</v>
@@ -6833,11 +6828,11 @@
         <v>56.612411499023402</v>
       </c>
       <c r="N15" s="16"/>
-      <c r="O15" s="21">
+      <c r="O15" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -6848,23 +6843,23 @@
       <c r="C16">
         <v>14</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="4">
         <f t="shared" si="2"/>
         <v>61.735412657015537</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="4">
         <v>60.461371309780297</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="4">
         <v>60.653106689453097</v>
       </c>
-      <c r="G16" s="18"/>
+      <c r="G16" s="4"/>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11790289717131741</v>
+        <v>0.15019521394998292</v>
       </c>
       <c r="J16" s="4">
         <v>0.55153199336734848</v>
@@ -6879,11 +6874,11 @@
         <v>60.653106689453097</v>
       </c>
       <c r="N16" s="16"/>
-      <c r="O16" s="21">
+      <c r="O16" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -6894,23 +6889,23 @@
       <c r="C17">
         <v>15</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="4">
         <f t="shared" si="2"/>
         <v>65.406391325149684</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="4">
         <v>63.6229375863538</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="4">
         <v>63.9025268554687</v>
       </c>
-      <c r="G17" s="18"/>
+      <c r="G17" s="4"/>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20692218120109607</v>
+        <v>0.33987227282644283</v>
       </c>
       <c r="J17" s="4">
         <v>0.63483187984307188</v>
@@ -6925,11 +6920,11 @@
         <v>63.9025268554687</v>
       </c>
       <c r="N17" s="16"/>
-      <c r="O17" s="21">
+      <c r="O17" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -6940,23 +6935,23 @@
       <c r="C18">
         <v>16</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="4">
         <f t="shared" si="2"/>
         <v>69.295657744218047</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="4">
         <v>67.488738204206001</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="4">
         <v>67.691818237304602</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="4"/>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57538774484228639</v>
+        <v>6.728322216169591E-3</v>
       </c>
       <c r="J18" s="4">
         <v>0.14490236805953904</v>
@@ -6971,11 +6966,11 @@
         <v>67.691818237304602</v>
       </c>
       <c r="N18" s="16"/>
-      <c r="O18" s="21">
+      <c r="O18" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -6986,23 +6981,23 @@
       <c r="C19">
         <v>17</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="4">
         <f t="shared" si="2"/>
         <v>73.416191979351922</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="4">
         <v>71.215557788568006</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="4">
         <v>71.329765319824205</v>
       </c>
-      <c r="G19" s="18"/>
+      <c r="G19" s="4"/>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48618460810089725</v>
+        <v>0.42238049822210255</v>
       </c>
       <c r="J19" s="4">
         <v>0.356972934768229</v>
@@ -7017,11 +7012,11 @@
         <v>71.329765319824205</v>
       </c>
       <c r="N19" s="16"/>
-      <c r="O19" s="21">
+      <c r="O19" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -7032,23 +7027,23 @@
       <c r="C20">
         <v>18</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="4">
         <f t="shared" si="2"/>
         <v>77.781745930520259</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="4">
         <v>75.491572389787805</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="4">
         <v>75.606437683105398</v>
       </c>
-      <c r="G20" s="18"/>
+      <c r="G20" s="4"/>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65279329383722962</v>
+        <v>7.3826368252440044E-2</v>
       </c>
       <c r="J20" s="4">
         <v>0.78478193902239712</v>
@@ -7063,11 +7058,11 @@
         <v>75.606437683105398</v>
       </c>
       <c r="N20" s="16"/>
-      <c r="O20" s="21">
+      <c r="O20" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -7078,23 +7073,23 @@
       <c r="C21">
         <v>19</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="4">
         <f t="shared" si="2"/>
         <v>82.406889228217523</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="4">
         <v>80.340578898642804</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="4">
         <v>80.525413513183594</v>
       </c>
-      <c r="G21" s="18"/>
+      <c r="G21" s="4"/>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55147565500561146</v>
+        <v>0.58863592567050427</v>
       </c>
       <c r="J21" s="4">
         <v>0.11332271031710606</v>
@@ -7109,11 +7104,11 @@
         <v>80.525413513183594</v>
       </c>
       <c r="N21" s="16"/>
-      <c r="O21" s="21">
+      <c r="O21" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -7124,23 +7119,23 @@
       <c r="C22">
         <v>20</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="4">
         <f t="shared" si="2"/>
         <v>87.307057858251014</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="4">
         <v>84.786770670159299</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="4">
         <v>84.822731018066406</v>
       </c>
-      <c r="G22" s="18"/>
+      <c r="G22" s="4"/>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56503168895588296</v>
+        <v>0.11539898093710965</v>
       </c>
       <c r="J22" s="4">
         <v>0.31221491944713942</v>
@@ -7155,11 +7150,11 @@
         <v>84.822731018066406</v>
       </c>
       <c r="N22" s="16"/>
-      <c r="O22" s="21">
+      <c r="O22" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -7170,23 +7165,23 @@
       <c r="C23">
         <v>21</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="4">
         <f t="shared" si="2"/>
         <v>92.498605677908643</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="4">
         <v>90.159371739066501</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="4">
         <v>90.379859924316406</v>
       </c>
-      <c r="G23" s="18"/>
+      <c r="G23" s="4"/>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32505638312502294</v>
+        <v>0.29121965199935929</v>
       </c>
       <c r="J23" s="4">
         <v>0.42294804619024018</v>
@@ -7201,11 +7196,11 @@
         <v>90.379859924316406</v>
       </c>
       <c r="N23" s="16"/>
-      <c r="O23" s="21">
+      <c r="O23" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -7216,23 +7211,23 @@
       <c r="C24">
         <v>22</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="4">
         <f t="shared" si="2"/>
         <v>97.998858995437374</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="4">
         <v>95.548023317083903</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="4">
         <v>95.760177612304602</v>
       </c>
-      <c r="G24" s="18"/>
+      <c r="G24" s="4"/>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63863870652399857</v>
+        <v>0.25489071450366263</v>
       </c>
       <c r="J24" s="4">
         <v>0.22032984385181897</v>
@@ -7247,11 +7242,11 @@
         <v>95.760177612304602</v>
       </c>
       <c r="N24" s="16"/>
-      <c r="O24" s="21">
+      <c r="O24" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -7262,23 +7257,23 @@
       <c r="C25">
         <v>23</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="4">
         <f t="shared" si="2"/>
         <v>103.82617439498634</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="4">
         <v>101.323159169224</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="4">
         <v>101.463134765625</v>
       </c>
-      <c r="G25" s="18"/>
+      <c r="G25" s="4"/>
       <c r="H25">
         <v>2</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42463149864837935</v>
+        <v>0.90353269098293609</v>
       </c>
       <c r="J25" s="4">
         <v>0.55298365228987389</v>
@@ -7293,11 +7288,11 @@
         <v>101.463134765625</v>
       </c>
       <c r="N25" s="16"/>
-      <c r="O25" s="21">
+      <c r="O25" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>55</v>
       </c>
@@ -7308,23 +7303,23 @@
       <c r="C26" s="14">
         <v>24</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="15">
         <f t="shared" si="2"/>
         <v>110.00000000000006</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="15">
         <v>107.349543359595</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="15">
         <v>107.48963928222599</v>
       </c>
-      <c r="G26" s="19"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="14">
         <v>2</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16998841314011781</v>
+        <v>0.6758934239439619</v>
       </c>
       <c r="J26" s="15">
         <v>0.57209760993574277</v>
@@ -7339,11 +7334,11 @@
         <v>107.48963928222599</v>
       </c>
       <c r="N26" s="17"/>
-      <c r="O26" s="21">
+      <c r="O26" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -7354,23 +7349,23 @@
       <c r="C27">
         <v>25</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="4">
         <f t="shared" si="2"/>
         <v>116.54094037952254</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="4">
         <v>113.66519675779401</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="4">
         <v>113.87899017333901</v>
       </c>
-      <c r="G27" s="18"/>
+      <c r="G27" s="4"/>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88290163235597219</v>
+        <v>0.89304730775246977</v>
       </c>
       <c r="J27" s="4">
         <v>9.380053797811061E-2</v>
@@ -7385,11 +7380,11 @@
         <v>113.87899017333901</v>
       </c>
       <c r="N27" s="16"/>
-      <c r="O27" s="21">
+      <c r="O27" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -7400,23 +7395,23 @@
       <c r="C28">
         <v>26</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="4">
         <f t="shared" si="2"/>
         <v>123.4708253140311</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="4">
         <v>120.527151675685</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="4">
         <v>120.647888183593</v>
       </c>
-      <c r="G28" s="18"/>
+      <c r="G28" s="4"/>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44344626913008789</v>
+        <v>0.24988169228283541</v>
       </c>
       <c r="J28" s="4">
         <v>0.48397609718548762</v>
@@ -7431,11 +7426,11 @@
         <v>120.647888183593</v>
       </c>
       <c r="N28" s="16"/>
-      <c r="O28" s="21">
+      <c r="O28" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -7446,23 +7441,23 @@
       <c r="C29">
         <v>27</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="4">
         <f t="shared" si="2"/>
         <v>130.8127826502994</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="4">
         <v>126.90698009926101</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="4">
         <v>127.106117248535</v>
       </c>
-      <c r="G29" s="18"/>
+      <c r="G29" s="4"/>
       <c r="H29">
         <v>2</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37731209821971745</v>
+        <v>0.42341490600987697</v>
       </c>
       <c r="J29" s="4">
         <v>0.45660717271868545</v>
@@ -7477,11 +7472,11 @@
         <v>127.106117248535</v>
       </c>
       <c r="N29" s="16"/>
-      <c r="O29" s="21">
+      <c r="O29" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -7492,23 +7487,23 @@
       <c r="C30">
         <v>28</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="4">
         <f t="shared" si="2"/>
         <v>138.59131548843615</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="4">
         <v>135.56228672339299</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="4">
         <v>136.19244384765599</v>
       </c>
-      <c r="G30" s="18"/>
+      <c r="G30" s="4"/>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68796358055204709</v>
+        <v>0.3008930335425033</v>
       </c>
       <c r="J30" s="4">
         <v>0.15079539744814707</v>
@@ -7523,11 +7518,11 @@
         <v>136.19244384765599</v>
       </c>
       <c r="N30" s="16"/>
-      <c r="O30" s="21">
+      <c r="O30" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -7538,23 +7533,23 @@
       <c r="C31">
         <v>29</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="4">
         <f t="shared" si="2"/>
         <v>146.8323839587039</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="4">
         <v>143.24543883900799</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="4">
         <v>143.49411773681601</v>
       </c>
-      <c r="G31" s="18"/>
+      <c r="G31" s="4"/>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6953964357432354</v>
+        <v>0.54705021895508388</v>
       </c>
       <c r="J31" s="4">
         <v>0.79822134755866092</v>
@@ -7569,11 +7564,11 @@
         <v>143.49411773681601</v>
       </c>
       <c r="N31" s="16"/>
-      <c r="O31" s="21">
+      <c r="O31" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -7584,23 +7579,23 @@
       <c r="C32">
         <v>30</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="4">
         <f t="shared" si="2"/>
         <v>155.5634918610406</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="4">
         <v>148.90559267010099</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="4">
         <v>149.35060119628901</v>
       </c>
-      <c r="G32" s="18"/>
+      <c r="G32" s="4"/>
       <c r="H32">
         <v>3</v>
       </c>
       <c r="I32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4516119330420757</v>
+        <v>0.41296093621259289</v>
       </c>
       <c r="J32" s="4">
         <v>0.27855230801069675</v>
@@ -7617,7 +7612,7 @@
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -7628,23 +7623,23 @@
       <c r="C33">
         <v>31</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="4">
         <f t="shared" si="2"/>
         <v>164.81377845643513</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="4">
         <v>159.043052892931</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="4">
         <v>159.629768371582</v>
       </c>
-      <c r="G33" s="18"/>
+      <c r="G33" s="4"/>
       <c r="H33">
         <v>3</v>
       </c>
       <c r="I33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14104707320766896</v>
+        <v>0.90482484705311517</v>
       </c>
       <c r="J33" s="4">
         <v>0.57856616352363965</v>
@@ -7661,7 +7656,7 @@
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -7672,23 +7667,23 @@
       <c r="C34">
         <v>32</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="4">
         <f t="shared" si="2"/>
         <v>174.61411571650211</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="4">
         <v>168.78898568616299</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="4">
         <v>169.64434814453099</v>
       </c>
-      <c r="G34" s="18"/>
+      <c r="G34" s="4"/>
       <c r="H34">
         <v>3</v>
       </c>
       <c r="I34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20199837682476174</v>
+        <v>0.1805907254151512</v>
       </c>
       <c r="J34" s="4">
         <v>0.18885380642756577</v>
@@ -7705,7 +7700,7 @@
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -7716,23 +7711,23 @@
       <c r="C35">
         <v>33</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="4">
         <f t="shared" si="2"/>
         <v>184.9972113558174</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="4">
         <v>177.27514101741301</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="4">
         <v>177.67329406738199</v>
       </c>
-      <c r="G35" s="18"/>
+      <c r="G35" s="4"/>
       <c r="H35">
         <v>3</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77373260613681172</v>
+        <v>0.96833646006598784</v>
       </c>
       <c r="J35" s="4">
         <v>0.72172968661672821</v>
@@ -7749,7 +7744,7 @@
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -7760,23 +7755,23 @@
       <c r="C36">
         <v>34</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="4">
         <f t="shared" si="2"/>
         <v>195.99771799087486</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="4">
         <v>189.48293055454101</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="4">
         <v>190.40190124511699</v>
       </c>
-      <c r="G36" s="18"/>
+      <c r="G36" s="4"/>
       <c r="H36">
         <v>3</v>
       </c>
       <c r="I36" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84704869394822591</v>
+        <v>0.61947393449398036</v>
       </c>
       <c r="J36" s="4">
         <v>0.11434494047821941</v>
@@ -7793,7 +7788,7 @@
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -7804,23 +7799,23 @@
       <c r="C37">
         <v>35</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="4">
         <f t="shared" si="2"/>
         <v>207.65234878997279</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="4">
         <v>199.72276422568501</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="4">
         <v>200.577224731445</v>
       </c>
-      <c r="G37" s="18"/>
+      <c r="G37" s="4"/>
       <c r="H37">
         <v>3</v>
       </c>
       <c r="I37" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6842395530389638E-2</v>
+        <v>0.12966676230429341</v>
       </c>
       <c r="J37" s="4">
         <v>0.41117990887062206</v>
@@ -7837,7 +7832,7 @@
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
     </row>
-    <row r="38" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>67</v>
       </c>
@@ -7848,23 +7843,23 @@
       <c r="C38" s="14">
         <v>36</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="15">
         <f t="shared" si="2"/>
         <v>220.00000000000026</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="15">
         <v>212.61350654614299</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="15">
         <v>213.73532104492099</v>
       </c>
-      <c r="G38" s="19"/>
+      <c r="G38" s="15"/>
       <c r="H38" s="14">
         <v>3</v>
       </c>
       <c r="I38" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47599925770532858</v>
+        <v>0.71451035433424026</v>
       </c>
       <c r="J38" s="15">
         <v>0.11554223892688753</v>
@@ -7881,7 +7876,7 @@
       <c r="N38" s="17"/>
       <c r="O38" s="17"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -7892,23 +7887,23 @@
       <c r="C39">
         <v>37</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="4">
         <f t="shared" si="2"/>
         <v>233.08188075904525</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="4">
         <v>225.40710091529101</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="4">
         <v>226.46087646484301</v>
       </c>
-      <c r="G39" s="18"/>
+      <c r="G39" s="4"/>
       <c r="H39">
         <v>3</v>
       </c>
       <c r="I39" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2482702103076847</v>
+        <v>0.82504235360384337</v>
       </c>
       <c r="J39" s="4">
         <v>0.31841188548655486</v>
@@ -7925,7 +7920,7 @@
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -7936,23 +7931,23 @@
       <c r="C40">
         <v>38</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="4">
         <f t="shared" si="2"/>
         <v>246.94165062806238</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="4">
         <v>239.40657477779999</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="4">
         <v>239.99073028564399</v>
       </c>
-      <c r="G40" s="18"/>
+      <c r="G40" s="4"/>
       <c r="H40">
         <v>3</v>
       </c>
       <c r="I40" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41067825397084612</v>
+        <v>0.88146811257213731</v>
       </c>
       <c r="J40" s="4">
         <v>0.95481168333473865</v>
@@ -7969,7 +7964,7 @@
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -7980,23 +7975,23 @@
       <c r="C41">
         <v>39</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="4">
         <f t="shared" si="2"/>
         <v>261.62556530059896</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="4">
         <v>250.66298310563701</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="4">
         <v>251.44344329833899</v>
       </c>
-      <c r="G41" s="18"/>
+      <c r="G41" s="4"/>
       <c r="H41">
         <v>3</v>
       </c>
       <c r="I41" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52480036112098349</v>
+        <v>0.16338137761158233</v>
       </c>
       <c r="J41" s="4">
         <v>8.031856679977567E-2</v>
@@ -8013,7 +8008,7 @@
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -8024,23 +8019,23 @@
       <c r="C42">
         <v>40</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="4">
         <f t="shared" si="2"/>
         <v>277.18263097687247</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="4">
         <v>268.85493744800698</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="4">
         <v>270.76040649414</v>
       </c>
-      <c r="G42" s="18"/>
+      <c r="G42" s="4"/>
       <c r="H42">
         <v>3</v>
       </c>
       <c r="I42" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66108962919249081</v>
+        <v>0.48531867829553454</v>
       </c>
       <c r="J42" s="4">
         <v>0.28789730192789598</v>
@@ -8057,7 +8052,7 @@
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -8068,23 +8063,23 @@
       <c r="C43">
         <v>41</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="4">
         <f t="shared" si="2"/>
         <v>293.66476791740797</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="4">
         <v>281.044108328155</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="4">
         <v>282.017822265625</v>
       </c>
-      <c r="G43" s="18"/>
+      <c r="G43" s="4"/>
       <c r="H43">
         <v>3</v>
       </c>
       <c r="I43" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.84157547103541253</v>
+        <v>0.65761084046220419</v>
       </c>
       <c r="J43" s="4">
         <v>3.4202223337405857E-2</v>
@@ -8101,7 +8096,7 @@
       <c r="N43" s="16"/>
       <c r="O43" s="16"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -8112,23 +8107,23 @@
       <c r="C44">
         <v>42</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="4">
         <f t="shared" si="2"/>
         <v>311.12698372208138</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="4">
         <v>298.88161644086802</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="4">
         <v>300.59477233886702</v>
       </c>
-      <c r="G44" s="18"/>
+      <c r="G44" s="4"/>
       <c r="H44">
         <v>3</v>
       </c>
       <c r="I44" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96284953902504589</v>
+        <v>0.85964482300540768</v>
       </c>
       <c r="J44" s="4">
         <v>0.75137997257622746</v>
@@ -8145,7 +8140,7 @@
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -8156,23 +8151,23 @@
       <c r="C45">
         <v>43</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="4">
         <f t="shared" si="2"/>
         <v>329.62755691287043</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="4">
         <v>311.43870308391399</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="4">
         <v>312.96795654296801</v>
       </c>
-      <c r="G45" s="18"/>
+      <c r="G45" s="4"/>
       <c r="H45">
         <v>3</v>
       </c>
       <c r="I45" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38327612590302573</v>
+        <v>0.2778072132748145</v>
       </c>
       <c r="J45" s="4">
         <v>0.24929124293029947</v>
@@ -8189,7 +8184,7 @@
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -8200,23 +8195,23 @@
       <c r="C46">
         <v>44</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="4">
         <f t="shared" si="2"/>
         <v>349.22823143300445</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="4">
         <v>338.09395069244999</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="4">
         <v>341.12612915039</v>
       </c>
-      <c r="G46" s="18"/>
+      <c r="G46" s="4"/>
       <c r="H46">
         <v>3</v>
       </c>
       <c r="I46" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80407145897143995</v>
+        <v>0.18310720166768468</v>
       </c>
       <c r="J46" s="4">
         <v>0.29804160612107455</v>
@@ -8233,7 +8228,7 @@
       <c r="N46" s="16"/>
       <c r="O46" s="16"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -8244,23 +8239,23 @@
       <c r="C47">
         <v>45</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="4">
         <f t="shared" si="2"/>
         <v>369.99442271163502</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="4">
         <v>357.68585618336903</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="4">
         <v>359.42364501953102</v>
       </c>
-      <c r="G47" s="18"/>
+      <c r="G47" s="4"/>
       <c r="H47">
         <v>3</v>
       </c>
       <c r="I47" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71989630675452254</v>
+        <v>0.22955951011530196</v>
       </c>
       <c r="J47" s="4">
         <v>0.20769494057005744</v>
@@ -8277,7 +8272,7 @@
       <c r="N47" s="16"/>
       <c r="O47" s="16"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -8288,23 +8283,23 @@
       <c r="C48">
         <v>46</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="4">
         <f t="shared" si="2"/>
         <v>391.99543598174995</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="4">
         <v>379.94199290908199</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="4">
         <v>380.88848876953102</v>
       </c>
-      <c r="G48" s="18"/>
+      <c r="G48" s="4"/>
       <c r="H48">
         <v>3</v>
       </c>
       <c r="I48" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98420655090160214</v>
+        <v>0.98611231677948097</v>
       </c>
       <c r="J48" s="4">
         <v>0.54190990267350281</v>
@@ -8321,7 +8316,7 @@
       <c r="N48" s="16"/>
       <c r="O48" s="16"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -8332,23 +8327,23 @@
       <c r="C49">
         <v>47</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="4">
         <f t="shared" si="2"/>
         <v>415.30469757994587</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="4">
         <v>400.50488549297199</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="4">
         <v>401.34313964843699</v>
       </c>
-      <c r="G49" s="18"/>
+      <c r="G49" s="4"/>
       <c r="H49">
         <v>3</v>
       </c>
       <c r="I49" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72158784009653054</v>
+        <v>0.91721750836324878</v>
       </c>
       <c r="J49" s="4">
         <v>0.87041312176130292</v>
@@ -8365,7 +8360,7 @@
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
     </row>
-    <row r="50" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>79</v>
       </c>
@@ -8376,23 +8371,23 @@
       <c r="C50" s="14">
         <v>48</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="15">
         <f>D49*POWER(2,1/12)</f>
         <v>440.0000000000008</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="15">
         <v>421.181716564635</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="15">
         <v>422.569091796875</v>
       </c>
-      <c r="G50" s="19"/>
+      <c r="G50" s="15"/>
       <c r="H50" s="14">
         <v>3</v>
       </c>
       <c r="I50" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50555315314247984</v>
+        <v>0.67865429140654721</v>
       </c>
       <c r="J50" s="15">
         <v>0.44462156059686397</v>
@@ -8409,7 +8404,7 @@
       <c r="N50" s="17"/>
       <c r="O50" s="17"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>80</v>
       </c>
@@ -8420,23 +8415,23 @@
       <c r="C51">
         <v>49</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="4">
         <f t="shared" si="2"/>
         <v>466.16376151809078</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="4">
         <v>446.75647736189802</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="4">
         <v>450.22381591796801</v>
       </c>
-      <c r="G51" s="18"/>
+      <c r="G51" s="4"/>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26165216439691175</v>
+        <v>0.28459969405447416</v>
       </c>
       <c r="J51" s="4">
         <v>0.30973338762642155</v>
@@ -8453,7 +8448,7 @@
       <c r="N51" s="16"/>
       <c r="O51" s="16"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -8464,23 +8459,23 @@
       <c r="C52">
         <v>50</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="4">
         <f>D51*POWER(2,1/12)</f>
         <v>493.88330125612504</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="4">
         <v>476.78483437764999</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="4">
         <v>478.39596557617102</v>
       </c>
-      <c r="G52" s="18"/>
+      <c r="G52" s="4"/>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96341875687887846</v>
+        <v>0.64208011265982712</v>
       </c>
       <c r="J52" s="4">
         <v>0.33572986621031309</v>
@@ -8497,7 +8492,7 @@
       <c r="N52" s="16"/>
       <c r="O52" s="16"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -8508,23 +8503,23 @@
       <c r="C53">
         <v>51</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="4">
         <f t="shared" si="2"/>
         <v>523.25113060119827</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="4">
         <v>502.944324093918</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="4">
         <v>505.330474853515</v>
       </c>
-      <c r="G53" s="18"/>
+      <c r="G53" s="4"/>
       <c r="H53">
         <v>3</v>
       </c>
       <c r="I53" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20502239577705961</v>
+        <v>4.5298381063589299E-2</v>
       </c>
       <c r="J53" s="4">
         <v>0.47666603290839527</v>
@@ -8541,7 +8536,7 @@
       <c r="N53" s="16"/>
       <c r="O53" s="16"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -8552,23 +8547,23 @@
       <c r="C54">
         <v>52</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="4">
         <f t="shared" si="2"/>
         <v>554.36526195374529</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="4">
         <v>515.40620232399999</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="4">
         <v>517.26461791992097</v>
       </c>
-      <c r="G54" s="18"/>
+      <c r="G54" s="4"/>
       <c r="H54">
         <v>3</v>
       </c>
       <c r="I54" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60532332115402487</v>
+        <v>0.61590223453298398</v>
       </c>
       <c r="J54" s="4">
         <v>0.48145241570552633</v>
@@ -8585,7 +8580,7 @@
       <c r="N54" s="16"/>
       <c r="O54" s="16"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -8596,23 +8591,23 @@
       <c r="C55">
         <v>53</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="4">
         <f t="shared" si="2"/>
         <v>587.32953583481628</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="4">
         <v>545.95243321699604</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F55" s="4">
         <v>548.1640625</v>
       </c>
-      <c r="G55" s="18"/>
+      <c r="G55" s="4"/>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59619251174109644</v>
+        <v>0.37759567846585151</v>
       </c>
       <c r="J55" s="4">
         <v>2.1936151067853737E-2</v>
@@ -8629,7 +8624,7 @@
       <c r="N55" s="16"/>
       <c r="O55" s="16"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -8640,23 +8635,23 @@
       <c r="C56">
         <v>54</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="4">
         <f t="shared" si="2"/>
         <v>622.2539674441631</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="4">
         <v>590.70649597421004</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="4">
         <v>594.32931518554597</v>
       </c>
-      <c r="G56" s="18"/>
+      <c r="G56" s="4"/>
       <c r="H56">
         <v>3</v>
       </c>
       <c r="I56" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49822723988540873</v>
+        <v>0.72377338004329317</v>
       </c>
       <c r="J56" s="4">
         <v>0.96738747112235823</v>
@@ -8673,7 +8668,7 @@
       <c r="N56" s="16"/>
       <c r="O56" s="16"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -8684,23 +8679,23 @@
       <c r="C57">
         <v>55</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="4">
         <f t="shared" si="2"/>
         <v>659.2551138257412</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="4">
         <v>629.86386880288205</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="4">
         <v>632.85357666015602</v>
       </c>
-      <c r="G57" s="18"/>
+      <c r="G57" s="4"/>
       <c r="H57">
         <v>3</v>
       </c>
       <c r="I57" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3243097014906916</v>
+        <v>0.67470817437649955</v>
       </c>
       <c r="J57" s="4">
         <v>0.14523634205494529</v>
@@ -8717,7 +8712,7 @@
       <c r="N57" s="16"/>
       <c r="O57" s="16"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>87</v>
       </c>
@@ -8728,23 +8723,23 @@
       <c r="C58">
         <v>56</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58" s="4">
         <f t="shared" si="2"/>
         <v>698.45646286600925</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="4">
         <v>664.17918314640497</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="4">
         <v>667.36047363281205</v>
       </c>
-      <c r="G58" s="18"/>
+      <c r="G58" s="4"/>
       <c r="H58">
         <v>3</v>
       </c>
       <c r="I58" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78541041588198612</v>
+        <v>0.75661080386436597</v>
       </c>
       <c r="J58" s="4">
         <v>0.49371279074193153</v>
@@ -8761,7 +8756,7 @@
       <c r="N58" s="16"/>
       <c r="O58" s="16"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -8772,23 +8767,23 @@
       <c r="C59">
         <v>57</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="4">
         <f t="shared" si="2"/>
         <v>739.98884542327039</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="4">
         <v>704.87810965105803</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="4">
         <v>706.65289306640602</v>
       </c>
-      <c r="G59" s="18"/>
+      <c r="G59" s="4"/>
       <c r="H59">
         <v>3</v>
       </c>
       <c r="I59" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9168292988440766</v>
+        <v>0.6220201146006169</v>
       </c>
       <c r="J59" s="4">
         <v>6.0955510652993095E-2</v>
@@ -8805,7 +8800,7 @@
       <c r="N59" s="16"/>
       <c r="O59" s="16"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>89</v>
       </c>
@@ -8816,23 +8811,23 @@
       <c r="C60">
         <v>58</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="4">
         <f t="shared" si="2"/>
         <v>783.99087196350035</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="4">
         <v>746.5260852742</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="4">
         <v>748.64080810546795</v>
       </c>
-      <c r="G60" s="18"/>
+      <c r="G60" s="4"/>
       <c r="H60">
         <v>3</v>
       </c>
       <c r="I60" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8215522502145749</v>
+        <v>0.56994879942845023</v>
       </c>
       <c r="J60" s="4">
         <v>0.84017437083578261</v>
@@ -8849,7 +8844,7 @@
       <c r="N60" s="16"/>
       <c r="O60" s="16"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -8860,23 +8855,23 @@
       <c r="C61">
         <v>59</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D61" s="4">
         <f t="shared" si="2"/>
         <v>830.60939515989219</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="4">
         <v>798.29809382725603</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="4">
         <v>802.35629272460903</v>
       </c>
-      <c r="G61" s="18"/>
+      <c r="G61" s="4"/>
       <c r="H61">
         <v>3</v>
       </c>
       <c r="I61" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9287974281750948E-3</v>
+        <v>0.90240457594659484</v>
       </c>
       <c r="J61" s="4">
         <v>0.44700201828882691</v>
@@ -8893,7 +8888,7 @@
       <c r="N61" s="16"/>
       <c r="O61" s="16"/>
     </row>
-    <row r="62" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>91</v>
       </c>
@@ -8904,17 +8899,17 @@
       <c r="C62" s="14">
         <v>60</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="15">
         <f t="shared" si="2"/>
         <v>880.00000000000205</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="15">
         <v>847.76849238695002</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F62" s="15">
         <v>849.85186767578102</v>
       </c>
-      <c r="G62" s="19">
+      <c r="G62" s="15">
         <v>856</v>
       </c>
       <c r="H62" s="14">
@@ -8922,7 +8917,7 @@
       </c>
       <c r="I62" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23812388437880294</v>
+        <v>0.57699382029006419</v>
       </c>
       <c r="J62" s="15">
         <v>0.31652505396822705</v>
@@ -8939,7 +8934,7 @@
       <c r="N62" s="17"/>
       <c r="O62" s="17"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>92</v>
       </c>
@@ -8950,23 +8945,23 @@
       <c r="C63">
         <v>61</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="4">
         <f t="shared" si="2"/>
         <v>932.32752303618201</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="4">
         <v>900.87832748388303</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="4">
         <v>905.08139038085903</v>
       </c>
-      <c r="G63" s="18"/>
+      <c r="G63" s="4"/>
       <c r="H63">
         <v>3</v>
       </c>
       <c r="I63" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97086848379013757</v>
+        <v>0.77261701828434648</v>
       </c>
       <c r="J63" s="4">
         <v>0.53012209637953223</v>
@@ -8983,7 +8978,7 @@
       <c r="N63" s="16"/>
       <c r="O63" s="16"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -8994,23 +8989,23 @@
       <c r="C64">
         <v>62</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D64" s="4">
         <f t="shared" si="2"/>
         <v>987.76660251225053</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="4">
         <v>938.01079609756698</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="4">
         <v>942.76617431640602</v>
       </c>
-      <c r="G64" s="18"/>
+      <c r="G64" s="4"/>
       <c r="H64">
         <v>3</v>
       </c>
       <c r="I64" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51568382248583455</v>
+        <v>0.8815857304638266</v>
       </c>
       <c r="J64" s="4">
         <v>0.53385962079543314</v>
@@ -9027,7 +9022,7 @@
       <c r="N64" s="16"/>
       <c r="O64" s="16"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>94</v>
       </c>
@@ -9038,23 +9033,23 @@
       <c r="C65">
         <v>63</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D65" s="4">
         <f t="shared" si="2"/>
         <v>1046.502261202397</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="4">
         <v>1016.30556256871</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="4">
         <v>1016.8302307128901</v>
       </c>
-      <c r="G65" s="18"/>
+      <c r="G65" s="4"/>
       <c r="H65">
         <v>3</v>
       </c>
       <c r="I65" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15026497374572911</v>
+        <v>0.12586270345949979</v>
       </c>
       <c r="J65" s="4">
         <v>0.34141394558349558</v>
@@ -9071,7 +9066,7 @@
       <c r="N65" s="16"/>
       <c r="O65" s="16"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>95</v>
       </c>
@@ -9082,23 +9077,23 @@
       <c r="C66">
         <v>64</v>
       </c>
-      <c r="D66" s="18">
+      <c r="D66" s="4">
         <f t="shared" si="2"/>
         <v>1108.730523907491</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E66" s="4">
         <v>1062.47821662618</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="4">
         <v>1064.78637695312</v>
       </c>
-      <c r="G66" s="18"/>
+      <c r="G66" s="4"/>
       <c r="H66">
         <v>3</v>
       </c>
       <c r="I66" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30985179799993223</v>
+        <v>0.72729783377240409</v>
       </c>
       <c r="J66" s="4">
         <v>0.40078027153445561</v>
@@ -9115,7 +9110,7 @@
       <c r="N66" s="16"/>
       <c r="O66" s="16"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -9126,23 +9121,23 @@
       <c r="C67">
         <v>65</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="4">
         <f t="shared" si="2"/>
         <v>1174.659071669633</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="4">
         <v>1134.5271353835799</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="4">
         <v>1128.6564331054601</v>
       </c>
-      <c r="G67" s="18"/>
+      <c r="G67" s="4"/>
       <c r="H67">
         <v>3</v>
       </c>
       <c r="I67" s="4">
         <f t="shared" ref="I67:I86" ca="1" si="4">RAND()</f>
-        <v>5.7917780288325948E-2</v>
+        <v>0.31623111531881254</v>
       </c>
       <c r="J67" s="4">
         <v>0.53035394079898279</v>
@@ -9159,7 +9154,7 @@
       <c r="N67" s="16"/>
       <c r="O67" s="16"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>97</v>
       </c>
@@ -9170,23 +9165,23 @@
       <c r="C68">
         <v>66</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D68" s="4">
         <f t="shared" ref="D68:D86" si="5">D67*POWER(2,1/12)</f>
         <v>1244.5079348883266</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E68" s="4">
         <v>1200.72759153989</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="4">
         <v>1200.7982788085901</v>
       </c>
-      <c r="G68" s="18"/>
+      <c r="G68" s="4"/>
       <c r="H68">
         <v>3</v>
       </c>
       <c r="I68" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11735374837781865</v>
+        <v>0.86097799492661731</v>
       </c>
       <c r="J68" s="4">
         <v>0.85066202920853051</v>
@@ -9203,7 +9198,7 @@
       <c r="N68" s="16"/>
       <c r="O68" s="16"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -9214,23 +9209,23 @@
       <c r="C69">
         <v>67</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D69" s="4">
         <f t="shared" si="5"/>
         <v>1318.5102276514829</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="4">
         <v>1294.81572510926</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="4">
         <v>1283.1427612304601</v>
       </c>
-      <c r="G69" s="18"/>
+      <c r="G69" s="4"/>
       <c r="H69">
         <v>3</v>
       </c>
       <c r="I69" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28785935941693486</v>
+        <v>0.51536482137030226</v>
       </c>
       <c r="J69" s="4">
         <v>0.79564237282474648</v>
@@ -9247,7 +9242,7 @@
       <c r="N69" s="16"/>
       <c r="O69" s="16"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>99</v>
       </c>
@@ -9258,23 +9253,23 @@
       <c r="C70">
         <v>68</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D70" s="4">
         <f t="shared" si="5"/>
         <v>1396.9129257320189</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E70" s="4">
         <v>1343.7723561999801</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="4">
         <v>1341.02954101562</v>
       </c>
-      <c r="G70" s="18"/>
+      <c r="G70" s="4"/>
       <c r="H70">
         <v>3</v>
       </c>
       <c r="I70" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6416187284327739</v>
+        <v>0.33720205538513637</v>
       </c>
       <c r="J70" s="4">
         <v>0.52318313122964144</v>
@@ -9291,7 +9286,7 @@
       <c r="N70" s="16"/>
       <c r="O70" s="16"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -9302,23 +9297,23 @@
       <c r="C71">
         <v>69</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D71" s="4">
         <f t="shared" si="5"/>
         <v>1479.9776908465412</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="4">
         <v>1443.04346655564</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="4">
         <v>1442.1290893554601</v>
       </c>
-      <c r="G71" s="18"/>
+      <c r="G71" s="4"/>
       <c r="H71">
         <v>3</v>
       </c>
       <c r="I71" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.81014543947269479</v>
+        <v>0.97096662959779934</v>
       </c>
       <c r="J71" s="4">
         <v>0.6522303144676761</v>
@@ -9335,7 +9330,7 @@
       <c r="N71" s="16"/>
       <c r="O71" s="16"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>101</v>
       </c>
@@ -9346,23 +9341,23 @@
       <c r="C72">
         <v>70</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D72" s="4">
         <f t="shared" si="5"/>
         <v>1567.9817439270012</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E72" s="4">
         <v>1533.74407579119</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="4">
         <v>1532.4273071289001</v>
       </c>
-      <c r="G72" s="18"/>
+      <c r="G72" s="4"/>
       <c r="H72">
         <v>3</v>
       </c>
       <c r="I72" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6906557456808472</v>
+        <v>0.7802354040863585</v>
       </c>
       <c r="J72" s="4">
         <v>0.1769121737174616</v>
@@ -9379,7 +9374,7 @@
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>102</v>
       </c>
@@ -9390,23 +9385,23 @@
       <c r="C73">
         <v>71</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D73" s="4">
         <f t="shared" si="5"/>
         <v>1661.2187903197848</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="4">
         <v>1546.0040358892099</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="4">
         <v>1609.13317871093</v>
       </c>
-      <c r="G73" s="18"/>
+      <c r="G73" s="4"/>
       <c r="H73">
         <v>3</v>
       </c>
       <c r="I73" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30330429157371019</v>
+        <v>0.17443750114521839</v>
       </c>
       <c r="J73" s="4">
         <v>0.30880539019051378</v>
@@ -9423,7 +9418,7 @@
       <c r="N73" s="16"/>
       <c r="O73" s="16"/>
     </row>
-    <row r="74" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>103</v>
       </c>
@@ -9434,17 +9429,17 @@
       <c r="C74" s="14">
         <v>72</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D74" s="15">
         <f t="shared" si="5"/>
         <v>1760.0000000000045</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E74" s="15">
         <v>596.112441925555</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F74" s="15">
         <v>531.51971435546795</v>
       </c>
-      <c r="G74" s="19">
+      <c r="G74" s="15">
         <v>1755</v>
       </c>
       <c r="H74" s="14">
@@ -9452,7 +9447,7 @@
       </c>
       <c r="I74" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.14298302458862955</v>
+        <v>0.30774951961094055</v>
       </c>
       <c r="J74" s="15">
         <v>7.0262423465566881E-3</v>
@@ -9463,21 +9458,21 @@
       <c r="L74" s="15">
         <v>0.69277155182306638</v>
       </c>
-      <c r="M74" s="22">
+      <c r="M74" s="19">
         <v>1755</v>
       </c>
-      <c r="N74" s="22">
+      <c r="N74" s="19">
         <v>1828.52</v>
       </c>
-      <c r="O74" s="22">
+      <c r="O74" s="19">
         <f>531.52*3</f>
         <v>1594.56</v>
       </c>
       <c r="P74" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>104</v>
       </c>
@@ -9488,23 +9483,23 @@
       <c r="C75">
         <v>73</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D75" s="4">
         <f t="shared" si="5"/>
         <v>1864.6550460723645</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E75" s="4">
         <v>1794.6674145843599</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="4">
         <v>1828.5154418945301</v>
       </c>
-      <c r="G75" s="18"/>
+      <c r="G75" s="4"/>
       <c r="H75">
         <v>3</v>
       </c>
       <c r="I75" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5000875926100864</v>
+        <v>0.69075102816809708</v>
       </c>
       <c r="J75" s="4">
         <v>0.88853308433958678</v>
@@ -9521,7 +9516,7 @@
       <c r="N75" s="16"/>
       <c r="O75" s="16"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>105</v>
       </c>
@@ -9532,23 +9527,23 @@
       <c r="C76">
         <v>74</v>
       </c>
-      <c r="D76" s="18">
+      <c r="D76" s="4">
         <f t="shared" si="5"/>
         <v>1975.5332050245017</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E76" s="4">
         <v>1972.43525204087</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="4">
         <v>1987.3062133789001</v>
       </c>
-      <c r="G76" s="18"/>
+      <c r="G76" s="4"/>
       <c r="H76">
         <v>3</v>
       </c>
       <c r="I76" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70966793211802115</v>
+        <v>0.192485547797694</v>
       </c>
       <c r="J76" s="4">
         <v>5.3317692872198341E-2</v>
@@ -9565,7 +9560,7 @@
       <c r="N76" s="16"/>
       <c r="O76" s="16"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>106</v>
       </c>
@@ -9576,23 +9571,23 @@
       <c r="C77">
         <v>75</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D77" s="4">
         <f t="shared" si="5"/>
         <v>2093.0045224047949</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E77" s="4">
         <v>2026.8672242482501</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="4">
         <v>2019.15991210937</v>
       </c>
-      <c r="G77" s="18"/>
+      <c r="G77" s="4"/>
       <c r="H77">
         <v>3</v>
       </c>
       <c r="I77" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.88933191441967829</v>
+        <v>0.63219079659925037</v>
       </c>
       <c r="J77" s="4">
         <v>0.97119500744358966</v>
@@ -9609,7 +9604,7 @@
       <c r="N77" s="16"/>
       <c r="O77" s="16"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>107</v>
       </c>
@@ -9620,23 +9615,23 @@
       <c r="C78">
         <v>76</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D78" s="4">
         <f t="shared" si="5"/>
         <v>2217.461047814983</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E78" s="4">
         <v>2194.16237548038</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="4">
         <v>2194.4295654296802</v>
       </c>
-      <c r="G78" s="18"/>
+      <c r="G78" s="4"/>
       <c r="H78">
         <v>3</v>
       </c>
       <c r="I78" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15904192535155481</v>
+        <v>0.99795586289620486</v>
       </c>
       <c r="J78" s="4">
         <v>0.52211652903954087</v>
@@ -9653,7 +9648,7 @@
       <c r="N78" s="16"/>
       <c r="O78" s="16"/>
     </row>
-    <row r="79" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>108</v>
       </c>
@@ -9664,17 +9659,17 @@
       <c r="C79" s="14">
         <v>77</v>
       </c>
-      <c r="D79" s="19">
+      <c r="D79" s="15">
         <f t="shared" si="5"/>
         <v>2349.318143339267</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E79" s="15">
         <v>2217.4604682823601</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F79" s="15">
         <v>2217.46044921875</v>
       </c>
-      <c r="G79" s="19">
+      <c r="G79" s="15">
         <v>2305</v>
       </c>
       <c r="H79" s="14">
@@ -9682,7 +9677,7 @@
       </c>
       <c r="I79" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.57494488276184419</v>
+        <v>0.61654204453833117</v>
       </c>
       <c r="J79" s="15">
         <v>0.95623160343086033</v>
@@ -9699,7 +9694,7 @@
       <c r="N79" s="17"/>
       <c r="O79" s="17"/>
     </row>
-    <row r="80" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>109</v>
       </c>
@@ -9710,17 +9705,17 @@
       <c r="C80" s="14">
         <v>78</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D80" s="15">
         <f t="shared" si="5"/>
         <v>2489.0158697766542</v>
       </c>
-      <c r="E80" s="19">
+      <c r="E80" s="15">
         <v>2217.4604544161198</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F80" s="15">
         <v>2217.46044921875</v>
       </c>
-      <c r="G80" s="19">
+      <c r="G80" s="15">
         <v>2485</v>
       </c>
       <c r="H80" s="14">
@@ -9728,7 +9723,7 @@
       </c>
       <c r="I80" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64595248312266351</v>
+        <v>0.48601962356601658</v>
       </c>
       <c r="J80" s="15">
         <v>0.45354809280436537</v>
@@ -9745,7 +9740,7 @@
       <c r="N80" s="17"/>
       <c r="O80" s="17"/>
     </row>
-    <row r="81" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>110</v>
       </c>
@@ -9756,17 +9751,17 @@
       <c r="C81" s="14">
         <v>79</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D81" s="15">
         <f t="shared" si="5"/>
         <v>2637.0204553029671</v>
       </c>
-      <c r="E81" s="19">
+      <c r="E81" s="15">
         <v>2217.46044787558</v>
       </c>
-      <c r="F81" s="19">
+      <c r="F81" s="15">
         <v>2217.46044921875</v>
       </c>
-      <c r="G81" s="19">
+      <c r="G81" s="15">
         <v>2615</v>
       </c>
       <c r="H81" s="14">
@@ -9774,7 +9769,7 @@
       </c>
       <c r="I81" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.84245129335105118</v>
+        <v>0.95811843006676212</v>
       </c>
       <c r="J81" s="15">
         <v>0.75719309588544415</v>
@@ -9791,7 +9786,7 @@
       <c r="N81" s="17"/>
       <c r="O81" s="17"/>
     </row>
-    <row r="82" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>111</v>
       </c>
@@ -9802,17 +9797,17 @@
       <c r="C82" s="14">
         <v>80</v>
       </c>
-      <c r="D82" s="19">
+      <c r="D82" s="15">
         <f t="shared" si="5"/>
         <v>2793.8258514640393</v>
       </c>
-      <c r="E82" s="19">
+      <c r="E82" s="15">
         <v>2217.4604514952198</v>
       </c>
-      <c r="F82" s="19">
+      <c r="F82" s="15">
         <v>2217.46044921875</v>
       </c>
-      <c r="G82" s="19">
+      <c r="G82" s="15">
         <v>2752</v>
       </c>
       <c r="H82" s="14">
@@ -9820,7 +9815,7 @@
       </c>
       <c r="I82" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18981694187374598</v>
+        <v>0.59731419091286286</v>
       </c>
       <c r="J82" s="15">
         <v>0.84627429963901324</v>
@@ -9837,7 +9832,7 @@
       <c r="N82" s="17"/>
       <c r="O82" s="17"/>
     </row>
-    <row r="83" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>112</v>
       </c>
@@ -9848,17 +9843,17 @@
       <c r="C83" s="14">
         <v>81</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D83" s="15">
         <f t="shared" si="5"/>
         <v>2959.9553816930838</v>
       </c>
-      <c r="E83" s="19">
+      <c r="E83" s="15">
         <v>2217.46041135818</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F83" s="15">
         <v>2217.46044921875</v>
       </c>
-      <c r="G83" s="19">
+      <c r="G83" s="15">
         <v>2925</v>
       </c>
       <c r="H83" s="14">
@@ -9866,7 +9861,7 @@
       </c>
       <c r="I83" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2813829696182043</v>
+        <v>0.57264513751913504</v>
       </c>
       <c r="J83" s="15">
         <v>0.50928280494223221</v>
@@ -9883,7 +9878,7 @@
       <c r="N83" s="17"/>
       <c r="O83" s="17"/>
     </row>
-    <row r="84" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>113</v>
       </c>
@@ -9894,17 +9889,17 @@
       <c r="C84" s="14">
         <v>82</v>
       </c>
-      <c r="D84" s="19">
+      <c r="D84" s="15">
         <f t="shared" si="5"/>
         <v>3135.9634878540037</v>
       </c>
-      <c r="E84" s="19">
+      <c r="E84" s="15">
         <v>2217.4604174123201</v>
       </c>
-      <c r="F84" s="19">
+      <c r="F84" s="15">
         <v>2217.46044921875</v>
       </c>
-      <c r="G84" s="19">
+      <c r="G84" s="15">
         <v>3075</v>
       </c>
       <c r="H84" s="14">
@@ -9912,7 +9907,7 @@
       </c>
       <c r="I84" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>9.2445186007073965E-2</v>
+        <v>0.53461266176242295</v>
       </c>
       <c r="J84" s="15">
         <v>0.85529069266003699</v>
@@ -9929,7 +9924,7 @@
       <c r="N84" s="17"/>
       <c r="O84" s="17"/>
     </row>
-    <row r="85" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>114</v>
       </c>
@@ -9940,17 +9935,17 @@
       <c r="C85" s="14">
         <v>83</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D85" s="15">
         <f t="shared" si="5"/>
         <v>3322.437580639571</v>
       </c>
-      <c r="E85" s="19">
+      <c r="E85" s="15">
         <v>2217.4604443769199</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F85" s="15">
         <v>2217.46044921875</v>
       </c>
-      <c r="G85" s="19">
+      <c r="G85" s="15">
         <v>3285</v>
       </c>
       <c r="H85" s="14">
@@ -9958,7 +9953,7 @@
       </c>
       <c r="I85" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18919953648027532</v>
+        <v>0.84249023004474644</v>
       </c>
       <c r="J85" s="15">
         <v>0.84761148551526466</v>
@@ -9975,7 +9970,7 @@
       <c r="N85" s="17"/>
       <c r="O85" s="17"/>
     </row>
-    <row r="86" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>115</v>
       </c>
@@ -9986,17 +9981,17 @@
       <c r="C86" s="14">
         <v>84</v>
       </c>
-      <c r="D86" s="19">
+      <c r="D86" s="15">
         <f t="shared" si="5"/>
         <v>3520.0000000000105</v>
       </c>
-      <c r="E86" s="19">
+      <c r="E86" s="15">
         <v>2217.46026782433</v>
       </c>
-      <c r="F86" s="19">
+      <c r="F86" s="15">
         <v>2217.46020507812</v>
       </c>
-      <c r="G86" s="19">
+      <c r="G86" s="15">
         <v>3455</v>
       </c>
       <c r="H86" s="14">
@@ -10004,7 +9999,7 @@
       </c>
       <c r="I86" s="15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31705658720043317</v>
+        <v>6.0423996287324977E-2</v>
       </c>
       <c r="J86" s="15">
         <v>7.1234154753825774E-2</v>
@@ -10021,7 +10016,7 @@
       <c r="N86" s="17"/>
       <c r="O86" s="17"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
